--- a/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_XAI_NoEng_gelu.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_XAI_NoEng_gelu.xlsx
@@ -505,16 +505,16 @@
         <v>14.31699359657089</v>
       </c>
       <c r="G2" t="n">
-        <v>171.8413238525391</v>
+        <v>180.3220520019531</v>
       </c>
       <c r="H2" t="n">
-        <v>41.09225845336914</v>
+        <v>41.93754577636719</v>
       </c>
       <c r="I2" t="n">
-        <v>894.0928344726562</v>
+        <v>891.0340576171875</v>
       </c>
       <c r="J2" t="n">
-        <v>64.82683563232422</v>
+        <v>62.08023834228516</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>15.27891067420843</v>
       </c>
       <c r="G3" t="n">
-        <v>234.3758850097656</v>
+        <v>222.266357421875</v>
       </c>
       <c r="H3" t="n">
-        <v>55.35398483276367</v>
+        <v>47.20310592651367</v>
       </c>
       <c r="I3" t="n">
-        <v>896.6010131835938</v>
+        <v>895.6110229492188</v>
       </c>
       <c r="J3" t="n">
-        <v>60.93251037597656</v>
+        <v>61.50472259521484</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>15.85974020072816</v>
       </c>
       <c r="G4" t="n">
-        <v>283.7572631835938</v>
+        <v>257.4216003417969</v>
       </c>
       <c r="H4" t="n">
-        <v>76.89940643310547</v>
+        <v>60.26096725463867</v>
       </c>
       <c r="I4" t="n">
-        <v>891.4715576171875</v>
+        <v>893.44189453125</v>
       </c>
       <c r="J4" t="n">
-        <v>62.21871185302734</v>
+        <v>63.49473571777344</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>16.6254486072678</v>
       </c>
       <c r="G5" t="n">
-        <v>342.0614318847656</v>
+        <v>293.5064086914062</v>
       </c>
       <c r="H5" t="n">
-        <v>125.4587020874023</v>
+        <v>84.27217864990234</v>
       </c>
       <c r="I5" t="n">
-        <v>882.0578002929688</v>
+        <v>887.2715454101562</v>
       </c>
       <c r="J5" t="n">
-        <v>64.00779724121094</v>
+        <v>65.3514404296875</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>16.72168606967666</v>
       </c>
       <c r="G6" t="n">
-        <v>417.9472045898438</v>
+        <v>338.6332092285156</v>
       </c>
       <c r="H6" t="n">
-        <v>152.2874908447266</v>
+        <v>117.9339904785156</v>
       </c>
       <c r="I6" t="n">
-        <v>870.9522094726562</v>
+        <v>883.1869506835938</v>
       </c>
       <c r="J6" t="n">
-        <v>69.05610656738281</v>
+        <v>68.79489898681641</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>17.58023045110392</v>
       </c>
       <c r="G7" t="n">
-        <v>144.5251617431641</v>
+        <v>147.0129547119141</v>
       </c>
       <c r="H7" t="n">
-        <v>40.74653625488281</v>
+        <v>36.26764297485352</v>
       </c>
       <c r="I7" t="n">
-        <v>901.6226196289062</v>
+        <v>909.692626953125</v>
       </c>
       <c r="J7" t="n">
-        <v>87.19081878662109</v>
+        <v>76.71865081787109</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>18.57818076528054</v>
       </c>
       <c r="G8" t="n">
-        <v>144.8576354980469</v>
+        <v>147.3888397216797</v>
       </c>
       <c r="H8" t="n">
-        <v>37.4809455871582</v>
+        <v>35.56124877929688</v>
       </c>
       <c r="I8" t="n">
-        <v>912.2115478515625</v>
+        <v>911.0691528320312</v>
       </c>
       <c r="J8" t="n">
-        <v>67.08058929443359</v>
+        <v>69.76026916503906</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>19.60838259075554</v>
       </c>
       <c r="G9" t="n">
-        <v>163.426513671875</v>
+        <v>169.8962097167969</v>
       </c>
       <c r="H9" t="n">
-        <v>41.88616561889648</v>
+        <v>40.24930572509766</v>
       </c>
       <c r="I9" t="n">
-        <v>915.752685546875</v>
+        <v>905.5026245117188</v>
       </c>
       <c r="J9" t="n">
-        <v>63.02045059204102</v>
+        <v>65.83056640625</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>20.10500298210745</v>
       </c>
       <c r="G10" t="n">
-        <v>212.1506195068359</v>
+        <v>208.1620178222656</v>
       </c>
       <c r="H10" t="n">
-        <v>59.80294799804688</v>
+        <v>48.9841194152832</v>
       </c>
       <c r="I10" t="n">
-        <v>907.3106079101562</v>
+        <v>903.5029907226562</v>
       </c>
       <c r="J10" t="n">
-        <v>64.79197692871094</v>
+        <v>65.73475646972656</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>20.82282672295324</v>
       </c>
       <c r="G11" t="n">
-        <v>270.9768676757812</v>
+        <v>258.9553833007812</v>
       </c>
       <c r="H11" t="n">
-        <v>69.16030120849609</v>
+        <v>62.87617111206055</v>
       </c>
       <c r="I11" t="n">
-        <v>898.6560668945312</v>
+        <v>900.8029174804688</v>
       </c>
       <c r="J11" t="n">
-        <v>68.72997283935547</v>
+        <v>69.01838684082031</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>21.05931589769223</v>
       </c>
       <c r="G12" t="n">
-        <v>343.1781921386719</v>
+        <v>314.331298828125</v>
       </c>
       <c r="H12" t="n">
-        <v>109.5336837768555</v>
+        <v>95.56813812255859</v>
       </c>
       <c r="I12" t="n">
-        <v>898.1181030273438</v>
+        <v>899.9874877929688</v>
       </c>
       <c r="J12" t="n">
-        <v>67.73693084716797</v>
+        <v>71.81742858886719</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>21.38449445236935</v>
       </c>
       <c r="G13" t="n">
-        <v>497.4708251953125</v>
+        <v>431.4173583984375</v>
       </c>
       <c r="H13" t="n">
-        <v>156.6578369140625</v>
+        <v>156.0308074951172</v>
       </c>
       <c r="I13" t="n">
-        <v>887.541748046875</v>
+        <v>886.9423217773438</v>
       </c>
       <c r="J13" t="n">
-        <v>71.78179931640625</v>
+        <v>78.86876678466797</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>19.79697020692051</v>
       </c>
       <c r="G14" t="n">
-        <v>130.3476867675781</v>
+        <v>138.0799560546875</v>
       </c>
       <c r="H14" t="n">
-        <v>46.17250442504883</v>
+        <v>43.08036804199219</v>
       </c>
       <c r="I14" t="n">
-        <v>674.160888671875</v>
+        <v>693.1727905273438</v>
       </c>
       <c r="J14" t="n">
-        <v>102.357177734375</v>
+        <v>105.7530212402344</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>21.48203443327129</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4875335693359</v>
+        <v>140.2930297851562</v>
       </c>
       <c r="H15" t="n">
-        <v>42.75419235229492</v>
+        <v>40.94027709960938</v>
       </c>
       <c r="I15" t="n">
-        <v>939.5678100585938</v>
+        <v>940.2439575195312</v>
       </c>
       <c r="J15" t="n">
-        <v>78.45822143554688</v>
+        <v>78.46766662597656</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>22.47631622738632</v>
       </c>
       <c r="G16" t="n">
-        <v>138.2547454833984</v>
+        <v>145.1510009765625</v>
       </c>
       <c r="H16" t="n">
-        <v>38.3699951171875</v>
+        <v>37.83935928344727</v>
       </c>
       <c r="I16" t="n">
-        <v>959.3741455078125</v>
+        <v>952.5003051757812</v>
       </c>
       <c r="J16" t="n">
-        <v>83.53734588623047</v>
+        <v>84.38654327392578</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>24.35763244318183</v>
       </c>
       <c r="G17" t="n">
-        <v>144.5933227539062</v>
+        <v>149.1867065429688</v>
       </c>
       <c r="H17" t="n">
-        <v>40.12638854980469</v>
+        <v>37.89908218383789</v>
       </c>
       <c r="I17" t="n">
-        <v>956.8384399414062</v>
+        <v>962.0830078125</v>
       </c>
       <c r="J17" t="n">
-        <v>91.34735107421875</v>
+        <v>78.23461151123047</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>25.62064236797445</v>
       </c>
       <c r="G18" t="n">
-        <v>162.4742431640625</v>
+        <v>171.852294921875</v>
       </c>
       <c r="H18" t="n">
-        <v>52.80242538452148</v>
+        <v>41.74161911010742</v>
       </c>
       <c r="I18" t="n">
-        <v>932.7332153320312</v>
+        <v>926.3798217773438</v>
       </c>
       <c r="J18" t="n">
-        <v>81.63539886474609</v>
+        <v>77.58401489257812</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>25.92967709475499</v>
       </c>
       <c r="G19" t="n">
-        <v>224.0751037597656</v>
+        <v>232.2608642578125</v>
       </c>
       <c r="H19" t="n">
-        <v>65.16477966308594</v>
+        <v>65.69293212890625</v>
       </c>
       <c r="I19" t="n">
-        <v>906.9938354492188</v>
+        <v>902.73876953125</v>
       </c>
       <c r="J19" t="n">
-        <v>79.31326293945312</v>
+        <v>77.19617462158203</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>26.19588155013293</v>
       </c>
       <c r="G20" t="n">
-        <v>287.0826416015625</v>
+        <v>286.1798095703125</v>
       </c>
       <c r="H20" t="n">
-        <v>77.02887725830078</v>
+        <v>81.24851989746094</v>
       </c>
       <c r="I20" t="n">
-        <v>893.5574951171875</v>
+        <v>894.8790893554688</v>
       </c>
       <c r="J20" t="n">
-        <v>80.58509063720703</v>
+        <v>80.89389801025391</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>25.87267490890685</v>
       </c>
       <c r="G21" t="n">
-        <v>458.7932739257812</v>
+        <v>413.9576416015625</v>
       </c>
       <c r="H21" t="n">
-        <v>154.6755218505859</v>
+        <v>145.4870910644531</v>
       </c>
       <c r="I21" t="n">
-        <v>886.7257080078125</v>
+        <v>886.1828002929688</v>
       </c>
       <c r="J21" t="n">
-        <v>81.5146484375</v>
+        <v>86.28118896484375</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>24.64055238634836</v>
       </c>
       <c r="G22" t="n">
-        <v>711.6615600585938</v>
+        <v>666.196533203125</v>
       </c>
       <c r="H22" t="n">
-        <v>105.2688293457031</v>
+        <v>166.4115753173828</v>
       </c>
       <c r="I22" t="n">
-        <v>875.8718872070312</v>
+        <v>872.06591796875</v>
       </c>
       <c r="J22" t="n">
-        <v>81.30699920654297</v>
+        <v>94.60448455810547</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>24.69862396067251</v>
       </c>
       <c r="G23" t="n">
-        <v>123.2711563110352</v>
+        <v>131.7826843261719</v>
       </c>
       <c r="H23" t="n">
-        <v>44.25597763061523</v>
+        <v>44.09636306762695</v>
       </c>
       <c r="I23" t="n">
-        <v>312.1683654785156</v>
+        <v>327.0538940429688</v>
       </c>
       <c r="J23" t="n">
-        <v>113.0621490478516</v>
+        <v>116.7001647949219</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>27.11629087610016</v>
       </c>
       <c r="G24" t="n">
-        <v>123.3046340942383</v>
+        <v>131.1458435058594</v>
       </c>
       <c r="H24" t="n">
-        <v>41.98163604736328</v>
+        <v>40.55794525146484</v>
       </c>
       <c r="I24" t="n">
-        <v>524.0609130859375</v>
+        <v>539.6283569335938</v>
       </c>
       <c r="J24" t="n">
-        <v>135.8988342285156</v>
+        <v>118.0063095092773</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>28.97995691733995</v>
       </c>
       <c r="G25" t="n">
-        <v>127.3905181884766</v>
+        <v>134.8441925048828</v>
       </c>
       <c r="H25" t="n">
-        <v>42.7319450378418</v>
+        <v>39.66244125366211</v>
       </c>
       <c r="I25" t="n">
-        <v>862.6356201171875</v>
+        <v>873.9234619140625</v>
       </c>
       <c r="J25" t="n">
-        <v>97.89455413818359</v>
+        <v>98.53214263916016</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>30.34265377319738</v>
       </c>
       <c r="G26" t="n">
-        <v>134.1728515625</v>
+        <v>139.5195770263672</v>
       </c>
       <c r="H26" t="n">
-        <v>40.32008361816406</v>
+        <v>38.55438613891602</v>
       </c>
       <c r="I26" t="n">
-        <v>984.9974975585938</v>
+        <v>995.78125</v>
       </c>
       <c r="J26" t="n">
-        <v>77.60875701904297</v>
+        <v>80.30064392089844</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>31.86528713449996</v>
       </c>
       <c r="G27" t="n">
-        <v>147.2792663574219</v>
+        <v>148.9598999023438</v>
       </c>
       <c r="H27" t="n">
-        <v>40.53065490722656</v>
+        <v>39.51521682739258</v>
       </c>
       <c r="I27" t="n">
-        <v>968.4913330078125</v>
+        <v>985.091796875</v>
       </c>
       <c r="J27" t="n">
-        <v>82.17728424072266</v>
+        <v>80.04095458984375</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>31.70139237157215</v>
       </c>
       <c r="G28" t="n">
-        <v>195.5313568115234</v>
+        <v>196.6894989013672</v>
       </c>
       <c r="H28" t="n">
-        <v>68.86020660400391</v>
+        <v>53.71471405029297</v>
       </c>
       <c r="I28" t="n">
-        <v>910.130615234375</v>
+        <v>929.8467407226562</v>
       </c>
       <c r="J28" t="n">
-        <v>92.94770812988281</v>
+        <v>77.79884338378906</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>31.7420363140709</v>
       </c>
       <c r="G29" t="n">
-        <v>265.3852844238281</v>
+        <v>265.22021484375</v>
       </c>
       <c r="H29" t="n">
-        <v>64.55039978027344</v>
+        <v>75.92190551757812</v>
       </c>
       <c r="I29" t="n">
-        <v>874.4609375</v>
+        <v>898.1351928710938</v>
       </c>
       <c r="J29" t="n">
-        <v>102.1347503662109</v>
+        <v>75.26188659667969</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>30.76237588603813</v>
       </c>
       <c r="G30" t="n">
-        <v>422.2923889160156</v>
+        <v>401.5231628417969</v>
       </c>
       <c r="H30" t="n">
-        <v>149.4355316162109</v>
+        <v>129.7322845458984</v>
       </c>
       <c r="I30" t="n">
-        <v>861.03076171875</v>
+        <v>872.619873046875</v>
       </c>
       <c r="J30" t="n">
-        <v>98.37146759033203</v>
+        <v>83.21352386474609</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>29.73442789455431</v>
       </c>
       <c r="G31" t="n">
-        <v>702.9749755859375</v>
+        <v>672.1063842773438</v>
       </c>
       <c r="H31" t="n">
-        <v>119.7134323120117</v>
+        <v>134.0706634521484</v>
       </c>
       <c r="I31" t="n">
-        <v>857.4729614257812</v>
+        <v>853.26611328125</v>
       </c>
       <c r="J31" t="n">
-        <v>106.3217010498047</v>
+        <v>94.33062744140625</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>30.37782838567884</v>
       </c>
       <c r="G32" t="n">
-        <v>116.5158233642578</v>
+        <v>125.8145599365234</v>
       </c>
       <c r="H32" t="n">
-        <v>43.40695190429688</v>
+        <v>42.44272613525391</v>
       </c>
       <c r="I32" t="n">
-        <v>123.6348190307617</v>
+        <v>152.8258514404297</v>
       </c>
       <c r="J32" t="n">
-        <v>65.41316223144531</v>
+        <v>76.14211273193359</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>33.11659379389907</v>
       </c>
       <c r="G33" t="n">
-        <v>121.7880096435547</v>
+        <v>125.4541778564453</v>
       </c>
       <c r="H33" t="n">
-        <v>45.03955841064453</v>
+        <v>41.12098693847656</v>
       </c>
       <c r="I33" t="n">
-        <v>220.0540618896484</v>
+        <v>243.7427062988281</v>
       </c>
       <c r="J33" t="n">
-        <v>94.96612548828125</v>
+        <v>96.63904571533203</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>35.40504769440309</v>
       </c>
       <c r="G34" t="n">
-        <v>125.9039993286133</v>
+        <v>128.8170776367188</v>
       </c>
       <c r="H34" t="n">
-        <v>42.85848236083984</v>
+        <v>44.04716873168945</v>
       </c>
       <c r="I34" t="n">
-        <v>393.5492858886719</v>
+        <v>406.1625671386719</v>
       </c>
       <c r="J34" t="n">
-        <v>137.8222503662109</v>
+        <v>120.0406265258789</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>37.57764389518124</v>
       </c>
       <c r="G35" t="n">
-        <v>134.4882049560547</v>
+        <v>131.5256652832031</v>
       </c>
       <c r="H35" t="n">
-        <v>42.38849258422852</v>
+        <v>40.28572845458984</v>
       </c>
       <c r="I35" t="n">
-        <v>548.1771850585938</v>
+        <v>566.6661376953125</v>
       </c>
       <c r="J35" t="n">
-        <v>156.3741760253906</v>
+        <v>128.51513671875</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>38.09115608907656</v>
       </c>
       <c r="G36" t="n">
-        <v>145.3878936767578</v>
+        <v>145.8061828613281</v>
       </c>
       <c r="H36" t="n">
-        <v>42.26857757568359</v>
+        <v>40.34851455688477</v>
       </c>
       <c r="I36" t="n">
-        <v>781.8062133789062</v>
+        <v>810.7380981445312</v>
       </c>
       <c r="J36" t="n">
-        <v>122.5440902709961</v>
+        <v>117.9598999023438</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>38.33579750611559</v>
       </c>
       <c r="G37" t="n">
-        <v>168.5925445556641</v>
+        <v>172.9507751464844</v>
       </c>
       <c r="H37" t="n">
-        <v>47.02481079101562</v>
+        <v>44.16928863525391</v>
       </c>
       <c r="I37" t="n">
-        <v>818.8051147460938</v>
+        <v>846.042236328125</v>
       </c>
       <c r="J37" t="n">
-        <v>119.8536682128906</v>
+        <v>105.9811096191406</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>37.89528654115976</v>
       </c>
       <c r="G38" t="n">
-        <v>267.1594543457031</v>
+        <v>257.7490844726562</v>
       </c>
       <c r="H38" t="n">
-        <v>72.38938140869141</v>
+        <v>72.64027404785156</v>
       </c>
       <c r="I38" t="n">
-        <v>822.913818359375</v>
+        <v>845.440185546875</v>
       </c>
       <c r="J38" t="n">
-        <v>109.9571533203125</v>
+        <v>101.6096878051758</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>37.04916938976096</v>
       </c>
       <c r="G39" t="n">
-        <v>388.5412902832031</v>
+        <v>385.1668701171875</v>
       </c>
       <c r="H39" t="n">
-        <v>90.32110595703125</v>
+        <v>103.7060012817383</v>
       </c>
       <c r="I39" t="n">
-        <v>799.7545166015625</v>
+        <v>818.3118896484375</v>
       </c>
       <c r="J39" t="n">
-        <v>111.6383895874023</v>
+        <v>102.9390716552734</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>35.00856026880581</v>
       </c>
       <c r="G40" t="n">
-        <v>629.2965698242188</v>
+        <v>634.6343994140625</v>
       </c>
       <c r="H40" t="n">
-        <v>116.4655151367188</v>
+        <v>103.9546432495117</v>
       </c>
       <c r="I40" t="n">
-        <v>805.5400390625</v>
+        <v>792.544677734375</v>
       </c>
       <c r="J40" t="n">
-        <v>137.9345245361328</v>
+        <v>135.5435791015625</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>37.58863922492247</v>
       </c>
       <c r="G41" t="n">
-        <v>116.5371856689453</v>
+        <v>122.0397796630859</v>
       </c>
       <c r="H41" t="n">
-        <v>42.70034027099609</v>
+        <v>43.52904891967773</v>
       </c>
       <c r="I41" t="n">
-        <v>90.74257659912109</v>
+        <v>104.1847229003906</v>
       </c>
       <c r="J41" t="n">
-        <v>50.30769729614258</v>
+        <v>53.20535278320312</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>40.4685427958547</v>
       </c>
       <c r="G42" t="n">
-        <v>117.9419937133789</v>
+        <v>127.0061492919922</v>
       </c>
       <c r="H42" t="n">
-        <v>41.95929336547852</v>
+        <v>43.54495620727539</v>
       </c>
       <c r="I42" t="n">
-        <v>123.9677734375</v>
+        <v>135.1588592529297</v>
       </c>
       <c r="J42" t="n">
-        <v>61.68647384643555</v>
+        <v>57.18557739257812</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>42.41365999634309</v>
       </c>
       <c r="G43" t="n">
-        <v>121.4756774902344</v>
+        <v>128.1800384521484</v>
       </c>
       <c r="H43" t="n">
-        <v>42.2855224609375</v>
+        <v>43.14831924438477</v>
       </c>
       <c r="I43" t="n">
-        <v>158.1961517333984</v>
+        <v>172.4139404296875</v>
       </c>
       <c r="J43" t="n">
-        <v>69.57696533203125</v>
+        <v>71.48213195800781</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>44.05056700894834</v>
       </c>
       <c r="G44" t="n">
-        <v>130.3342132568359</v>
+        <v>130.9224853515625</v>
       </c>
       <c r="H44" t="n">
-        <v>43.10194396972656</v>
+        <v>42.98589706420898</v>
       </c>
       <c r="I44" t="n">
-        <v>265.1203308105469</v>
+        <v>279.2983703613281</v>
       </c>
       <c r="J44" t="n">
-        <v>98.74462127685547</v>
+        <v>93.10992431640625</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>45.28527361475503</v>
       </c>
       <c r="G45" t="n">
-        <v>138.177490234375</v>
+        <v>140.3720397949219</v>
       </c>
       <c r="H45" t="n">
-        <v>43.08965682983398</v>
+        <v>43.70756530761719</v>
       </c>
       <c r="I45" t="n">
-        <v>329.9187927246094</v>
+        <v>345.7929382324219</v>
       </c>
       <c r="J45" t="n">
-        <v>112.5985794067383</v>
+        <v>99.32553100585938</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>45.11415223222625</v>
       </c>
       <c r="G46" t="n">
-        <v>158.9952545166016</v>
+        <v>162.4996643066406</v>
       </c>
       <c r="H46" t="n">
-        <v>44.60552215576172</v>
+        <v>43.01967620849609</v>
       </c>
       <c r="I46" t="n">
-        <v>434.25244140625</v>
+        <v>459.2645874023438</v>
       </c>
       <c r="J46" t="n">
-        <v>122.66064453125</v>
+        <v>117.1682891845703</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>44.97584185956661</v>
       </c>
       <c r="G47" t="n">
-        <v>230.8320007324219</v>
+        <v>240.3199157714844</v>
       </c>
       <c r="H47" t="n">
-        <v>54.85928344726562</v>
+        <v>66.22621917724609</v>
       </c>
       <c r="I47" t="n">
-        <v>554.0123291015625</v>
+        <v>585.4508666992188</v>
       </c>
       <c r="J47" t="n">
-        <v>141.3500518798828</v>
+        <v>141.4218597412109</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>42.0865253634753</v>
       </c>
       <c r="G48" t="n">
-        <v>389.2650451660156</v>
+        <v>398.7572326660156</v>
       </c>
       <c r="H48" t="n">
-        <v>73.67007446289062</v>
+        <v>96.46829223632812</v>
       </c>
       <c r="I48" t="n">
-        <v>678.0541381835938</v>
+        <v>687.7462158203125</v>
       </c>
       <c r="J48" t="n">
-        <v>159.3746185302734</v>
+        <v>146.3005981445312</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>40.81585186348995</v>
       </c>
       <c r="G49" t="n">
-        <v>561.2040405273438</v>
+        <v>585.8626098632812</v>
       </c>
       <c r="H49" t="n">
-        <v>95.9700927734375</v>
+        <v>107.2087936401367</v>
       </c>
       <c r="I49" t="n">
-        <v>714.8119506835938</v>
+        <v>706.900146484375</v>
       </c>
       <c r="J49" t="n">
-        <v>168.7623443603516</v>
+        <v>169.284912109375</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>45.37200448015243</v>
       </c>
       <c r="G50" t="n">
-        <v>116.6570053100586</v>
+        <v>121.8348159790039</v>
       </c>
       <c r="H50" t="n">
-        <v>43.90850830078125</v>
+        <v>43.72603225708008</v>
       </c>
       <c r="I50" t="n">
-        <v>58.98187637329102</v>
+        <v>66.292236328125</v>
       </c>
       <c r="J50" t="n">
-        <v>47.27512741088867</v>
+        <v>48.54360961914062</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>48.78786662406539</v>
       </c>
       <c r="G51" t="n">
-        <v>120.0686569213867</v>
+        <v>126.561653137207</v>
       </c>
       <c r="H51" t="n">
-        <v>42.46546936035156</v>
+        <v>45.06979751586914</v>
       </c>
       <c r="I51" t="n">
-        <v>74.79436492919922</v>
+        <v>78.246826171875</v>
       </c>
       <c r="J51" t="n">
-        <v>52.01093673706055</v>
+        <v>57.35893249511719</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>50.73675625671652</v>
       </c>
       <c r="G52" t="n">
-        <v>124.3824234008789</v>
+        <v>128.0980834960938</v>
       </c>
       <c r="H52" t="n">
-        <v>42.76605606079102</v>
+        <v>42.9080696105957</v>
       </c>
       <c r="I52" t="n">
-        <v>80.23502349853516</v>
+        <v>81.22370910644531</v>
       </c>
       <c r="J52" t="n">
-        <v>52.38623809814453</v>
+        <v>60.71638107299805</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>51.96609868449762</v>
       </c>
       <c r="G53" t="n">
-        <v>130.6877899169922</v>
+        <v>133.1248016357422</v>
       </c>
       <c r="H53" t="n">
-        <v>42.94890213012695</v>
+        <v>44.18886566162109</v>
       </c>
       <c r="I53" t="n">
-        <v>106.565055847168</v>
+        <v>103.7442092895508</v>
       </c>
       <c r="J53" t="n">
-        <v>65.66611480712891</v>
+        <v>63.82311248779297</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>52.45736467440484</v>
       </c>
       <c r="G54" t="n">
-        <v>142.3730010986328</v>
+        <v>142.918701171875</v>
       </c>
       <c r="H54" t="n">
-        <v>43.02463531494141</v>
+        <v>43.61664199829102</v>
       </c>
       <c r="I54" t="n">
-        <v>140.9156494140625</v>
+        <v>141.3680419921875</v>
       </c>
       <c r="J54" t="n">
-        <v>66.24208068847656</v>
+        <v>66.16072845458984</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>51.85220057025387</v>
       </c>
       <c r="G55" t="n">
-        <v>161.1682739257812</v>
+        <v>160.3858947753906</v>
       </c>
       <c r="H55" t="n">
-        <v>45.16921234130859</v>
+        <v>44.1700439453125</v>
       </c>
       <c r="I55" t="n">
-        <v>194.0867614746094</v>
+        <v>196.1520538330078</v>
       </c>
       <c r="J55" t="n">
-        <v>70.37872314453125</v>
+        <v>71.223388671875</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>51.37276147532685</v>
       </c>
       <c r="G56" t="n">
-        <v>206.7472076416016</v>
+        <v>216.8849029541016</v>
       </c>
       <c r="H56" t="n">
-        <v>50.54365539550781</v>
+        <v>54.305908203125</v>
       </c>
       <c r="I56" t="n">
-        <v>233.0930786132812</v>
+        <v>228.5097961425781</v>
       </c>
       <c r="J56" t="n">
-        <v>81.61483764648438</v>
+        <v>85.42758178710938</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>49.881475732815</v>
       </c>
       <c r="G57" t="n">
-        <v>342.7196655273438</v>
+        <v>353.4138488769531</v>
       </c>
       <c r="H57" t="n">
-        <v>72.32574462890625</v>
+        <v>90.29465484619141</v>
       </c>
       <c r="I57" t="n">
-        <v>356.2708740234375</v>
+        <v>373.8523559570312</v>
       </c>
       <c r="J57" t="n">
-        <v>134.0906982421875</v>
+        <v>166.5826110839844</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>46.147295090649</v>
       </c>
       <c r="G58" t="n">
-        <v>554.1458740234375</v>
+        <v>582.3285522460938</v>
       </c>
       <c r="H58" t="n">
-        <v>93.77783203125</v>
+        <v>100.9186019897461</v>
       </c>
       <c r="I58" t="n">
-        <v>510.7987365722656</v>
+        <v>490.160888671875</v>
       </c>
       <c r="J58" t="n">
-        <v>204.5210723876953</v>
+        <v>234.2660369873047</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>56.70921047332411</v>
       </c>
       <c r="G59" t="n">
-        <v>123.453369140625</v>
+        <v>127.1728897094727</v>
       </c>
       <c r="H59" t="n">
-        <v>42.49822616577148</v>
+        <v>43.48527145385742</v>
       </c>
       <c r="I59" t="n">
-        <v>10.92957496643066</v>
+        <v>6.593703269958496</v>
       </c>
       <c r="J59" t="n">
-        <v>65.62930297851562</v>
+        <v>69.7574462890625</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>58.23723423416003</v>
       </c>
       <c r="G60" t="n">
-        <v>126.7486877441406</v>
+        <v>133.0458374023438</v>
       </c>
       <c r="H60" t="n">
-        <v>43.38391876220703</v>
+        <v>42.92428207397461</v>
       </c>
       <c r="I60" t="n">
-        <v>4.302249908447266</v>
+        <v>0.4826403260231018</v>
       </c>
       <c r="J60" t="n">
-        <v>68.35004425048828</v>
+        <v>75.37255096435547</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>59.34611390594659</v>
       </c>
       <c r="G61" t="n">
-        <v>134.1451110839844</v>
+        <v>135.3076629638672</v>
       </c>
       <c r="H61" t="n">
-        <v>42.90250396728516</v>
+        <v>43.37038040161133</v>
       </c>
       <c r="I61" t="n">
-        <v>12.84645938873291</v>
+        <v>-0.7246589660644531</v>
       </c>
       <c r="J61" t="n">
-        <v>74.61811828613281</v>
+        <v>77.20920562744141</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>59.33493295870724</v>
       </c>
       <c r="G62" t="n">
-        <v>141.5726165771484</v>
+        <v>145.6846466064453</v>
       </c>
       <c r="H62" t="n">
-        <v>43.64375305175781</v>
+        <v>45.10259246826172</v>
       </c>
       <c r="I62" t="n">
-        <v>23.09322357177734</v>
+        <v>13.22781372070312</v>
       </c>
       <c r="J62" t="n">
-        <v>76.71461486816406</v>
+        <v>78.96063995361328</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>58.39353789451046</v>
       </c>
       <c r="G63" t="n">
-        <v>158.62744140625</v>
+        <v>159.7922973632812</v>
       </c>
       <c r="H63" t="n">
-        <v>47.82887649536133</v>
+        <v>49.0242919921875</v>
       </c>
       <c r="I63" t="n">
-        <v>50.74649810791016</v>
+        <v>49.38850784301758</v>
       </c>
       <c r="J63" t="n">
-        <v>79.22203063964844</v>
+        <v>74.90644836425781</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>57.3323684814925</v>
       </c>
       <c r="G64" t="n">
-        <v>205.3221282958984</v>
+        <v>204.3712615966797</v>
       </c>
       <c r="H64" t="n">
-        <v>53.02202606201172</v>
+        <v>54.06855010986328</v>
       </c>
       <c r="I64" t="n">
-        <v>80.75953674316406</v>
+        <v>69.75480651855469</v>
       </c>
       <c r="J64" t="n">
-        <v>78.96602630615234</v>
+        <v>79.64091491699219</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>54.83283250514894</v>
       </c>
       <c r="G65" t="n">
-        <v>336.392578125</v>
+        <v>348.4502563476562</v>
       </c>
       <c r="H65" t="n">
-        <v>81.7630615234375</v>
+        <v>89.69213104248047</v>
       </c>
       <c r="I65" t="n">
-        <v>162.2548370361328</v>
+        <v>145.5540313720703</v>
       </c>
       <c r="J65" t="n">
-        <v>103.0267639160156</v>
+        <v>115.15185546875</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>66.18771861830042</v>
       </c>
       <c r="G66" t="n">
-        <v>140.0368957519531</v>
+        <v>142.4814147949219</v>
       </c>
       <c r="H66" t="n">
-        <v>45.94106292724609</v>
+        <v>45.83337783813477</v>
       </c>
       <c r="I66" t="n">
-        <v>-81.06838226318359</v>
+        <v>-93.45979309082031</v>
       </c>
       <c r="J66" t="n">
-        <v>89.94293975830078</v>
+        <v>89.13179779052734</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>66.85471859160208</v>
       </c>
       <c r="G67" t="n">
-        <v>142.5969543457031</v>
+        <v>147.4079284667969</v>
       </c>
       <c r="H67" t="n">
-        <v>49.44418716430664</v>
+        <v>48.66036605834961</v>
       </c>
       <c r="I67" t="n">
-        <v>-90.37898254394531</v>
+        <v>-102.1924438476562</v>
       </c>
       <c r="J67" t="n">
-        <v>92.76384735107422</v>
+        <v>93.50932312011719</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>66.29608309198557</v>
       </c>
       <c r="G68" t="n">
-        <v>154.0377960205078</v>
+        <v>159.6935119628906</v>
       </c>
       <c r="H68" t="n">
-        <v>49.30283737182617</v>
+        <v>51.158447265625</v>
       </c>
       <c r="I68" t="n">
-        <v>-70.97269439697266</v>
+        <v>-87.37874603271484</v>
       </c>
       <c r="J68" t="n">
-        <v>94.30775451660156</v>
+        <v>91.83345794677734</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>65.32452373485688</v>
       </c>
       <c r="G69" t="n">
-        <v>168.2179412841797</v>
+        <v>169.2071685791016</v>
       </c>
       <c r="H69" t="n">
-        <v>52.50956344604492</v>
+        <v>50.5726318359375</v>
       </c>
       <c r="I69" t="n">
-        <v>-61.66664123535156</v>
+        <v>-71.49398040771484</v>
       </c>
       <c r="J69" t="n">
-        <v>93.56999969482422</v>
+        <v>94.31468963623047</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>63.37031159981304</v>
       </c>
       <c r="G70" t="n">
-        <v>204.7884063720703</v>
+        <v>201.2776947021484</v>
       </c>
       <c r="H70" t="n">
-        <v>57.94347381591797</v>
+        <v>53.7231330871582</v>
       </c>
       <c r="I70" t="n">
-        <v>-20.79600715637207</v>
+        <v>-32.51496887207031</v>
       </c>
       <c r="J70" t="n">
-        <v>96.95832824707031</v>
+        <v>93.70158386230469</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_XAI_NoEng_gelu.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_XAI_NoEng_gelu.xlsx
@@ -505,16 +505,16 @@
         <v>14.31699359657089</v>
       </c>
       <c r="G2" t="n">
-        <v>180.3220520019531</v>
+        <v>176.9116363525391</v>
       </c>
       <c r="H2" t="n">
-        <v>41.93754577636719</v>
+        <v>41.10927200317383</v>
       </c>
       <c r="I2" t="n">
-        <v>891.0340576171875</v>
+        <v>896.2177124023438</v>
       </c>
       <c r="J2" t="n">
-        <v>62.08023834228516</v>
+        <v>63.39271926879883</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>15.27891067420843</v>
       </c>
       <c r="G3" t="n">
-        <v>222.266357421875</v>
+        <v>222.5449523925781</v>
       </c>
       <c r="H3" t="n">
-        <v>47.20310592651367</v>
+        <v>50.22461318969727</v>
       </c>
       <c r="I3" t="n">
-        <v>895.6110229492188</v>
+        <v>898.4345092773438</v>
       </c>
       <c r="J3" t="n">
-        <v>61.50472259521484</v>
+        <v>60.89715957641602</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>15.85974020072816</v>
       </c>
       <c r="G4" t="n">
-        <v>257.4216003417969</v>
+        <v>256.9688415527344</v>
       </c>
       <c r="H4" t="n">
-        <v>60.26096725463867</v>
+        <v>59.33928298950195</v>
       </c>
       <c r="I4" t="n">
-        <v>893.44189453125</v>
+        <v>895.8334350585938</v>
       </c>
       <c r="J4" t="n">
-        <v>63.49473571777344</v>
+        <v>63.18611526489258</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>16.6254486072678</v>
       </c>
       <c r="G5" t="n">
-        <v>293.5064086914062</v>
+        <v>291.8574523925781</v>
       </c>
       <c r="H5" t="n">
-        <v>84.27217864990234</v>
+        <v>84.29299163818359</v>
       </c>
       <c r="I5" t="n">
-        <v>887.2715454101562</v>
+        <v>888.8779907226562</v>
       </c>
       <c r="J5" t="n">
-        <v>65.3514404296875</v>
+        <v>66.58554840087891</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>16.72168606967666</v>
       </c>
       <c r="G6" t="n">
-        <v>338.6332092285156</v>
+        <v>342.3589172363281</v>
       </c>
       <c r="H6" t="n">
-        <v>117.9339904785156</v>
+        <v>121.6391983032227</v>
       </c>
       <c r="I6" t="n">
-        <v>883.1869506835938</v>
+        <v>884.4868774414062</v>
       </c>
       <c r="J6" t="n">
-        <v>68.79489898681641</v>
+        <v>70.92591857910156</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>17.58023045110392</v>
       </c>
       <c r="G7" t="n">
-        <v>147.0129547119141</v>
+        <v>147.2946319580078</v>
       </c>
       <c r="H7" t="n">
-        <v>36.26764297485352</v>
+        <v>37.21050643920898</v>
       </c>
       <c r="I7" t="n">
-        <v>909.692626953125</v>
+        <v>914.7033081054688</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71865081787109</v>
+        <v>77.08460235595703</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>18.57818076528054</v>
       </c>
       <c r="G8" t="n">
-        <v>147.3888397216797</v>
+        <v>150.2329864501953</v>
       </c>
       <c r="H8" t="n">
-        <v>35.56124877929688</v>
+        <v>38.16862487792969</v>
       </c>
       <c r="I8" t="n">
-        <v>911.0691528320312</v>
+        <v>906.983154296875</v>
       </c>
       <c r="J8" t="n">
-        <v>69.76026916503906</v>
+        <v>68.81062316894531</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>19.60838259075554</v>
       </c>
       <c r="G9" t="n">
-        <v>169.8962097167969</v>
+        <v>172.6689300537109</v>
       </c>
       <c r="H9" t="n">
-        <v>40.24930572509766</v>
+        <v>39.17856979370117</v>
       </c>
       <c r="I9" t="n">
-        <v>905.5026245117188</v>
+        <v>908.7388305664062</v>
       </c>
       <c r="J9" t="n">
-        <v>65.83056640625</v>
+        <v>63.22132873535156</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>20.10500298210745</v>
       </c>
       <c r="G10" t="n">
-        <v>208.1620178222656</v>
+        <v>208.0441131591797</v>
       </c>
       <c r="H10" t="n">
-        <v>48.9841194152832</v>
+        <v>48.77443313598633</v>
       </c>
       <c r="I10" t="n">
-        <v>903.5029907226562</v>
+        <v>904.5697631835938</v>
       </c>
       <c r="J10" t="n">
-        <v>65.73475646972656</v>
+        <v>65.06538391113281</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>20.82282672295324</v>
       </c>
       <c r="G11" t="n">
-        <v>258.9553833007812</v>
+        <v>259.0030822753906</v>
       </c>
       <c r="H11" t="n">
-        <v>62.87617111206055</v>
+        <v>66.69551086425781</v>
       </c>
       <c r="I11" t="n">
-        <v>900.8029174804688</v>
+        <v>899.3226928710938</v>
       </c>
       <c r="J11" t="n">
-        <v>69.01838684082031</v>
+        <v>68.41255950927734</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>21.05931589769223</v>
       </c>
       <c r="G12" t="n">
-        <v>314.331298828125</v>
+        <v>311.4555358886719</v>
       </c>
       <c r="H12" t="n">
-        <v>95.56813812255859</v>
+        <v>92.84344482421875</v>
       </c>
       <c r="I12" t="n">
-        <v>899.9874877929688</v>
+        <v>899.4611206054688</v>
       </c>
       <c r="J12" t="n">
-        <v>71.81742858886719</v>
+        <v>73.88921356201172</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>21.38449445236935</v>
       </c>
       <c r="G13" t="n">
-        <v>431.4173583984375</v>
+        <v>432.7794189453125</v>
       </c>
       <c r="H13" t="n">
-        <v>156.0308074951172</v>
+        <v>154.4612274169922</v>
       </c>
       <c r="I13" t="n">
-        <v>886.9423217773438</v>
+        <v>891.2271118164062</v>
       </c>
       <c r="J13" t="n">
-        <v>78.86876678466797</v>
+        <v>81.77883148193359</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>19.79697020692051</v>
       </c>
       <c r="G14" t="n">
-        <v>138.0799560546875</v>
+        <v>138.103759765625</v>
       </c>
       <c r="H14" t="n">
-        <v>43.08036804199219</v>
+        <v>42.02186965942383</v>
       </c>
       <c r="I14" t="n">
-        <v>693.1727905273438</v>
+        <v>691.944580078125</v>
       </c>
       <c r="J14" t="n">
-        <v>105.7530212402344</v>
+        <v>102.0926895141602</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>21.48203443327129</v>
       </c>
       <c r="G15" t="n">
-        <v>140.2930297851562</v>
+        <v>139.7546081542969</v>
       </c>
       <c r="H15" t="n">
-        <v>40.94027709960938</v>
+        <v>40.06499862670898</v>
       </c>
       <c r="I15" t="n">
-        <v>940.2439575195312</v>
+        <v>944.460205078125</v>
       </c>
       <c r="J15" t="n">
-        <v>78.46766662597656</v>
+        <v>77.81906127929688</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>22.47631622738632</v>
       </c>
       <c r="G16" t="n">
-        <v>145.1510009765625</v>
+        <v>147.0354614257812</v>
       </c>
       <c r="H16" t="n">
-        <v>37.83935928344727</v>
+        <v>38.3811149597168</v>
       </c>
       <c r="I16" t="n">
-        <v>952.5003051757812</v>
+        <v>950.698974609375</v>
       </c>
       <c r="J16" t="n">
-        <v>84.38654327392578</v>
+        <v>79.99208068847656</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>24.35763244318183</v>
       </c>
       <c r="G17" t="n">
-        <v>149.1867065429688</v>
+        <v>148.4376831054688</v>
       </c>
       <c r="H17" t="n">
-        <v>37.89908218383789</v>
+        <v>36.38687515258789</v>
       </c>
       <c r="I17" t="n">
-        <v>962.0830078125</v>
+        <v>958.3723754882812</v>
       </c>
       <c r="J17" t="n">
-        <v>78.23461151123047</v>
+        <v>78.01679229736328</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>25.62064236797445</v>
       </c>
       <c r="G18" t="n">
-        <v>171.852294921875</v>
+        <v>172.8172302246094</v>
       </c>
       <c r="H18" t="n">
-        <v>41.74161911010742</v>
+        <v>42.80867385864258</v>
       </c>
       <c r="I18" t="n">
-        <v>926.3798217773438</v>
+        <v>924.2780151367188</v>
       </c>
       <c r="J18" t="n">
-        <v>77.58401489257812</v>
+        <v>74.07613372802734</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>25.92967709475499</v>
       </c>
       <c r="G19" t="n">
-        <v>232.2608642578125</v>
+        <v>228.3284606933594</v>
       </c>
       <c r="H19" t="n">
-        <v>65.69293212890625</v>
+        <v>64.93006896972656</v>
       </c>
       <c r="I19" t="n">
-        <v>902.73876953125</v>
+        <v>901.9791870117188</v>
       </c>
       <c r="J19" t="n">
-        <v>77.19617462158203</v>
+        <v>75.1221923828125</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>26.19588155013293</v>
       </c>
       <c r="G20" t="n">
-        <v>286.1798095703125</v>
+        <v>284.8054809570312</v>
       </c>
       <c r="H20" t="n">
-        <v>81.24851989746094</v>
+        <v>79.72918701171875</v>
       </c>
       <c r="I20" t="n">
-        <v>894.8790893554688</v>
+        <v>890.0858154296875</v>
       </c>
       <c r="J20" t="n">
-        <v>80.89389801025391</v>
+        <v>82.88571929931641</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>25.87267490890685</v>
       </c>
       <c r="G21" t="n">
-        <v>413.9576416015625</v>
+        <v>419.89599609375</v>
       </c>
       <c r="H21" t="n">
-        <v>145.4870910644531</v>
+        <v>145.7669525146484</v>
       </c>
       <c r="I21" t="n">
-        <v>886.1828002929688</v>
+        <v>889.1076049804688</v>
       </c>
       <c r="J21" t="n">
-        <v>86.28118896484375</v>
+        <v>87.57520294189453</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>24.64055238634836</v>
       </c>
       <c r="G22" t="n">
-        <v>666.196533203125</v>
+        <v>668.0740356445312</v>
       </c>
       <c r="H22" t="n">
-        <v>166.4115753173828</v>
+        <v>165.0028533935547</v>
       </c>
       <c r="I22" t="n">
-        <v>872.06591796875</v>
+        <v>870.29296875</v>
       </c>
       <c r="J22" t="n">
-        <v>94.60448455810547</v>
+        <v>92.26291656494141</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>24.69862396067251</v>
       </c>
       <c r="G23" t="n">
-        <v>131.7826843261719</v>
+        <v>129.6494598388672</v>
       </c>
       <c r="H23" t="n">
-        <v>44.09636306762695</v>
+        <v>44.41465377807617</v>
       </c>
       <c r="I23" t="n">
-        <v>327.0538940429688</v>
+        <v>331.4461669921875</v>
       </c>
       <c r="J23" t="n">
-        <v>116.7001647949219</v>
+        <v>114.6642379760742</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>27.11629087610016</v>
       </c>
       <c r="G24" t="n">
-        <v>131.1458435058594</v>
+        <v>133.7185668945312</v>
       </c>
       <c r="H24" t="n">
-        <v>40.55794525146484</v>
+        <v>41.40349960327148</v>
       </c>
       <c r="I24" t="n">
-        <v>539.6283569335938</v>
+        <v>539.0305786132812</v>
       </c>
       <c r="J24" t="n">
-        <v>118.0063095092773</v>
+        <v>122.7101669311523</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>28.97995691733995</v>
       </c>
       <c r="G25" t="n">
-        <v>134.8441925048828</v>
+        <v>131.8623657226562</v>
       </c>
       <c r="H25" t="n">
-        <v>39.66244125366211</v>
+        <v>38.98332977294922</v>
       </c>
       <c r="I25" t="n">
-        <v>873.9234619140625</v>
+        <v>880.4771728515625</v>
       </c>
       <c r="J25" t="n">
-        <v>98.53214263916016</v>
+        <v>102.2464218139648</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>30.34265377319738</v>
       </c>
       <c r="G26" t="n">
-        <v>139.5195770263672</v>
+        <v>137.9762573242188</v>
       </c>
       <c r="H26" t="n">
-        <v>38.55438613891602</v>
+        <v>38.41673278808594</v>
       </c>
       <c r="I26" t="n">
-        <v>995.78125</v>
+        <v>995.3292846679688</v>
       </c>
       <c r="J26" t="n">
-        <v>80.30064392089844</v>
+        <v>81.02226257324219</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>31.86528713449996</v>
       </c>
       <c r="G27" t="n">
-        <v>148.9598999023438</v>
+        <v>148.5780181884766</v>
       </c>
       <c r="H27" t="n">
-        <v>39.51521682739258</v>
+        <v>39.89034652709961</v>
       </c>
       <c r="I27" t="n">
-        <v>985.091796875</v>
+        <v>982.6326904296875</v>
       </c>
       <c r="J27" t="n">
-        <v>80.04095458984375</v>
+        <v>75.2581787109375</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>31.70139237157215</v>
       </c>
       <c r="G28" t="n">
-        <v>196.6894989013672</v>
+        <v>196.3930511474609</v>
       </c>
       <c r="H28" t="n">
-        <v>53.71471405029297</v>
+        <v>54.25934219360352</v>
       </c>
       <c r="I28" t="n">
-        <v>929.8467407226562</v>
+        <v>935.3987426757812</v>
       </c>
       <c r="J28" t="n">
-        <v>77.79884338378906</v>
+        <v>72.39106750488281</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>31.7420363140709</v>
       </c>
       <c r="G29" t="n">
-        <v>265.22021484375</v>
+        <v>265.8965148925781</v>
       </c>
       <c r="H29" t="n">
-        <v>75.92190551757812</v>
+        <v>76.17855834960938</v>
       </c>
       <c r="I29" t="n">
-        <v>898.1351928710938</v>
+        <v>897.4715576171875</v>
       </c>
       <c r="J29" t="n">
-        <v>75.26188659667969</v>
+        <v>78.42010498046875</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>30.76237588603813</v>
       </c>
       <c r="G30" t="n">
-        <v>401.5231628417969</v>
+        <v>400.6463012695312</v>
       </c>
       <c r="H30" t="n">
-        <v>129.7322845458984</v>
+        <v>131.7690124511719</v>
       </c>
       <c r="I30" t="n">
-        <v>872.619873046875</v>
+        <v>868.3074951171875</v>
       </c>
       <c r="J30" t="n">
-        <v>83.21352386474609</v>
+        <v>82.5277099609375</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>29.73442789455431</v>
       </c>
       <c r="G31" t="n">
-        <v>672.1063842773438</v>
+        <v>672.142578125</v>
       </c>
       <c r="H31" t="n">
-        <v>134.0706634521484</v>
+        <v>134.3241729736328</v>
       </c>
       <c r="I31" t="n">
-        <v>853.26611328125</v>
+        <v>852.8098754882812</v>
       </c>
       <c r="J31" t="n">
-        <v>94.33062744140625</v>
+        <v>96.35932922363281</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>30.37782838567884</v>
       </c>
       <c r="G32" t="n">
-        <v>125.8145599365234</v>
+        <v>123.2294006347656</v>
       </c>
       <c r="H32" t="n">
-        <v>42.44272613525391</v>
+        <v>44.06667327880859</v>
       </c>
       <c r="I32" t="n">
-        <v>152.8258514404297</v>
+        <v>147.3970794677734</v>
       </c>
       <c r="J32" t="n">
-        <v>76.14211273193359</v>
+        <v>71.9041748046875</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>33.11659379389907</v>
       </c>
       <c r="G33" t="n">
-        <v>125.4541778564453</v>
+        <v>126.243896484375</v>
       </c>
       <c r="H33" t="n">
-        <v>41.12098693847656</v>
+        <v>41.96326065063477</v>
       </c>
       <c r="I33" t="n">
-        <v>243.7427062988281</v>
+        <v>245.1577301025391</v>
       </c>
       <c r="J33" t="n">
-        <v>96.63904571533203</v>
+        <v>102.6042327880859</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>35.40504769440309</v>
       </c>
       <c r="G34" t="n">
-        <v>128.8170776367188</v>
+        <v>131.6774444580078</v>
       </c>
       <c r="H34" t="n">
-        <v>44.04716873168945</v>
+        <v>40.34243011474609</v>
       </c>
       <c r="I34" t="n">
-        <v>406.1625671386719</v>
+        <v>406.4921264648438</v>
       </c>
       <c r="J34" t="n">
-        <v>120.0406265258789</v>
+        <v>118.9951934814453</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>37.57764389518124</v>
       </c>
       <c r="G35" t="n">
-        <v>131.5256652832031</v>
+        <v>133.7232818603516</v>
       </c>
       <c r="H35" t="n">
-        <v>40.28572845458984</v>
+        <v>41.64379119873047</v>
       </c>
       <c r="I35" t="n">
-        <v>566.6661376953125</v>
+        <v>559.1880493164062</v>
       </c>
       <c r="J35" t="n">
-        <v>128.51513671875</v>
+        <v>120.7425079345703</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>38.09115608907656</v>
       </c>
       <c r="G36" t="n">
-        <v>145.8061828613281</v>
+        <v>147.3984832763672</v>
       </c>
       <c r="H36" t="n">
-        <v>40.34851455688477</v>
+        <v>40.85560989379883</v>
       </c>
       <c r="I36" t="n">
-        <v>810.7380981445312</v>
+        <v>813.511962890625</v>
       </c>
       <c r="J36" t="n">
-        <v>117.9598999023438</v>
+        <v>115.332893371582</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>38.33579750611559</v>
       </c>
       <c r="G37" t="n">
-        <v>172.9507751464844</v>
+        <v>171.2801055908203</v>
       </c>
       <c r="H37" t="n">
-        <v>44.16928863525391</v>
+        <v>44.35082244873047</v>
       </c>
       <c r="I37" t="n">
-        <v>846.042236328125</v>
+        <v>843.4171142578125</v>
       </c>
       <c r="J37" t="n">
-        <v>105.9811096191406</v>
+        <v>105.9790802001953</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>37.89528654115976</v>
       </c>
       <c r="G38" t="n">
-        <v>257.7490844726562</v>
+        <v>260.1053466796875</v>
       </c>
       <c r="H38" t="n">
-        <v>72.64027404785156</v>
+        <v>72.64733123779297</v>
       </c>
       <c r="I38" t="n">
-        <v>845.440185546875</v>
+        <v>843.2703857421875</v>
       </c>
       <c r="J38" t="n">
-        <v>101.6096878051758</v>
+        <v>97.06980133056641</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>37.04916938976096</v>
       </c>
       <c r="G39" t="n">
-        <v>385.1668701171875</v>
+        <v>383.4475402832031</v>
       </c>
       <c r="H39" t="n">
-        <v>103.7060012817383</v>
+        <v>105.1757507324219</v>
       </c>
       <c r="I39" t="n">
-        <v>818.3118896484375</v>
+        <v>818.6931762695312</v>
       </c>
       <c r="J39" t="n">
-        <v>102.9390716552734</v>
+        <v>99.98987579345703</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>35.00856026880581</v>
       </c>
       <c r="G40" t="n">
-        <v>634.6343994140625</v>
+        <v>637.0331420898438</v>
       </c>
       <c r="H40" t="n">
-        <v>103.9546432495117</v>
+        <v>103.3941650390625</v>
       </c>
       <c r="I40" t="n">
-        <v>792.544677734375</v>
+        <v>796.1363525390625</v>
       </c>
       <c r="J40" t="n">
-        <v>135.5435791015625</v>
+        <v>133.1381072998047</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>37.58863922492247</v>
       </c>
       <c r="G41" t="n">
-        <v>122.0397796630859</v>
+        <v>123.4777069091797</v>
       </c>
       <c r="H41" t="n">
-        <v>43.52904891967773</v>
+        <v>43.75075912475586</v>
       </c>
       <c r="I41" t="n">
-        <v>104.1847229003906</v>
+        <v>106.218147277832</v>
       </c>
       <c r="J41" t="n">
-        <v>53.20535278320312</v>
+        <v>54.77164840698242</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>40.4685427958547</v>
       </c>
       <c r="G42" t="n">
-        <v>127.0061492919922</v>
+        <v>125.7702865600586</v>
       </c>
       <c r="H42" t="n">
-        <v>43.54495620727539</v>
+        <v>43.26168441772461</v>
       </c>
       <c r="I42" t="n">
-        <v>135.1588592529297</v>
+        <v>140.3432312011719</v>
       </c>
       <c r="J42" t="n">
-        <v>57.18557739257812</v>
+        <v>61.75358581542969</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>42.41365999634309</v>
       </c>
       <c r="G43" t="n">
-        <v>128.1800384521484</v>
+        <v>126.3551940917969</v>
       </c>
       <c r="H43" t="n">
-        <v>43.14831924438477</v>
+        <v>41.23300170898438</v>
       </c>
       <c r="I43" t="n">
-        <v>172.4139404296875</v>
+        <v>170.5626525878906</v>
       </c>
       <c r="J43" t="n">
-        <v>71.48213195800781</v>
+        <v>70.84719848632812</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>44.05056700894834</v>
       </c>
       <c r="G44" t="n">
-        <v>130.9224853515625</v>
+        <v>132.1121063232422</v>
       </c>
       <c r="H44" t="n">
-        <v>42.98589706420898</v>
+        <v>42.67343139648438</v>
       </c>
       <c r="I44" t="n">
-        <v>279.2983703613281</v>
+        <v>279.9779052734375</v>
       </c>
       <c r="J44" t="n">
-        <v>93.10992431640625</v>
+        <v>91.01918792724609</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>45.28527361475503</v>
       </c>
       <c r="G45" t="n">
-        <v>140.3720397949219</v>
+        <v>141.0381317138672</v>
       </c>
       <c r="H45" t="n">
-        <v>43.70756530761719</v>
+        <v>42.65623092651367</v>
       </c>
       <c r="I45" t="n">
-        <v>345.7929382324219</v>
+        <v>340.1770629882812</v>
       </c>
       <c r="J45" t="n">
-        <v>99.32553100585938</v>
+        <v>98.87836456298828</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>45.11415223222625</v>
       </c>
       <c r="G46" t="n">
-        <v>162.4996643066406</v>
+        <v>161.1766662597656</v>
       </c>
       <c r="H46" t="n">
-        <v>43.01967620849609</v>
+        <v>42.79824447631836</v>
       </c>
       <c r="I46" t="n">
-        <v>459.2645874023438</v>
+        <v>456.1157836914062</v>
       </c>
       <c r="J46" t="n">
-        <v>117.1682891845703</v>
+        <v>115.4369506835938</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>44.97584185956661</v>
       </c>
       <c r="G47" t="n">
-        <v>240.3199157714844</v>
+        <v>242.9722595214844</v>
       </c>
       <c r="H47" t="n">
-        <v>66.22621917724609</v>
+        <v>64.97373199462891</v>
       </c>
       <c r="I47" t="n">
-        <v>585.4508666992188</v>
+        <v>583.8037109375</v>
       </c>
       <c r="J47" t="n">
-        <v>141.4218597412109</v>
+        <v>131.7634582519531</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>42.0865253634753</v>
       </c>
       <c r="G48" t="n">
-        <v>398.7572326660156</v>
+        <v>398.4743347167969</v>
       </c>
       <c r="H48" t="n">
-        <v>96.46829223632812</v>
+        <v>94.67610931396484</v>
       </c>
       <c r="I48" t="n">
-        <v>687.7462158203125</v>
+        <v>690.666015625</v>
       </c>
       <c r="J48" t="n">
-        <v>146.3005981445312</v>
+        <v>149.2988586425781</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>40.81585186348995</v>
       </c>
       <c r="G49" t="n">
-        <v>585.8626098632812</v>
+        <v>588.0234985351562</v>
       </c>
       <c r="H49" t="n">
-        <v>107.2087936401367</v>
+        <v>104.6629409790039</v>
       </c>
       <c r="I49" t="n">
-        <v>706.900146484375</v>
+        <v>711.0772705078125</v>
       </c>
       <c r="J49" t="n">
-        <v>169.284912109375</v>
+        <v>172.2445831298828</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>45.37200448015243</v>
       </c>
       <c r="G50" t="n">
-        <v>121.8348159790039</v>
+        <v>123.9319686889648</v>
       </c>
       <c r="H50" t="n">
-        <v>43.72603225708008</v>
+        <v>43.06061935424805</v>
       </c>
       <c r="I50" t="n">
-        <v>66.292236328125</v>
+        <v>63.25504684448242</v>
       </c>
       <c r="J50" t="n">
-        <v>48.54360961914062</v>
+        <v>53.18782043457031</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>48.78786662406539</v>
       </c>
       <c r="G51" t="n">
-        <v>126.561653137207</v>
+        <v>125.8198699951172</v>
       </c>
       <c r="H51" t="n">
-        <v>45.06979751586914</v>
+        <v>42.76454544067383</v>
       </c>
       <c r="I51" t="n">
-        <v>78.246826171875</v>
+        <v>76.70904541015625</v>
       </c>
       <c r="J51" t="n">
-        <v>57.35893249511719</v>
+        <v>56.34384918212891</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>50.73675625671652</v>
       </c>
       <c r="G52" t="n">
-        <v>128.0980834960938</v>
+        <v>129.4962310791016</v>
       </c>
       <c r="H52" t="n">
-        <v>42.9080696105957</v>
+        <v>42.93111038208008</v>
       </c>
       <c r="I52" t="n">
-        <v>81.22370910644531</v>
+        <v>82.60838317871094</v>
       </c>
       <c r="J52" t="n">
-        <v>60.71638107299805</v>
+        <v>59.94380950927734</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>51.96609868449762</v>
       </c>
       <c r="G53" t="n">
-        <v>133.1248016357422</v>
+        <v>134.3287963867188</v>
       </c>
       <c r="H53" t="n">
-        <v>44.18886566162109</v>
+        <v>45.10674667358398</v>
       </c>
       <c r="I53" t="n">
-        <v>103.7442092895508</v>
+        <v>105.0492477416992</v>
       </c>
       <c r="J53" t="n">
-        <v>63.82311248779297</v>
+        <v>64.77614593505859</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>52.45736467440484</v>
       </c>
       <c r="G54" t="n">
-        <v>142.918701171875</v>
+        <v>142.8578643798828</v>
       </c>
       <c r="H54" t="n">
-        <v>43.61664199829102</v>
+        <v>44.0322265625</v>
       </c>
       <c r="I54" t="n">
-        <v>141.3680419921875</v>
+        <v>134.8973236083984</v>
       </c>
       <c r="J54" t="n">
-        <v>66.16072845458984</v>
+        <v>62.44184112548828</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>51.85220057025387</v>
       </c>
       <c r="G55" t="n">
-        <v>160.3858947753906</v>
+        <v>160.7372741699219</v>
       </c>
       <c r="H55" t="n">
-        <v>44.1700439453125</v>
+        <v>45.61594390869141</v>
       </c>
       <c r="I55" t="n">
-        <v>196.1520538330078</v>
+        <v>197.3089904785156</v>
       </c>
       <c r="J55" t="n">
-        <v>71.223388671875</v>
+        <v>71.74844360351562</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>51.37276147532685</v>
       </c>
       <c r="G56" t="n">
-        <v>216.8849029541016</v>
+        <v>219.319580078125</v>
       </c>
       <c r="H56" t="n">
-        <v>54.305908203125</v>
+        <v>53.42387771606445</v>
       </c>
       <c r="I56" t="n">
-        <v>228.5097961425781</v>
+        <v>226.8726501464844</v>
       </c>
       <c r="J56" t="n">
-        <v>85.42758178710938</v>
+        <v>86.8167724609375</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>49.881475732815</v>
       </c>
       <c r="G57" t="n">
-        <v>353.4138488769531</v>
+        <v>355.8965759277344</v>
       </c>
       <c r="H57" t="n">
-        <v>90.29465484619141</v>
+        <v>87.39747619628906</v>
       </c>
       <c r="I57" t="n">
-        <v>373.8523559570312</v>
+        <v>373.624755859375</v>
       </c>
       <c r="J57" t="n">
-        <v>166.5826110839844</v>
+        <v>162.5339508056641</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>46.147295090649</v>
       </c>
       <c r="G58" t="n">
-        <v>582.3285522460938</v>
+        <v>583.0481567382812</v>
       </c>
       <c r="H58" t="n">
-        <v>100.9186019897461</v>
+        <v>99.12680816650391</v>
       </c>
       <c r="I58" t="n">
-        <v>490.160888671875</v>
+        <v>498.15771484375</v>
       </c>
       <c r="J58" t="n">
-        <v>234.2660369873047</v>
+        <v>230.6102447509766</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>56.70921047332411</v>
       </c>
       <c r="G59" t="n">
-        <v>127.1728897094727</v>
+        <v>129.6039123535156</v>
       </c>
       <c r="H59" t="n">
-        <v>43.48527145385742</v>
+        <v>44.73735046386719</v>
       </c>
       <c r="I59" t="n">
-        <v>6.593703269958496</v>
+        <v>7.984697341918945</v>
       </c>
       <c r="J59" t="n">
-        <v>69.7574462890625</v>
+        <v>74.28404998779297</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>58.23723423416003</v>
       </c>
       <c r="G60" t="n">
-        <v>133.0458374023438</v>
+        <v>133.4960174560547</v>
       </c>
       <c r="H60" t="n">
-        <v>42.92428207397461</v>
+        <v>43.60017776489258</v>
       </c>
       <c r="I60" t="n">
-        <v>0.4826403260231018</v>
+        <v>-1.659213304519653</v>
       </c>
       <c r="J60" t="n">
-        <v>75.37255096435547</v>
+        <v>76.0244140625</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>59.34611390594659</v>
       </c>
       <c r="G61" t="n">
-        <v>135.3076629638672</v>
+        <v>137.5617523193359</v>
       </c>
       <c r="H61" t="n">
-        <v>43.37038040161133</v>
+        <v>44.33721542358398</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.7246589660644531</v>
+        <v>3.062126159667969</v>
       </c>
       <c r="J61" t="n">
-        <v>77.20920562744141</v>
+        <v>81.24076080322266</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>59.33493295870724</v>
       </c>
       <c r="G62" t="n">
-        <v>145.6846466064453</v>
+        <v>144.4486389160156</v>
       </c>
       <c r="H62" t="n">
-        <v>45.10259246826172</v>
+        <v>47.61953735351562</v>
       </c>
       <c r="I62" t="n">
-        <v>13.22781372070312</v>
+        <v>19.24007415771484</v>
       </c>
       <c r="J62" t="n">
-        <v>78.96063995361328</v>
+        <v>77.95078277587891</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>58.39353789451046</v>
       </c>
       <c r="G63" t="n">
-        <v>159.7922973632812</v>
+        <v>161.3216705322266</v>
       </c>
       <c r="H63" t="n">
-        <v>49.0242919921875</v>
+        <v>46.5772819519043</v>
       </c>
       <c r="I63" t="n">
-        <v>49.38850784301758</v>
+        <v>44.33582305908203</v>
       </c>
       <c r="J63" t="n">
-        <v>74.90644836425781</v>
+        <v>79.38674926757812</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>57.3323684814925</v>
       </c>
       <c r="G64" t="n">
-        <v>204.3712615966797</v>
+        <v>207.7595672607422</v>
       </c>
       <c r="H64" t="n">
-        <v>54.06855010986328</v>
+        <v>53.95505905151367</v>
       </c>
       <c r="I64" t="n">
-        <v>69.75480651855469</v>
+        <v>67.72232055664062</v>
       </c>
       <c r="J64" t="n">
-        <v>79.64091491699219</v>
+        <v>75.53961181640625</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>54.83283250514894</v>
       </c>
       <c r="G65" t="n">
-        <v>348.4502563476562</v>
+        <v>346.3905639648438</v>
       </c>
       <c r="H65" t="n">
-        <v>89.69213104248047</v>
+        <v>90.39775848388672</v>
       </c>
       <c r="I65" t="n">
-        <v>145.5540313720703</v>
+        <v>147.0321807861328</v>
       </c>
       <c r="J65" t="n">
-        <v>115.15185546875</v>
+        <v>116.310188293457</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>66.18771861830042</v>
       </c>
       <c r="G66" t="n">
-        <v>142.4814147949219</v>
+        <v>144.65966796875</v>
       </c>
       <c r="H66" t="n">
-        <v>45.83337783813477</v>
+        <v>48.20245361328125</v>
       </c>
       <c r="I66" t="n">
-        <v>-93.45979309082031</v>
+        <v>-92.25687408447266</v>
       </c>
       <c r="J66" t="n">
-        <v>89.13179779052734</v>
+        <v>89.60342407226562</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>66.85471859160208</v>
       </c>
       <c r="G67" t="n">
-        <v>147.4079284667969</v>
+        <v>149.0615081787109</v>
       </c>
       <c r="H67" t="n">
-        <v>48.66036605834961</v>
+        <v>49.97200012207031</v>
       </c>
       <c r="I67" t="n">
-        <v>-102.1924438476562</v>
+        <v>-103.8491744995117</v>
       </c>
       <c r="J67" t="n">
-        <v>93.50932312011719</v>
+        <v>89.31351470947266</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>66.29608309198557</v>
       </c>
       <c r="G68" t="n">
-        <v>159.6935119628906</v>
+        <v>158.5070495605469</v>
       </c>
       <c r="H68" t="n">
-        <v>51.158447265625</v>
+        <v>51.09530639648438</v>
       </c>
       <c r="I68" t="n">
-        <v>-87.37874603271484</v>
+        <v>-90.41345977783203</v>
       </c>
       <c r="J68" t="n">
-        <v>91.83345794677734</v>
+        <v>93.18875122070312</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>65.32452373485688</v>
       </c>
       <c r="G69" t="n">
-        <v>169.2071685791016</v>
+        <v>165.5530242919922</v>
       </c>
       <c r="H69" t="n">
-        <v>50.5726318359375</v>
+        <v>50.7075080871582</v>
       </c>
       <c r="I69" t="n">
-        <v>-71.49398040771484</v>
+        <v>-73.24607849121094</v>
       </c>
       <c r="J69" t="n">
-        <v>94.31468963623047</v>
+        <v>92.51876068115234</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>63.37031159981304</v>
       </c>
       <c r="G70" t="n">
-        <v>201.2776947021484</v>
+        <v>204.9318695068359</v>
       </c>
       <c r="H70" t="n">
-        <v>53.7231330871582</v>
+        <v>60.64212036132812</v>
       </c>
       <c r="I70" t="n">
-        <v>-32.51496887207031</v>
+        <v>-37.93009948730469</v>
       </c>
       <c r="J70" t="n">
-        <v>93.70158386230469</v>
+        <v>91.87404632568359</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_XAI_NoEng_gelu.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_XAI_NoEng_gelu.xlsx
@@ -505,16 +505,16 @@
         <v>14.31699359657089</v>
       </c>
       <c r="G2" t="n">
-        <v>176.9116363525391</v>
+        <v>149.7702941894531</v>
       </c>
       <c r="H2" t="n">
-        <v>41.10927200317383</v>
+        <v>51.38345718383789</v>
       </c>
       <c r="I2" t="n">
-        <v>896.2177124023438</v>
+        <v>849.7293090820312</v>
       </c>
       <c r="J2" t="n">
-        <v>63.39271926879883</v>
+        <v>71.77645111083984</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>15.27891067420843</v>
       </c>
       <c r="G3" t="n">
-        <v>222.5449523925781</v>
+        <v>178.6212158203125</v>
       </c>
       <c r="H3" t="n">
-        <v>50.22461318969727</v>
+        <v>93.4677734375</v>
       </c>
       <c r="I3" t="n">
-        <v>898.4345092773438</v>
+        <v>834.404296875</v>
       </c>
       <c r="J3" t="n">
-        <v>60.89715957641602</v>
+        <v>75.00228881835938</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>15.85974020072816</v>
       </c>
       <c r="G4" t="n">
-        <v>256.9688415527344</v>
+        <v>219.8380737304688</v>
       </c>
       <c r="H4" t="n">
-        <v>59.33928298950195</v>
+        <v>130.8739318847656</v>
       </c>
       <c r="I4" t="n">
-        <v>895.8334350585938</v>
+        <v>828.4735717773438</v>
       </c>
       <c r="J4" t="n">
-        <v>63.18611526489258</v>
+        <v>77.01862335205078</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>16.6254486072678</v>
       </c>
       <c r="G5" t="n">
-        <v>291.8574523925781</v>
+        <v>282.7823181152344</v>
       </c>
       <c r="H5" t="n">
-        <v>84.29299163818359</v>
+        <v>160.1239776611328</v>
       </c>
       <c r="I5" t="n">
-        <v>888.8779907226562</v>
+        <v>827.0150756835938</v>
       </c>
       <c r="J5" t="n">
-        <v>66.58554840087891</v>
+        <v>78.31563568115234</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>16.72168606967666</v>
       </c>
       <c r="G6" t="n">
-        <v>342.3589172363281</v>
+        <v>381.6689453125</v>
       </c>
       <c r="H6" t="n">
-        <v>121.6391983032227</v>
+        <v>202.2947845458984</v>
       </c>
       <c r="I6" t="n">
-        <v>884.4868774414062</v>
+        <v>819.8807373046875</v>
       </c>
       <c r="J6" t="n">
-        <v>70.92591857910156</v>
+        <v>87.46546173095703</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>17.58023045110392</v>
       </c>
       <c r="G7" t="n">
-        <v>147.2946319580078</v>
+        <v>144.4743804931641</v>
       </c>
       <c r="H7" t="n">
-        <v>37.21050643920898</v>
+        <v>41.18906784057617</v>
       </c>
       <c r="I7" t="n">
-        <v>914.7033081054688</v>
+        <v>918.2490844726562</v>
       </c>
       <c r="J7" t="n">
-        <v>77.08460235595703</v>
+        <v>74.54746246337891</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>18.57818076528054</v>
       </c>
       <c r="G8" t="n">
-        <v>150.2329864501953</v>
+        <v>145.5126037597656</v>
       </c>
       <c r="H8" t="n">
-        <v>38.16862487792969</v>
+        <v>39.99762344360352</v>
       </c>
       <c r="I8" t="n">
-        <v>906.983154296875</v>
+        <v>919.8934326171875</v>
       </c>
       <c r="J8" t="n">
-        <v>68.81062316894531</v>
+        <v>70.11827850341797</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>19.60838259075554</v>
       </c>
       <c r="G9" t="n">
-        <v>172.6689300537109</v>
+        <v>148.7918548583984</v>
       </c>
       <c r="H9" t="n">
-        <v>39.17856979370117</v>
+        <v>43.15548706054688</v>
       </c>
       <c r="I9" t="n">
-        <v>908.7388305664062</v>
+        <v>893.8304443359375</v>
       </c>
       <c r="J9" t="n">
-        <v>63.22132873535156</v>
+        <v>68.89743804931641</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>20.10500298210745</v>
       </c>
       <c r="G10" t="n">
-        <v>208.0441131591797</v>
+        <v>166.3748626708984</v>
       </c>
       <c r="H10" t="n">
-        <v>48.77443313598633</v>
+        <v>59.07188415527344</v>
       </c>
       <c r="I10" t="n">
-        <v>904.5697631835938</v>
+        <v>872.6080932617188</v>
       </c>
       <c r="J10" t="n">
-        <v>65.06538391113281</v>
+        <v>69.61902618408203</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>20.82282672295324</v>
       </c>
       <c r="G11" t="n">
-        <v>259.0030822753906</v>
+        <v>223.4258270263672</v>
       </c>
       <c r="H11" t="n">
-        <v>66.69551086425781</v>
+        <v>111.4712219238281</v>
       </c>
       <c r="I11" t="n">
-        <v>899.3226928710938</v>
+        <v>855.9588623046875</v>
       </c>
       <c r="J11" t="n">
-        <v>68.41255950927734</v>
+        <v>78.76535797119141</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>21.05931589769223</v>
       </c>
       <c r="G12" t="n">
-        <v>311.4555358886719</v>
+        <v>332.2963256835938</v>
       </c>
       <c r="H12" t="n">
-        <v>92.84344482421875</v>
+        <v>175.2517852783203</v>
       </c>
       <c r="I12" t="n">
-        <v>899.4611206054688</v>
+        <v>852.1060791015625</v>
       </c>
       <c r="J12" t="n">
-        <v>73.88921356201172</v>
+        <v>80.89293670654297</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>21.38449445236935</v>
       </c>
       <c r="G13" t="n">
-        <v>432.7794189453125</v>
+        <v>490.1120300292969</v>
       </c>
       <c r="H13" t="n">
-        <v>154.4612274169922</v>
+        <v>205.819091796875</v>
       </c>
       <c r="I13" t="n">
-        <v>891.2271118164062</v>
+        <v>841.07177734375</v>
       </c>
       <c r="J13" t="n">
-        <v>81.77883148193359</v>
+        <v>88.61841583251953</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>19.79697020692051</v>
       </c>
       <c r="G14" t="n">
-        <v>138.103759765625</v>
+        <v>137.6751708984375</v>
       </c>
       <c r="H14" t="n">
-        <v>42.02186965942383</v>
+        <v>43.71889114379883</v>
       </c>
       <c r="I14" t="n">
-        <v>691.944580078125</v>
+        <v>693.6764526367188</v>
       </c>
       <c r="J14" t="n">
-        <v>102.0926895141602</v>
+        <v>114.9818725585938</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>21.48203443327129</v>
       </c>
       <c r="G15" t="n">
-        <v>139.7546081542969</v>
+        <v>141.6690826416016</v>
       </c>
       <c r="H15" t="n">
-        <v>40.06499862670898</v>
+        <v>42.07797241210938</v>
       </c>
       <c r="I15" t="n">
-        <v>944.460205078125</v>
+        <v>951.4041748046875</v>
       </c>
       <c r="J15" t="n">
-        <v>77.81906127929688</v>
+        <v>76.26132202148438</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>22.47631622738632</v>
       </c>
       <c r="G16" t="n">
-        <v>147.0354614257812</v>
+        <v>146.1553192138672</v>
       </c>
       <c r="H16" t="n">
-        <v>38.3811149597168</v>
+        <v>37.99169158935547</v>
       </c>
       <c r="I16" t="n">
-        <v>950.698974609375</v>
+        <v>954.4826049804688</v>
       </c>
       <c r="J16" t="n">
-        <v>79.99208068847656</v>
+        <v>79.45667266845703</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>24.35763244318183</v>
       </c>
       <c r="G17" t="n">
-        <v>148.4376831054688</v>
+        <v>148.6200714111328</v>
       </c>
       <c r="H17" t="n">
-        <v>36.38687515258789</v>
+        <v>40.51709747314453</v>
       </c>
       <c r="I17" t="n">
-        <v>958.3723754882812</v>
+        <v>965.9635620117188</v>
       </c>
       <c r="J17" t="n">
-        <v>78.01679229736328</v>
+        <v>86.21281433105469</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>25.62064236797445</v>
       </c>
       <c r="G18" t="n">
-        <v>172.8172302246094</v>
+        <v>162.4537353515625</v>
       </c>
       <c r="H18" t="n">
-        <v>42.80867385864258</v>
+        <v>46.75770950317383</v>
       </c>
       <c r="I18" t="n">
-        <v>924.2780151367188</v>
+        <v>937.0975952148438</v>
       </c>
       <c r="J18" t="n">
-        <v>74.07613372802734</v>
+        <v>82.47393798828125</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>25.92967709475499</v>
       </c>
       <c r="G19" t="n">
-        <v>228.3284606933594</v>
+        <v>197.9355621337891</v>
       </c>
       <c r="H19" t="n">
-        <v>64.93006896972656</v>
+        <v>66.75480651855469</v>
       </c>
       <c r="I19" t="n">
-        <v>901.9791870117188</v>
+        <v>908.7479248046875</v>
       </c>
       <c r="J19" t="n">
-        <v>75.1221923828125</v>
+        <v>84.802490234375</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>26.19588155013293</v>
       </c>
       <c r="G20" t="n">
-        <v>284.8054809570312</v>
+        <v>275.6260681152344</v>
       </c>
       <c r="H20" t="n">
-        <v>79.72918701171875</v>
+        <v>120.2702255249023</v>
       </c>
       <c r="I20" t="n">
-        <v>890.0858154296875</v>
+        <v>886.4239501953125</v>
       </c>
       <c r="J20" t="n">
-        <v>82.88571929931641</v>
+        <v>83.05702209472656</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>25.87267490890685</v>
       </c>
       <c r="G21" t="n">
-        <v>419.89599609375</v>
+        <v>469.3760375976562</v>
       </c>
       <c r="H21" t="n">
-        <v>145.7669525146484</v>
+        <v>195.1764831542969</v>
       </c>
       <c r="I21" t="n">
-        <v>889.1076049804688</v>
+        <v>873.0863647460938</v>
       </c>
       <c r="J21" t="n">
-        <v>87.57520294189453</v>
+        <v>87.42865753173828</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>24.64055238634836</v>
       </c>
       <c r="G22" t="n">
-        <v>668.0740356445312</v>
+        <v>686.8981323242188</v>
       </c>
       <c r="H22" t="n">
-        <v>165.0028533935547</v>
+        <v>152.8655853271484</v>
       </c>
       <c r="I22" t="n">
-        <v>870.29296875</v>
+        <v>844.8637084960938</v>
       </c>
       <c r="J22" t="n">
-        <v>92.26291656494141</v>
+        <v>105.9699325561523</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>24.69862396067251</v>
       </c>
       <c r="G23" t="n">
-        <v>129.6494598388672</v>
+        <v>126.9307174682617</v>
       </c>
       <c r="H23" t="n">
-        <v>44.41465377807617</v>
+        <v>41.20153427124023</v>
       </c>
       <c r="I23" t="n">
-        <v>331.4461669921875</v>
+        <v>297.6226501464844</v>
       </c>
       <c r="J23" t="n">
-        <v>114.6642379760742</v>
+        <v>111.317626953125</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>27.11629087610016</v>
       </c>
       <c r="G24" t="n">
-        <v>133.7185668945312</v>
+        <v>131.8827056884766</v>
       </c>
       <c r="H24" t="n">
-        <v>41.40349960327148</v>
+        <v>43.72474670410156</v>
       </c>
       <c r="I24" t="n">
-        <v>539.0305786132812</v>
+        <v>516.6928100585938</v>
       </c>
       <c r="J24" t="n">
-        <v>122.7101669311523</v>
+        <v>138.9469604492188</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>28.97995691733995</v>
       </c>
       <c r="G25" t="n">
-        <v>131.8623657226562</v>
+        <v>136.8632507324219</v>
       </c>
       <c r="H25" t="n">
-        <v>38.98332977294922</v>
+        <v>41.77582550048828</v>
       </c>
       <c r="I25" t="n">
-        <v>880.4771728515625</v>
+        <v>880.1500854492188</v>
       </c>
       <c r="J25" t="n">
-        <v>102.2464218139648</v>
+        <v>97.21940612792969</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>30.34265377319738</v>
       </c>
       <c r="G26" t="n">
-        <v>137.9762573242188</v>
+        <v>139.5058746337891</v>
       </c>
       <c r="H26" t="n">
-        <v>38.41673278808594</v>
+        <v>42.2977409362793</v>
       </c>
       <c r="I26" t="n">
-        <v>995.3292846679688</v>
+        <v>996.0576782226562</v>
       </c>
       <c r="J26" t="n">
-        <v>81.02226257324219</v>
+        <v>75.50527191162109</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>31.86528713449996</v>
       </c>
       <c r="G27" t="n">
-        <v>148.5780181884766</v>
+        <v>152.5538482666016</v>
       </c>
       <c r="H27" t="n">
-        <v>39.89034652709961</v>
+        <v>41.75127410888672</v>
       </c>
       <c r="I27" t="n">
-        <v>982.6326904296875</v>
+        <v>980.2742919921875</v>
       </c>
       <c r="J27" t="n">
-        <v>75.2581787109375</v>
+        <v>77.43649291992188</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>31.70139237157215</v>
       </c>
       <c r="G28" t="n">
-        <v>196.3930511474609</v>
+        <v>190.8219909667969</v>
       </c>
       <c r="H28" t="n">
-        <v>54.25934219360352</v>
+        <v>47.96979522705078</v>
       </c>
       <c r="I28" t="n">
-        <v>935.3987426757812</v>
+        <v>936.235107421875</v>
       </c>
       <c r="J28" t="n">
-        <v>72.39106750488281</v>
+        <v>82.48175811767578</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>31.7420363140709</v>
       </c>
       <c r="G29" t="n">
-        <v>265.8965148925781</v>
+        <v>254.5015869140625</v>
       </c>
       <c r="H29" t="n">
-        <v>76.17855834960938</v>
+        <v>68.92043304443359</v>
       </c>
       <c r="I29" t="n">
-        <v>897.4715576171875</v>
+        <v>912.978759765625</v>
       </c>
       <c r="J29" t="n">
-        <v>78.42010498046875</v>
+        <v>85.69080352783203</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>30.76237588603813</v>
       </c>
       <c r="G30" t="n">
-        <v>400.6463012695312</v>
+        <v>428.9461669921875</v>
       </c>
       <c r="H30" t="n">
-        <v>131.7690124511719</v>
+        <v>171.4618225097656</v>
       </c>
       <c r="I30" t="n">
-        <v>868.3074951171875</v>
+        <v>884.8206176757812</v>
       </c>
       <c r="J30" t="n">
-        <v>82.5277099609375</v>
+        <v>87.87553405761719</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>29.73442789455431</v>
       </c>
       <c r="G31" t="n">
-        <v>672.142578125</v>
+        <v>686.27978515625</v>
       </c>
       <c r="H31" t="n">
-        <v>134.3241729736328</v>
+        <v>129.7849884033203</v>
       </c>
       <c r="I31" t="n">
-        <v>852.8098754882812</v>
+        <v>864.756591796875</v>
       </c>
       <c r="J31" t="n">
-        <v>96.35932922363281</v>
+        <v>94.36540985107422</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>30.37782838567884</v>
       </c>
       <c r="G32" t="n">
-        <v>123.2294006347656</v>
+        <v>122.8961181640625</v>
       </c>
       <c r="H32" t="n">
-        <v>44.06667327880859</v>
+        <v>43.94723510742188</v>
       </c>
       <c r="I32" t="n">
-        <v>147.3970794677734</v>
+        <v>125.8445281982422</v>
       </c>
       <c r="J32" t="n">
-        <v>71.9041748046875</v>
+        <v>60.26629638671875</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>33.11659379389907</v>
       </c>
       <c r="G33" t="n">
-        <v>126.243896484375</v>
+        <v>126.5781097412109</v>
       </c>
       <c r="H33" t="n">
-        <v>41.96326065063477</v>
+        <v>40.93878936767578</v>
       </c>
       <c r="I33" t="n">
-        <v>245.1577301025391</v>
+        <v>209.8675231933594</v>
       </c>
       <c r="J33" t="n">
-        <v>102.6042327880859</v>
+        <v>87.11563110351562</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>35.40504769440309</v>
       </c>
       <c r="G34" t="n">
-        <v>131.6774444580078</v>
+        <v>129.3294067382812</v>
       </c>
       <c r="H34" t="n">
-        <v>40.34243011474609</v>
+        <v>42.01552963256836</v>
       </c>
       <c r="I34" t="n">
-        <v>406.4921264648438</v>
+        <v>369.8555908203125</v>
       </c>
       <c r="J34" t="n">
-        <v>118.9951934814453</v>
+        <v>128.5787658691406</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>37.57764389518124</v>
       </c>
       <c r="G35" t="n">
-        <v>133.7232818603516</v>
+        <v>136.2480316162109</v>
       </c>
       <c r="H35" t="n">
-        <v>41.64379119873047</v>
+        <v>40.99262619018555</v>
       </c>
       <c r="I35" t="n">
-        <v>559.1880493164062</v>
+        <v>540.9719848632812</v>
       </c>
       <c r="J35" t="n">
-        <v>120.7425079345703</v>
+        <v>132.8989105224609</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>38.09115608907656</v>
       </c>
       <c r="G36" t="n">
-        <v>147.3984832763672</v>
+        <v>152.0406951904297</v>
       </c>
       <c r="H36" t="n">
-        <v>40.85560989379883</v>
+        <v>43.31170654296875</v>
       </c>
       <c r="I36" t="n">
-        <v>813.511962890625</v>
+        <v>814.0558471679688</v>
       </c>
       <c r="J36" t="n">
-        <v>115.332893371582</v>
+        <v>113.8078079223633</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>38.33579750611559</v>
       </c>
       <c r="G37" t="n">
-        <v>171.2801055908203</v>
+        <v>172.6650695800781</v>
       </c>
       <c r="H37" t="n">
-        <v>44.35082244873047</v>
+        <v>45.59558486938477</v>
       </c>
       <c r="I37" t="n">
-        <v>843.4171142578125</v>
+        <v>842.0082397460938</v>
       </c>
       <c r="J37" t="n">
-        <v>105.9790802001953</v>
+        <v>108.0892028808594</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>37.89528654115976</v>
       </c>
       <c r="G38" t="n">
-        <v>260.1053466796875</v>
+        <v>251.5575561523438</v>
       </c>
       <c r="H38" t="n">
-        <v>72.64733123779297</v>
+        <v>53.75142288208008</v>
       </c>
       <c r="I38" t="n">
-        <v>843.2703857421875</v>
+        <v>860.6880493164062</v>
       </c>
       <c r="J38" t="n">
-        <v>97.06980133056641</v>
+        <v>98.92850494384766</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>37.04916938976096</v>
       </c>
       <c r="G39" t="n">
-        <v>383.4475402832031</v>
+        <v>385.4290771484375</v>
       </c>
       <c r="H39" t="n">
-        <v>105.1757507324219</v>
+        <v>114.7079315185547</v>
       </c>
       <c r="I39" t="n">
-        <v>818.6931762695312</v>
+        <v>854.6524047851562</v>
       </c>
       <c r="J39" t="n">
-        <v>99.98987579345703</v>
+        <v>105.7268753051758</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>35.00856026880581</v>
       </c>
       <c r="G40" t="n">
-        <v>637.0331420898438</v>
+        <v>650.598876953125</v>
       </c>
       <c r="H40" t="n">
-        <v>103.3941650390625</v>
+        <v>113.782096862793</v>
       </c>
       <c r="I40" t="n">
-        <v>796.1363525390625</v>
+        <v>833.2368774414062</v>
       </c>
       <c r="J40" t="n">
-        <v>133.1381072998047</v>
+        <v>124.9491882324219</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>37.58863922492247</v>
       </c>
       <c r="G41" t="n">
-        <v>123.4777069091797</v>
+        <v>119.9421081542969</v>
       </c>
       <c r="H41" t="n">
-        <v>43.75075912475586</v>
+        <v>41.74251174926758</v>
       </c>
       <c r="I41" t="n">
-        <v>106.218147277832</v>
+        <v>89.93153381347656</v>
       </c>
       <c r="J41" t="n">
-        <v>54.77164840698242</v>
+        <v>49.11557006835938</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>40.4685427958547</v>
       </c>
       <c r="G42" t="n">
-        <v>125.7702865600586</v>
+        <v>122.6212463378906</v>
       </c>
       <c r="H42" t="n">
-        <v>43.26168441772461</v>
+        <v>43.80472564697266</v>
       </c>
       <c r="I42" t="n">
-        <v>140.3432312011719</v>
+        <v>118.3092575073242</v>
       </c>
       <c r="J42" t="n">
-        <v>61.75358581542969</v>
+        <v>50.2144889831543</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>42.41365999634309</v>
       </c>
       <c r="G43" t="n">
-        <v>126.3551940917969</v>
+        <v>126.2301788330078</v>
       </c>
       <c r="H43" t="n">
-        <v>41.23300170898438</v>
+        <v>41.94098663330078</v>
       </c>
       <c r="I43" t="n">
-        <v>170.5626525878906</v>
+        <v>149.0383453369141</v>
       </c>
       <c r="J43" t="n">
-        <v>70.84719848632812</v>
+        <v>63.84106063842773</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>44.05056700894834</v>
       </c>
       <c r="G44" t="n">
-        <v>132.1121063232422</v>
+        <v>133.4216003417969</v>
       </c>
       <c r="H44" t="n">
-        <v>42.67343139648438</v>
+        <v>39.72235488891602</v>
       </c>
       <c r="I44" t="n">
-        <v>279.9779052734375</v>
+        <v>242.0159606933594</v>
       </c>
       <c r="J44" t="n">
-        <v>91.01918792724609</v>
+        <v>86.24935913085938</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>45.28527361475503</v>
       </c>
       <c r="G45" t="n">
-        <v>141.0381317138672</v>
+        <v>142.9581451416016</v>
       </c>
       <c r="H45" t="n">
-        <v>42.65623092651367</v>
+        <v>42.37962341308594</v>
       </c>
       <c r="I45" t="n">
-        <v>340.1770629882812</v>
+        <v>315.9259948730469</v>
       </c>
       <c r="J45" t="n">
-        <v>98.87836456298828</v>
+        <v>102.323616027832</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>45.11415223222625</v>
       </c>
       <c r="G46" t="n">
-        <v>161.1766662597656</v>
+        <v>164.1398315429688</v>
       </c>
       <c r="H46" t="n">
-        <v>42.79824447631836</v>
+        <v>44.34987640380859</v>
       </c>
       <c r="I46" t="n">
-        <v>456.1157836914062</v>
+        <v>475.2765502929688</v>
       </c>
       <c r="J46" t="n">
-        <v>115.4369506835938</v>
+        <v>130.1591949462891</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>44.97584185956661</v>
       </c>
       <c r="G47" t="n">
-        <v>242.9722595214844</v>
+        <v>237.0189819335938</v>
       </c>
       <c r="H47" t="n">
-        <v>64.97373199462891</v>
+        <v>55.54854202270508</v>
       </c>
       <c r="I47" t="n">
-        <v>583.8037109375</v>
+        <v>626.2513427734375</v>
       </c>
       <c r="J47" t="n">
-        <v>131.7634582519531</v>
+        <v>147.1065063476562</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>42.0865253634753</v>
       </c>
       <c r="G48" t="n">
-        <v>398.4743347167969</v>
+        <v>398.4106750488281</v>
       </c>
       <c r="H48" t="n">
-        <v>94.67610931396484</v>
+        <v>93.79192352294922</v>
       </c>
       <c r="I48" t="n">
-        <v>690.666015625</v>
+        <v>749.3286743164062</v>
       </c>
       <c r="J48" t="n">
-        <v>149.2988586425781</v>
+        <v>156.1932525634766</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>40.81585186348995</v>
       </c>
       <c r="G49" t="n">
-        <v>588.0234985351562</v>
+        <v>606.7514038085938</v>
       </c>
       <c r="H49" t="n">
-        <v>104.6629409790039</v>
+        <v>103.55859375</v>
       </c>
       <c r="I49" t="n">
-        <v>711.0772705078125</v>
+        <v>768.0924072265625</v>
       </c>
       <c r="J49" t="n">
-        <v>172.2445831298828</v>
+        <v>172.4608306884766</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>45.37200448015243</v>
       </c>
       <c r="G50" t="n">
-        <v>123.9319686889648</v>
+        <v>118.0298843383789</v>
       </c>
       <c r="H50" t="n">
-        <v>43.06061935424805</v>
+        <v>43.13802719116211</v>
       </c>
       <c r="I50" t="n">
-        <v>63.25504684448242</v>
+        <v>58.71110153198242</v>
       </c>
       <c r="J50" t="n">
-        <v>53.18782043457031</v>
+        <v>48.01616287231445</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>48.78786662406539</v>
       </c>
       <c r="G51" t="n">
-        <v>125.8198699951172</v>
+        <v>123.0224380493164</v>
       </c>
       <c r="H51" t="n">
-        <v>42.76454544067383</v>
+        <v>42.41190719604492</v>
       </c>
       <c r="I51" t="n">
-        <v>76.70904541015625</v>
+        <v>70.84702301025391</v>
       </c>
       <c r="J51" t="n">
-        <v>56.34384918212891</v>
+        <v>48.91254425048828</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>50.73675625671652</v>
       </c>
       <c r="G52" t="n">
-        <v>129.4962310791016</v>
+        <v>129.5486755371094</v>
       </c>
       <c r="H52" t="n">
-        <v>42.93111038208008</v>
+        <v>42.06570816040039</v>
       </c>
       <c r="I52" t="n">
-        <v>82.60838317871094</v>
+        <v>75.5924072265625</v>
       </c>
       <c r="J52" t="n">
-        <v>59.94380950927734</v>
+        <v>52.5504264831543</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>51.96609868449762</v>
       </c>
       <c r="G53" t="n">
-        <v>134.3287963867188</v>
+        <v>132.3247985839844</v>
       </c>
       <c r="H53" t="n">
-        <v>45.10674667358398</v>
+        <v>42.95325088500977</v>
       </c>
       <c r="I53" t="n">
-        <v>105.0492477416992</v>
+        <v>97.25428009033203</v>
       </c>
       <c r="J53" t="n">
-        <v>64.77614593505859</v>
+        <v>59.89449310302734</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>52.45736467440484</v>
       </c>
       <c r="G54" t="n">
-        <v>142.8578643798828</v>
+        <v>144.0170593261719</v>
       </c>
       <c r="H54" t="n">
-        <v>44.0322265625</v>
+        <v>44.22308349609375</v>
       </c>
       <c r="I54" t="n">
-        <v>134.8973236083984</v>
+        <v>129.6525573730469</v>
       </c>
       <c r="J54" t="n">
-        <v>62.44184112548828</v>
+        <v>63.26164627075195</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>51.85220057025387</v>
       </c>
       <c r="G55" t="n">
-        <v>160.7372741699219</v>
+        <v>163.9666748046875</v>
       </c>
       <c r="H55" t="n">
-        <v>45.61594390869141</v>
+        <v>48.05697631835938</v>
       </c>
       <c r="I55" t="n">
-        <v>197.3089904785156</v>
+        <v>190.1222076416016</v>
       </c>
       <c r="J55" t="n">
-        <v>71.74844360351562</v>
+        <v>72.67893218994141</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>51.37276147532685</v>
       </c>
       <c r="G56" t="n">
-        <v>219.319580078125</v>
+        <v>221.9301605224609</v>
       </c>
       <c r="H56" t="n">
-        <v>53.42387771606445</v>
+        <v>55.01195907592773</v>
       </c>
       <c r="I56" t="n">
-        <v>226.8726501464844</v>
+        <v>247.9970245361328</v>
       </c>
       <c r="J56" t="n">
-        <v>86.8167724609375</v>
+        <v>92.71440887451172</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>49.881475732815</v>
       </c>
       <c r="G57" t="n">
-        <v>355.8965759277344</v>
+        <v>367.6734619140625</v>
       </c>
       <c r="H57" t="n">
-        <v>87.39747619628906</v>
+        <v>86.69288635253906</v>
       </c>
       <c r="I57" t="n">
-        <v>373.624755859375</v>
+        <v>443.8638000488281</v>
       </c>
       <c r="J57" t="n">
-        <v>162.5339508056641</v>
+        <v>169.5570373535156</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>46.147295090649</v>
       </c>
       <c r="G58" t="n">
-        <v>583.0481567382812</v>
+        <v>596.3826904296875</v>
       </c>
       <c r="H58" t="n">
-        <v>99.12680816650391</v>
+        <v>89.35120391845703</v>
       </c>
       <c r="I58" t="n">
-        <v>498.15771484375</v>
+        <v>604.9208984375</v>
       </c>
       <c r="J58" t="n">
-        <v>230.6102447509766</v>
+        <v>226.0955200195312</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>56.70921047332411</v>
       </c>
       <c r="G59" t="n">
-        <v>129.6039123535156</v>
+        <v>128.4716949462891</v>
       </c>
       <c r="H59" t="n">
-        <v>44.73735046386719</v>
+        <v>46.12600708007812</v>
       </c>
       <c r="I59" t="n">
-        <v>7.984697341918945</v>
+        <v>10.69270038604736</v>
       </c>
       <c r="J59" t="n">
-        <v>74.28404998779297</v>
+        <v>66.47879791259766</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>58.23723423416003</v>
       </c>
       <c r="G60" t="n">
-        <v>133.4960174560547</v>
+        <v>130.2875823974609</v>
       </c>
       <c r="H60" t="n">
-        <v>43.60017776489258</v>
+        <v>43.87096405029297</v>
       </c>
       <c r="I60" t="n">
-        <v>-1.659213304519653</v>
+        <v>6.957258224487305</v>
       </c>
       <c r="J60" t="n">
-        <v>76.0244140625</v>
+        <v>69.91234588623047</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>59.34611390594659</v>
       </c>
       <c r="G61" t="n">
-        <v>137.5617523193359</v>
+        <v>137.2480163574219</v>
       </c>
       <c r="H61" t="n">
-        <v>44.33721542358398</v>
+        <v>49.38990020751953</v>
       </c>
       <c r="I61" t="n">
-        <v>3.062126159667969</v>
+        <v>9.341388702392578</v>
       </c>
       <c r="J61" t="n">
-        <v>81.24076080322266</v>
+        <v>73.66724395751953</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>59.33493295870724</v>
       </c>
       <c r="G62" t="n">
-        <v>144.4486389160156</v>
+        <v>146.1892547607422</v>
       </c>
       <c r="H62" t="n">
-        <v>47.61953735351562</v>
+        <v>48.11802291870117</v>
       </c>
       <c r="I62" t="n">
-        <v>19.24007415771484</v>
+        <v>28.27016639709473</v>
       </c>
       <c r="J62" t="n">
-        <v>77.95078277587891</v>
+        <v>73.41249084472656</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>58.39353789451046</v>
       </c>
       <c r="G63" t="n">
-        <v>161.3216705322266</v>
+        <v>160.5817260742188</v>
       </c>
       <c r="H63" t="n">
-        <v>46.5772819519043</v>
+        <v>50.35908508300781</v>
       </c>
       <c r="I63" t="n">
-        <v>44.33582305908203</v>
+        <v>54.55911254882812</v>
       </c>
       <c r="J63" t="n">
-        <v>79.38674926757812</v>
+        <v>72.79022216796875</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>57.3323684814925</v>
       </c>
       <c r="G64" t="n">
-        <v>207.7595672607422</v>
+        <v>214.9434661865234</v>
       </c>
       <c r="H64" t="n">
-        <v>53.95505905151367</v>
+        <v>60.31703186035156</v>
       </c>
       <c r="I64" t="n">
-        <v>67.72232055664062</v>
+        <v>91.46907043457031</v>
       </c>
       <c r="J64" t="n">
-        <v>75.53961181640625</v>
+        <v>69.20306396484375</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>54.83283250514894</v>
       </c>
       <c r="G65" t="n">
-        <v>346.3905639648438</v>
+        <v>365.5272827148438</v>
       </c>
       <c r="H65" t="n">
-        <v>90.39775848388672</v>
+        <v>91.06299591064453</v>
       </c>
       <c r="I65" t="n">
-        <v>147.0321807861328</v>
+        <v>192.6848754882812</v>
       </c>
       <c r="J65" t="n">
-        <v>116.310188293457</v>
+        <v>112.0466766357422</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>66.18771861830042</v>
       </c>
       <c r="G66" t="n">
-        <v>144.65966796875</v>
+        <v>142.1047973632812</v>
       </c>
       <c r="H66" t="n">
-        <v>48.20245361328125</v>
+        <v>50.87128448486328</v>
       </c>
       <c r="I66" t="n">
-        <v>-92.25687408447266</v>
+        <v>-74.58790588378906</v>
       </c>
       <c r="J66" t="n">
-        <v>89.60342407226562</v>
+        <v>96.39224243164062</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>66.85471859160208</v>
       </c>
       <c r="G67" t="n">
-        <v>149.0615081787109</v>
+        <v>148.9499664306641</v>
       </c>
       <c r="H67" t="n">
-        <v>49.97200012207031</v>
+        <v>55.70447158813477</v>
       </c>
       <c r="I67" t="n">
-        <v>-103.8491744995117</v>
+        <v>-81.52153015136719</v>
       </c>
       <c r="J67" t="n">
-        <v>89.31351470947266</v>
+        <v>93.85363006591797</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>66.29608309198557</v>
       </c>
       <c r="G68" t="n">
-        <v>158.5070495605469</v>
+        <v>161.6739501953125</v>
       </c>
       <c r="H68" t="n">
-        <v>51.09530639648438</v>
+        <v>56.0628547668457</v>
       </c>
       <c r="I68" t="n">
-        <v>-90.41345977783203</v>
+        <v>-63.8649787902832</v>
       </c>
       <c r="J68" t="n">
-        <v>93.18875122070312</v>
+        <v>97.47396850585938</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>65.32452373485688</v>
       </c>
       <c r="G69" t="n">
-        <v>165.5530242919922</v>
+        <v>173.0026397705078</v>
       </c>
       <c r="H69" t="n">
-        <v>50.7075080871582</v>
+        <v>57.04682540893555</v>
       </c>
       <c r="I69" t="n">
-        <v>-73.24607849121094</v>
+        <v>-46.53838729858398</v>
       </c>
       <c r="J69" t="n">
-        <v>92.51876068115234</v>
+        <v>94.17930603027344</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>63.37031159981304</v>
       </c>
       <c r="G70" t="n">
-        <v>204.9318695068359</v>
+        <v>219.8818511962891</v>
       </c>
       <c r="H70" t="n">
-        <v>60.64212036132812</v>
+        <v>68.28086853027344</v>
       </c>
       <c r="I70" t="n">
-        <v>-37.93009948730469</v>
+        <v>-4.289230346679688</v>
       </c>
       <c r="J70" t="n">
-        <v>91.87404632568359</v>
+        <v>90.87980651855469</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_XAI_NoEng_gelu.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_XAI_NoEng_gelu.xlsx
@@ -505,16 +505,16 @@
         <v>14.31699359657089</v>
       </c>
       <c r="G2" t="n">
-        <v>149.7702941894531</v>
+        <v>147.3134918212891</v>
       </c>
       <c r="H2" t="n">
-        <v>51.38345718383789</v>
+        <v>51.4043083190918</v>
       </c>
       <c r="I2" t="n">
-        <v>849.7293090820312</v>
+        <v>846.2786865234375</v>
       </c>
       <c r="J2" t="n">
-        <v>71.77645111083984</v>
+        <v>72.81692504882812</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>15.27891067420843</v>
       </c>
       <c r="G3" t="n">
-        <v>178.6212158203125</v>
+        <v>173.7303161621094</v>
       </c>
       <c r="H3" t="n">
-        <v>93.4677734375</v>
+        <v>85.65614318847656</v>
       </c>
       <c r="I3" t="n">
-        <v>834.404296875</v>
+        <v>830.8510131835938</v>
       </c>
       <c r="J3" t="n">
-        <v>75.00228881835938</v>
+        <v>73.60026550292969</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>15.85974020072816</v>
       </c>
       <c r="G4" t="n">
-        <v>219.8380737304688</v>
+        <v>215.0057525634766</v>
       </c>
       <c r="H4" t="n">
-        <v>130.8739318847656</v>
+        <v>123.6320724487305</v>
       </c>
       <c r="I4" t="n">
-        <v>828.4735717773438</v>
+        <v>834.0624389648438</v>
       </c>
       <c r="J4" t="n">
-        <v>77.01862335205078</v>
+        <v>75.65878295898438</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>16.6254486072678</v>
       </c>
       <c r="G5" t="n">
-        <v>282.7823181152344</v>
+        <v>298.882568359375</v>
       </c>
       <c r="H5" t="n">
-        <v>160.1239776611328</v>
+        <v>178.2715454101562</v>
       </c>
       <c r="I5" t="n">
-        <v>827.0150756835938</v>
+        <v>826.40771484375</v>
       </c>
       <c r="J5" t="n">
-        <v>78.31563568115234</v>
+        <v>82.03400421142578</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>16.72168606967666</v>
       </c>
       <c r="G6" t="n">
-        <v>381.6689453125</v>
+        <v>388.2305603027344</v>
       </c>
       <c r="H6" t="n">
-        <v>202.2947845458984</v>
+        <v>202.6036834716797</v>
       </c>
       <c r="I6" t="n">
-        <v>819.8807373046875</v>
+        <v>817.1577758789062</v>
       </c>
       <c r="J6" t="n">
-        <v>87.46546173095703</v>
+        <v>86.88610076904297</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>17.58023045110392</v>
       </c>
       <c r="G7" t="n">
-        <v>144.4743804931641</v>
+        <v>145.0956420898438</v>
       </c>
       <c r="H7" t="n">
-        <v>41.18906784057617</v>
+        <v>41.96388626098633</v>
       </c>
       <c r="I7" t="n">
-        <v>918.2490844726562</v>
+        <v>921.1748046875</v>
       </c>
       <c r="J7" t="n">
-        <v>74.54746246337891</v>
+        <v>75.97544860839844</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>18.57818076528054</v>
       </c>
       <c r="G8" t="n">
-        <v>145.5126037597656</v>
+        <v>143.4688568115234</v>
       </c>
       <c r="H8" t="n">
-        <v>39.99762344360352</v>
+        <v>40.1140022277832</v>
       </c>
       <c r="I8" t="n">
-        <v>919.8934326171875</v>
+        <v>914.992919921875</v>
       </c>
       <c r="J8" t="n">
-        <v>70.11827850341797</v>
+        <v>68.07709503173828</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>19.60838259075554</v>
       </c>
       <c r="G9" t="n">
-        <v>148.7918548583984</v>
+        <v>148.6356048583984</v>
       </c>
       <c r="H9" t="n">
-        <v>43.15548706054688</v>
+        <v>44.08806610107422</v>
       </c>
       <c r="I9" t="n">
-        <v>893.8304443359375</v>
+        <v>891.1923217773438</v>
       </c>
       <c r="J9" t="n">
-        <v>68.89743804931641</v>
+        <v>68.44514465332031</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>20.10500298210745</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3748626708984</v>
+        <v>170.0724945068359</v>
       </c>
       <c r="H10" t="n">
-        <v>59.07188415527344</v>
+        <v>62.2004508972168</v>
       </c>
       <c r="I10" t="n">
-        <v>872.6080932617188</v>
+        <v>871.3523559570312</v>
       </c>
       <c r="J10" t="n">
-        <v>69.61902618408203</v>
+        <v>72.48417663574219</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>20.82282672295324</v>
       </c>
       <c r="G11" t="n">
-        <v>223.4258270263672</v>
+        <v>222.5913238525391</v>
       </c>
       <c r="H11" t="n">
-        <v>111.4712219238281</v>
+        <v>111.4014205932617</v>
       </c>
       <c r="I11" t="n">
-        <v>855.9588623046875</v>
+        <v>857.2838745117188</v>
       </c>
       <c r="J11" t="n">
-        <v>78.76535797119141</v>
+        <v>76.53772735595703</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>21.05931589769223</v>
       </c>
       <c r="G12" t="n">
-        <v>332.2963256835938</v>
+        <v>331.0445251464844</v>
       </c>
       <c r="H12" t="n">
-        <v>175.2517852783203</v>
+        <v>172.8124542236328</v>
       </c>
       <c r="I12" t="n">
-        <v>852.1060791015625</v>
+        <v>851.9188232421875</v>
       </c>
       <c r="J12" t="n">
-        <v>80.89293670654297</v>
+        <v>80.51786041259766</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>21.38449445236935</v>
       </c>
       <c r="G13" t="n">
-        <v>490.1120300292969</v>
+        <v>496.4963073730469</v>
       </c>
       <c r="H13" t="n">
-        <v>205.819091796875</v>
+        <v>202.8359985351562</v>
       </c>
       <c r="I13" t="n">
-        <v>841.07177734375</v>
+        <v>844.5579833984375</v>
       </c>
       <c r="J13" t="n">
-        <v>88.61841583251953</v>
+        <v>93.48576354980469</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>19.79697020692051</v>
       </c>
       <c r="G14" t="n">
-        <v>137.6751708984375</v>
+        <v>136.0694427490234</v>
       </c>
       <c r="H14" t="n">
-        <v>43.71889114379883</v>
+        <v>45.13218688964844</v>
       </c>
       <c r="I14" t="n">
-        <v>693.6764526367188</v>
+        <v>691.7765502929688</v>
       </c>
       <c r="J14" t="n">
-        <v>114.9818725585938</v>
+        <v>115.5261459350586</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>21.48203443327129</v>
       </c>
       <c r="G15" t="n">
-        <v>141.6690826416016</v>
+        <v>141.8453063964844</v>
       </c>
       <c r="H15" t="n">
-        <v>42.07797241210938</v>
+        <v>43.0170783996582</v>
       </c>
       <c r="I15" t="n">
-        <v>951.4041748046875</v>
+        <v>957.72216796875</v>
       </c>
       <c r="J15" t="n">
-        <v>76.26132202148438</v>
+        <v>75.73393249511719</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>22.47631622738632</v>
       </c>
       <c r="G16" t="n">
-        <v>146.1553192138672</v>
+        <v>144.0997161865234</v>
       </c>
       <c r="H16" t="n">
-        <v>37.99169158935547</v>
+        <v>40.52370452880859</v>
       </c>
       <c r="I16" t="n">
-        <v>954.4826049804688</v>
+        <v>956.3129272460938</v>
       </c>
       <c r="J16" t="n">
-        <v>79.45667266845703</v>
+        <v>79.17270660400391</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>24.35763244318183</v>
       </c>
       <c r="G17" t="n">
-        <v>148.6200714111328</v>
+        <v>147.0063018798828</v>
       </c>
       <c r="H17" t="n">
-        <v>40.51709747314453</v>
+        <v>39.72169494628906</v>
       </c>
       <c r="I17" t="n">
-        <v>965.9635620117188</v>
+        <v>969.4708251953125</v>
       </c>
       <c r="J17" t="n">
-        <v>86.21281433105469</v>
+        <v>80.48421478271484</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>25.62064236797445</v>
       </c>
       <c r="G18" t="n">
-        <v>162.4537353515625</v>
+        <v>161.1901550292969</v>
       </c>
       <c r="H18" t="n">
-        <v>46.75770950317383</v>
+        <v>45.80680084228516</v>
       </c>
       <c r="I18" t="n">
-        <v>937.0975952148438</v>
+        <v>935.3638305664062</v>
       </c>
       <c r="J18" t="n">
-        <v>82.47393798828125</v>
+        <v>81.81899261474609</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>25.92967709475499</v>
       </c>
       <c r="G19" t="n">
-        <v>197.9355621337891</v>
+        <v>196.4524230957031</v>
       </c>
       <c r="H19" t="n">
-        <v>66.75480651855469</v>
+        <v>61.58781433105469</v>
       </c>
       <c r="I19" t="n">
-        <v>908.7479248046875</v>
+        <v>909.8294677734375</v>
       </c>
       <c r="J19" t="n">
-        <v>84.802490234375</v>
+        <v>82.15946197509766</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>26.19588155013293</v>
       </c>
       <c r="G20" t="n">
-        <v>275.6260681152344</v>
+        <v>280.7164611816406</v>
       </c>
       <c r="H20" t="n">
-        <v>120.2702255249023</v>
+        <v>128.5687103271484</v>
       </c>
       <c r="I20" t="n">
-        <v>886.4239501953125</v>
+        <v>891.992919921875</v>
       </c>
       <c r="J20" t="n">
-        <v>83.05702209472656</v>
+        <v>84.64911651611328</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>25.87267490890685</v>
       </c>
       <c r="G21" t="n">
-        <v>469.3760375976562</v>
+        <v>472.4528198242188</v>
       </c>
       <c r="H21" t="n">
-        <v>195.1764831542969</v>
+        <v>195.0982055664062</v>
       </c>
       <c r="I21" t="n">
-        <v>873.0863647460938</v>
+        <v>872.7318725585938</v>
       </c>
       <c r="J21" t="n">
-        <v>87.42865753173828</v>
+        <v>87.7364501953125</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>24.64055238634836</v>
       </c>
       <c r="G22" t="n">
-        <v>686.8981323242188</v>
+        <v>692.2981567382812</v>
       </c>
       <c r="H22" t="n">
-        <v>152.8655853271484</v>
+        <v>150.0234375</v>
       </c>
       <c r="I22" t="n">
-        <v>844.8637084960938</v>
+        <v>841.7146606445312</v>
       </c>
       <c r="J22" t="n">
-        <v>105.9699325561523</v>
+        <v>104.2079391479492</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>24.69862396067251</v>
       </c>
       <c r="G23" t="n">
-        <v>126.9307174682617</v>
+        <v>127.5964736938477</v>
       </c>
       <c r="H23" t="n">
-        <v>41.20153427124023</v>
+        <v>43.34627532958984</v>
       </c>
       <c r="I23" t="n">
-        <v>297.6226501464844</v>
+        <v>294.8854064941406</v>
       </c>
       <c r="J23" t="n">
-        <v>111.317626953125</v>
+        <v>115.4799652099609</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>27.11629087610016</v>
       </c>
       <c r="G24" t="n">
-        <v>131.8827056884766</v>
+        <v>133.84130859375</v>
       </c>
       <c r="H24" t="n">
-        <v>43.72474670410156</v>
+        <v>41.34669494628906</v>
       </c>
       <c r="I24" t="n">
-        <v>516.6928100585938</v>
+        <v>514.4278564453125</v>
       </c>
       <c r="J24" t="n">
-        <v>138.9469604492188</v>
+        <v>134.6304931640625</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>28.97995691733995</v>
       </c>
       <c r="G25" t="n">
-        <v>136.8632507324219</v>
+        <v>135.6402282714844</v>
       </c>
       <c r="H25" t="n">
-        <v>41.77582550048828</v>
+        <v>42.93122863769531</v>
       </c>
       <c r="I25" t="n">
-        <v>880.1500854492188</v>
+        <v>882.255615234375</v>
       </c>
       <c r="J25" t="n">
-        <v>97.21940612792969</v>
+        <v>101.3525924682617</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>30.34265377319738</v>
       </c>
       <c r="G26" t="n">
-        <v>139.5058746337891</v>
+        <v>142.19677734375</v>
       </c>
       <c r="H26" t="n">
-        <v>42.2977409362793</v>
+        <v>41.4493408203125</v>
       </c>
       <c r="I26" t="n">
-        <v>996.0576782226562</v>
+        <v>992.4754028320312</v>
       </c>
       <c r="J26" t="n">
-        <v>75.50527191162109</v>
+        <v>81.04598999023438</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>31.86528713449996</v>
       </c>
       <c r="G27" t="n">
-        <v>152.5538482666016</v>
+        <v>152.8760223388672</v>
       </c>
       <c r="H27" t="n">
-        <v>41.75127410888672</v>
+        <v>40.74967193603516</v>
       </c>
       <c r="I27" t="n">
-        <v>980.2742919921875</v>
+        <v>984.6132202148438</v>
       </c>
       <c r="J27" t="n">
-        <v>77.43649291992188</v>
+        <v>71.86890411376953</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>31.70139237157215</v>
       </c>
       <c r="G28" t="n">
-        <v>190.8219909667969</v>
+        <v>189.4626159667969</v>
       </c>
       <c r="H28" t="n">
-        <v>47.96979522705078</v>
+        <v>45.8731689453125</v>
       </c>
       <c r="I28" t="n">
-        <v>936.235107421875</v>
+        <v>940.7079467773438</v>
       </c>
       <c r="J28" t="n">
-        <v>82.48175811767578</v>
+        <v>81.97933959960938</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>31.7420363140709</v>
       </c>
       <c r="G29" t="n">
-        <v>254.5015869140625</v>
+        <v>253.3281707763672</v>
       </c>
       <c r="H29" t="n">
-        <v>68.92043304443359</v>
+        <v>69.76166534423828</v>
       </c>
       <c r="I29" t="n">
-        <v>912.978759765625</v>
+        <v>910.897216796875</v>
       </c>
       <c r="J29" t="n">
-        <v>85.69080352783203</v>
+        <v>83.00984954833984</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>30.76237588603813</v>
       </c>
       <c r="G30" t="n">
-        <v>428.9461669921875</v>
+        <v>417.0925903320312</v>
       </c>
       <c r="H30" t="n">
-        <v>171.4618225097656</v>
+        <v>167.1170806884766</v>
       </c>
       <c r="I30" t="n">
-        <v>884.8206176757812</v>
+        <v>885.075927734375</v>
       </c>
       <c r="J30" t="n">
-        <v>87.87553405761719</v>
+        <v>85.67630767822266</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>29.73442789455431</v>
       </c>
       <c r="G31" t="n">
-        <v>686.27978515625</v>
+        <v>682.1337890625</v>
       </c>
       <c r="H31" t="n">
-        <v>129.7849884033203</v>
+        <v>134.1263122558594</v>
       </c>
       <c r="I31" t="n">
-        <v>864.756591796875</v>
+        <v>861.2587280273438</v>
       </c>
       <c r="J31" t="n">
-        <v>94.36540985107422</v>
+        <v>96.36048126220703</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>30.37782838567884</v>
       </c>
       <c r="G32" t="n">
-        <v>122.8961181640625</v>
+        <v>122.6096496582031</v>
       </c>
       <c r="H32" t="n">
-        <v>43.94723510742188</v>
+        <v>43.07453155517578</v>
       </c>
       <c r="I32" t="n">
-        <v>125.8445281982422</v>
+        <v>126.7284240722656</v>
       </c>
       <c r="J32" t="n">
-        <v>60.26629638671875</v>
+        <v>63.77021026611328</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>33.11659379389907</v>
       </c>
       <c r="G33" t="n">
-        <v>126.5781097412109</v>
+        <v>126.6862335205078</v>
       </c>
       <c r="H33" t="n">
-        <v>40.93878936767578</v>
+        <v>42.52042388916016</v>
       </c>
       <c r="I33" t="n">
-        <v>209.8675231933594</v>
+        <v>208.3720092773438</v>
       </c>
       <c r="J33" t="n">
-        <v>87.11563110351562</v>
+        <v>84.15712738037109</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>35.40504769440309</v>
       </c>
       <c r="G34" t="n">
-        <v>129.3294067382812</v>
+        <v>130.4527282714844</v>
       </c>
       <c r="H34" t="n">
-        <v>42.01552963256836</v>
+        <v>42.39874649047852</v>
       </c>
       <c r="I34" t="n">
-        <v>369.8555908203125</v>
+        <v>369.8421020507812</v>
       </c>
       <c r="J34" t="n">
-        <v>128.5787658691406</v>
+        <v>125.0204772949219</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>37.57764389518124</v>
       </c>
       <c r="G35" t="n">
-        <v>136.2480316162109</v>
+        <v>137.9445495605469</v>
       </c>
       <c r="H35" t="n">
-        <v>40.99262619018555</v>
+        <v>41.01408767700195</v>
       </c>
       <c r="I35" t="n">
-        <v>540.9719848632812</v>
+        <v>543.8513793945312</v>
       </c>
       <c r="J35" t="n">
-        <v>132.8989105224609</v>
+        <v>137.6838836669922</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>38.09115608907656</v>
       </c>
       <c r="G36" t="n">
-        <v>152.0406951904297</v>
+        <v>150.5005493164062</v>
       </c>
       <c r="H36" t="n">
-        <v>43.31170654296875</v>
+        <v>45.02827072143555</v>
       </c>
       <c r="I36" t="n">
-        <v>814.0558471679688</v>
+        <v>810.8200073242188</v>
       </c>
       <c r="J36" t="n">
-        <v>113.8078079223633</v>
+        <v>117.5586318969727</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>38.33579750611559</v>
       </c>
       <c r="G37" t="n">
-        <v>172.6650695800781</v>
+        <v>174.4922637939453</v>
       </c>
       <c r="H37" t="n">
-        <v>45.59558486938477</v>
+        <v>42.94939804077148</v>
       </c>
       <c r="I37" t="n">
-        <v>842.0082397460938</v>
+        <v>840.5673217773438</v>
       </c>
       <c r="J37" t="n">
-        <v>108.0892028808594</v>
+        <v>106.6945190429688</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>37.89528654115976</v>
       </c>
       <c r="G38" t="n">
-        <v>251.5575561523438</v>
+        <v>254.0594787597656</v>
       </c>
       <c r="H38" t="n">
-        <v>53.75142288208008</v>
+        <v>53.68472290039062</v>
       </c>
       <c r="I38" t="n">
-        <v>860.6880493164062</v>
+        <v>856.7330932617188</v>
       </c>
       <c r="J38" t="n">
-        <v>98.92850494384766</v>
+        <v>101.50732421875</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>37.04916938976096</v>
       </c>
       <c r="G39" t="n">
-        <v>385.4290771484375</v>
+        <v>385.125244140625</v>
       </c>
       <c r="H39" t="n">
-        <v>114.7079315185547</v>
+        <v>115.0356063842773</v>
       </c>
       <c r="I39" t="n">
-        <v>854.6524047851562</v>
+        <v>863.7417602539062</v>
       </c>
       <c r="J39" t="n">
-        <v>105.7268753051758</v>
+        <v>99.33565521240234</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>35.00856026880581</v>
       </c>
       <c r="G40" t="n">
-        <v>650.598876953125</v>
+        <v>651.1542358398438</v>
       </c>
       <c r="H40" t="n">
-        <v>113.782096862793</v>
+        <v>117.4506530761719</v>
       </c>
       <c r="I40" t="n">
-        <v>833.2368774414062</v>
+        <v>834.8343505859375</v>
       </c>
       <c r="J40" t="n">
-        <v>124.9491882324219</v>
+        <v>118.6020278930664</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>37.58863922492247</v>
       </c>
       <c r="G41" t="n">
-        <v>119.9421081542969</v>
+        <v>118.704833984375</v>
       </c>
       <c r="H41" t="n">
-        <v>41.74251174926758</v>
+        <v>41.87212753295898</v>
       </c>
       <c r="I41" t="n">
-        <v>89.93153381347656</v>
+        <v>90.14450836181641</v>
       </c>
       <c r="J41" t="n">
-        <v>49.11557006835938</v>
+        <v>47.81303024291992</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>40.4685427958547</v>
       </c>
       <c r="G42" t="n">
-        <v>122.6212463378906</v>
+        <v>122.0380325317383</v>
       </c>
       <c r="H42" t="n">
-        <v>43.80472564697266</v>
+        <v>42.22575759887695</v>
       </c>
       <c r="I42" t="n">
-        <v>118.3092575073242</v>
+        <v>118.6486968994141</v>
       </c>
       <c r="J42" t="n">
-        <v>50.2144889831543</v>
+        <v>52.03339004516602</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>42.41365999634309</v>
       </c>
       <c r="G43" t="n">
-        <v>126.2301788330078</v>
+        <v>127.5992584228516</v>
       </c>
       <c r="H43" t="n">
-        <v>41.94098663330078</v>
+        <v>42.08295822143555</v>
       </c>
       <c r="I43" t="n">
-        <v>149.0383453369141</v>
+        <v>148.8814849853516</v>
       </c>
       <c r="J43" t="n">
-        <v>63.84106063842773</v>
+        <v>63.24309921264648</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>44.05056700894834</v>
       </c>
       <c r="G44" t="n">
-        <v>133.4216003417969</v>
+        <v>132.3735198974609</v>
       </c>
       <c r="H44" t="n">
-        <v>39.72235488891602</v>
+        <v>42.52240371704102</v>
       </c>
       <c r="I44" t="n">
-        <v>242.0159606933594</v>
+        <v>241.1004486083984</v>
       </c>
       <c r="J44" t="n">
-        <v>86.24935913085938</v>
+        <v>88.8206787109375</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>45.28527361475503</v>
       </c>
       <c r="G45" t="n">
-        <v>142.9581451416016</v>
+        <v>140.5900726318359</v>
       </c>
       <c r="H45" t="n">
-        <v>42.37962341308594</v>
+        <v>42.54275512695312</v>
       </c>
       <c r="I45" t="n">
-        <v>315.9259948730469</v>
+        <v>317.1603088378906</v>
       </c>
       <c r="J45" t="n">
-        <v>102.323616027832</v>
+        <v>100.2096328735352</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>45.11415223222625</v>
       </c>
       <c r="G46" t="n">
-        <v>164.1398315429688</v>
+        <v>161.013671875</v>
       </c>
       <c r="H46" t="n">
-        <v>44.34987640380859</v>
+        <v>46.58514022827148</v>
       </c>
       <c r="I46" t="n">
-        <v>475.2765502929688</v>
+        <v>460.4764709472656</v>
       </c>
       <c r="J46" t="n">
-        <v>130.1591949462891</v>
+        <v>124.3080291748047</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>44.97584185956661</v>
       </c>
       <c r="G47" t="n">
-        <v>237.0189819335938</v>
+        <v>235.6342468261719</v>
       </c>
       <c r="H47" t="n">
-        <v>55.54854202270508</v>
+        <v>55.09334945678711</v>
       </c>
       <c r="I47" t="n">
-        <v>626.2513427734375</v>
+        <v>623.0406494140625</v>
       </c>
       <c r="J47" t="n">
-        <v>147.1065063476562</v>
+        <v>141.1039581298828</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>42.0865253634753</v>
       </c>
       <c r="G48" t="n">
-        <v>398.4106750488281</v>
+        <v>397.5009765625</v>
       </c>
       <c r="H48" t="n">
-        <v>93.79192352294922</v>
+        <v>93.812255859375</v>
       </c>
       <c r="I48" t="n">
-        <v>749.3286743164062</v>
+        <v>750.7655639648438</v>
       </c>
       <c r="J48" t="n">
-        <v>156.1932525634766</v>
+        <v>155.3658294677734</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>40.81585186348995</v>
       </c>
       <c r="G49" t="n">
-        <v>606.7514038085938</v>
+        <v>604.0592041015625</v>
       </c>
       <c r="H49" t="n">
-        <v>103.55859375</v>
+        <v>102.689323425293</v>
       </c>
       <c r="I49" t="n">
-        <v>768.0924072265625</v>
+        <v>769.3588256835938</v>
       </c>
       <c r="J49" t="n">
-        <v>172.4608306884766</v>
+        <v>177.7659606933594</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>45.37200448015243</v>
       </c>
       <c r="G50" t="n">
-        <v>118.0298843383789</v>
+        <v>119.8964462280273</v>
       </c>
       <c r="H50" t="n">
-        <v>43.13802719116211</v>
+        <v>42.23719787597656</v>
       </c>
       <c r="I50" t="n">
-        <v>58.71110153198242</v>
+        <v>64.24758148193359</v>
       </c>
       <c r="J50" t="n">
-        <v>48.01616287231445</v>
+        <v>48.84241485595703</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>48.78786662406539</v>
       </c>
       <c r="G51" t="n">
-        <v>123.0224380493164</v>
+        <v>124.0627059936523</v>
       </c>
       <c r="H51" t="n">
-        <v>42.41190719604492</v>
+        <v>43.25187683105469</v>
       </c>
       <c r="I51" t="n">
-        <v>70.84702301025391</v>
+        <v>72.25334930419922</v>
       </c>
       <c r="J51" t="n">
-        <v>48.91254425048828</v>
+        <v>49.15372085571289</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>50.73675625671652</v>
       </c>
       <c r="G52" t="n">
-        <v>129.5486755371094</v>
+        <v>128.3204650878906</v>
       </c>
       <c r="H52" t="n">
-        <v>42.06570816040039</v>
+        <v>42.99404144287109</v>
       </c>
       <c r="I52" t="n">
-        <v>75.5924072265625</v>
+        <v>74.44168853759766</v>
       </c>
       <c r="J52" t="n">
-        <v>52.5504264831543</v>
+        <v>53.08675384521484</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>51.96609868449762</v>
       </c>
       <c r="G53" t="n">
-        <v>132.3247985839844</v>
+        <v>133.0397033691406</v>
       </c>
       <c r="H53" t="n">
-        <v>42.95325088500977</v>
+        <v>40.98529434204102</v>
       </c>
       <c r="I53" t="n">
-        <v>97.25428009033203</v>
+        <v>95.59740447998047</v>
       </c>
       <c r="J53" t="n">
-        <v>59.89449310302734</v>
+        <v>58.55212783813477</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>52.45736467440484</v>
       </c>
       <c r="G54" t="n">
-        <v>144.0170593261719</v>
+        <v>144.6273651123047</v>
       </c>
       <c r="H54" t="n">
-        <v>44.22308349609375</v>
+        <v>45.04403686523438</v>
       </c>
       <c r="I54" t="n">
-        <v>129.6525573730469</v>
+        <v>128.7677612304688</v>
       </c>
       <c r="J54" t="n">
-        <v>63.26164627075195</v>
+        <v>62.15475463867188</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>51.85220057025387</v>
       </c>
       <c r="G55" t="n">
-        <v>163.9666748046875</v>
+        <v>162.7377014160156</v>
       </c>
       <c r="H55" t="n">
-        <v>48.05697631835938</v>
+        <v>46.47867202758789</v>
       </c>
       <c r="I55" t="n">
-        <v>190.1222076416016</v>
+        <v>191.2337951660156</v>
       </c>
       <c r="J55" t="n">
-        <v>72.67893218994141</v>
+        <v>75.14169311523438</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>51.37276147532685</v>
       </c>
       <c r="G56" t="n">
-        <v>221.9301605224609</v>
+        <v>220.3497161865234</v>
       </c>
       <c r="H56" t="n">
-        <v>55.01195907592773</v>
+        <v>57.54563903808594</v>
       </c>
       <c r="I56" t="n">
-        <v>247.9970245361328</v>
+        <v>251.9340667724609</v>
       </c>
       <c r="J56" t="n">
-        <v>92.71440887451172</v>
+        <v>95.08740234375</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>49.881475732815</v>
       </c>
       <c r="G57" t="n">
-        <v>367.6734619140625</v>
+        <v>364.9620666503906</v>
       </c>
       <c r="H57" t="n">
-        <v>86.69288635253906</v>
+        <v>81.56732940673828</v>
       </c>
       <c r="I57" t="n">
-        <v>443.8638000488281</v>
+        <v>446.7222900390625</v>
       </c>
       <c r="J57" t="n">
-        <v>169.5570373535156</v>
+        <v>172.7254791259766</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>46.147295090649</v>
       </c>
       <c r="G58" t="n">
-        <v>596.3826904296875</v>
+        <v>595.333740234375</v>
       </c>
       <c r="H58" t="n">
-        <v>89.35120391845703</v>
+        <v>92.23464202880859</v>
       </c>
       <c r="I58" t="n">
-        <v>604.9208984375</v>
+        <v>600.2254638671875</v>
       </c>
       <c r="J58" t="n">
-        <v>226.0955200195312</v>
+        <v>225.7740936279297</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>56.70921047332411</v>
       </c>
       <c r="G59" t="n">
-        <v>128.4716949462891</v>
+        <v>126.5781631469727</v>
       </c>
       <c r="H59" t="n">
-        <v>46.12600708007812</v>
+        <v>44.17761611938477</v>
       </c>
       <c r="I59" t="n">
-        <v>10.69270038604736</v>
+        <v>12.98061752319336</v>
       </c>
       <c r="J59" t="n">
-        <v>66.47879791259766</v>
+        <v>67.54948425292969</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>58.23723423416003</v>
       </c>
       <c r="G60" t="n">
-        <v>130.2875823974609</v>
+        <v>130.2606048583984</v>
       </c>
       <c r="H60" t="n">
-        <v>43.87096405029297</v>
+        <v>43.56915283203125</v>
       </c>
       <c r="I60" t="n">
-        <v>6.957258224487305</v>
+        <v>8.278282165527344</v>
       </c>
       <c r="J60" t="n">
-        <v>69.91234588623047</v>
+        <v>72.84242248535156</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>59.34611390594659</v>
       </c>
       <c r="G61" t="n">
-        <v>137.2480163574219</v>
+        <v>133.9217376708984</v>
       </c>
       <c r="H61" t="n">
-        <v>49.38990020751953</v>
+        <v>44.74214553833008</v>
       </c>
       <c r="I61" t="n">
-        <v>9.341388702392578</v>
+        <v>12.04985427856445</v>
       </c>
       <c r="J61" t="n">
-        <v>73.66724395751953</v>
+        <v>72.98344421386719</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>59.33493295870724</v>
       </c>
       <c r="G62" t="n">
-        <v>146.1892547607422</v>
+        <v>147.5439758300781</v>
       </c>
       <c r="H62" t="n">
-        <v>48.11802291870117</v>
+        <v>48.50856399536133</v>
       </c>
       <c r="I62" t="n">
-        <v>28.27016639709473</v>
+        <v>25.61062431335449</v>
       </c>
       <c r="J62" t="n">
-        <v>73.41249084472656</v>
+        <v>73.06233215332031</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>58.39353789451046</v>
       </c>
       <c r="G63" t="n">
-        <v>160.5817260742188</v>
+        <v>162.7243804931641</v>
       </c>
       <c r="H63" t="n">
-        <v>50.35908508300781</v>
+        <v>48.3487663269043</v>
       </c>
       <c r="I63" t="n">
-        <v>54.55911254882812</v>
+        <v>60.53898620605469</v>
       </c>
       <c r="J63" t="n">
-        <v>72.79022216796875</v>
+        <v>69.89661407470703</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>57.3323684814925</v>
       </c>
       <c r="G64" t="n">
-        <v>214.9434661865234</v>
+        <v>214.6970520019531</v>
       </c>
       <c r="H64" t="n">
-        <v>60.31703186035156</v>
+        <v>61.85392379760742</v>
       </c>
       <c r="I64" t="n">
-        <v>91.46907043457031</v>
+        <v>86.473876953125</v>
       </c>
       <c r="J64" t="n">
-        <v>69.20306396484375</v>
+        <v>70.13346862792969</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>54.83283250514894</v>
       </c>
       <c r="G65" t="n">
-        <v>365.5272827148438</v>
+        <v>368.4985046386719</v>
       </c>
       <c r="H65" t="n">
-        <v>91.06299591064453</v>
+        <v>89.38214874267578</v>
       </c>
       <c r="I65" t="n">
-        <v>192.6848754882812</v>
+        <v>198.7316131591797</v>
       </c>
       <c r="J65" t="n">
-        <v>112.0466766357422</v>
+        <v>118.2054748535156</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>66.18771861830042</v>
       </c>
       <c r="G66" t="n">
-        <v>142.1047973632812</v>
+        <v>143.4063415527344</v>
       </c>
       <c r="H66" t="n">
-        <v>50.87128448486328</v>
+        <v>52.12337112426758</v>
       </c>
       <c r="I66" t="n">
-        <v>-74.58790588378906</v>
+        <v>-78.58720397949219</v>
       </c>
       <c r="J66" t="n">
-        <v>96.39224243164062</v>
+        <v>96.08399200439453</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>66.85471859160208</v>
       </c>
       <c r="G67" t="n">
-        <v>148.9499664306641</v>
+        <v>148.0455017089844</v>
       </c>
       <c r="H67" t="n">
-        <v>55.70447158813477</v>
+        <v>53.4160041809082</v>
       </c>
       <c r="I67" t="n">
-        <v>-81.52153015136719</v>
+        <v>-82.21925354003906</v>
       </c>
       <c r="J67" t="n">
-        <v>93.85363006591797</v>
+        <v>97.96135711669922</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>66.29608309198557</v>
       </c>
       <c r="G68" t="n">
-        <v>161.6739501953125</v>
+        <v>162.4930267333984</v>
       </c>
       <c r="H68" t="n">
-        <v>56.0628547668457</v>
+        <v>58.49009704589844</v>
       </c>
       <c r="I68" t="n">
-        <v>-63.8649787902832</v>
+        <v>-67.55498504638672</v>
       </c>
       <c r="J68" t="n">
-        <v>97.47396850585938</v>
+        <v>98.17704772949219</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>65.32452373485688</v>
       </c>
       <c r="G69" t="n">
-        <v>173.0026397705078</v>
+        <v>174.1641540527344</v>
       </c>
       <c r="H69" t="n">
-        <v>57.04682540893555</v>
+        <v>57.73551559448242</v>
       </c>
       <c r="I69" t="n">
-        <v>-46.53838729858398</v>
+        <v>-47.32904815673828</v>
       </c>
       <c r="J69" t="n">
-        <v>94.17930603027344</v>
+        <v>95.22385406494141</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>63.37031159981304</v>
       </c>
       <c r="G70" t="n">
-        <v>219.8818511962891</v>
+        <v>220.8656005859375</v>
       </c>
       <c r="H70" t="n">
-        <v>68.28086853027344</v>
+        <v>69.17617034912109</v>
       </c>
       <c r="I70" t="n">
-        <v>-4.289230346679688</v>
+        <v>-4.726147651672363</v>
       </c>
       <c r="J70" t="n">
-        <v>90.87980651855469</v>
+        <v>88.48066711425781</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_XAI_NoEng_gelu.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_XAI_NoEng_gelu.xlsx
@@ -505,16 +505,16 @@
         <v>14.31699359657089</v>
       </c>
       <c r="G2" t="n">
-        <v>147.3134918212891</v>
+        <v>150.7562561035156</v>
       </c>
       <c r="H2" t="n">
-        <v>51.4043083190918</v>
+        <v>58.95837020874023</v>
       </c>
       <c r="I2" t="n">
-        <v>846.2786865234375</v>
+        <v>851.498779296875</v>
       </c>
       <c r="J2" t="n">
-        <v>72.81692504882812</v>
+        <v>75.68781280517578</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>15.27891067420843</v>
       </c>
       <c r="G3" t="n">
-        <v>173.7303161621094</v>
+        <v>181.6512298583984</v>
       </c>
       <c r="H3" t="n">
-        <v>85.65614318847656</v>
+        <v>84.97158050537109</v>
       </c>
       <c r="I3" t="n">
-        <v>830.8510131835938</v>
+        <v>826.6787109375</v>
       </c>
       <c r="J3" t="n">
-        <v>73.60026550292969</v>
+        <v>81.00357818603516</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>15.85974020072816</v>
       </c>
       <c r="G4" t="n">
-        <v>215.0057525634766</v>
+        <v>231.2272186279297</v>
       </c>
       <c r="H4" t="n">
-        <v>123.6320724487305</v>
+        <v>123.6174087524414</v>
       </c>
       <c r="I4" t="n">
-        <v>834.0624389648438</v>
+        <v>815.532470703125</v>
       </c>
       <c r="J4" t="n">
-        <v>75.65878295898438</v>
+        <v>82.32550048828125</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>16.6254486072678</v>
       </c>
       <c r="G5" t="n">
-        <v>298.882568359375</v>
+        <v>313.9715576171875</v>
       </c>
       <c r="H5" t="n">
-        <v>178.2715454101562</v>
+        <v>169.5841217041016</v>
       </c>
       <c r="I5" t="n">
-        <v>826.40771484375</v>
+        <v>801.6494140625</v>
       </c>
       <c r="J5" t="n">
-        <v>82.03400421142578</v>
+        <v>91.48741912841797</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>16.72168606967666</v>
       </c>
       <c r="G6" t="n">
-        <v>388.2305603027344</v>
+        <v>419.0986022949219</v>
       </c>
       <c r="H6" t="n">
-        <v>202.6036834716797</v>
+        <v>204.5778503417969</v>
       </c>
       <c r="I6" t="n">
-        <v>817.1577758789062</v>
+        <v>796.5389404296875</v>
       </c>
       <c r="J6" t="n">
-        <v>86.88610076904297</v>
+        <v>87.35361480712891</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>17.58023045110392</v>
       </c>
       <c r="G7" t="n">
-        <v>145.0956420898438</v>
+        <v>147.7870178222656</v>
       </c>
       <c r="H7" t="n">
-        <v>41.96388626098633</v>
+        <v>43.19954299926758</v>
       </c>
       <c r="I7" t="n">
-        <v>921.1748046875</v>
+        <v>956.7232055664062</v>
       </c>
       <c r="J7" t="n">
-        <v>75.97544860839844</v>
+        <v>79.17250061035156</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>18.57818076528054</v>
       </c>
       <c r="G8" t="n">
-        <v>143.4688568115234</v>
+        <v>144.3178405761719</v>
       </c>
       <c r="H8" t="n">
-        <v>40.1140022277832</v>
+        <v>43.89316177368164</v>
       </c>
       <c r="I8" t="n">
-        <v>914.992919921875</v>
+        <v>942.8837280273438</v>
       </c>
       <c r="J8" t="n">
-        <v>68.07709503173828</v>
+        <v>71.85812377929688</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>19.60838259075554</v>
       </c>
       <c r="G9" t="n">
-        <v>148.6356048583984</v>
+        <v>153.0315856933594</v>
       </c>
       <c r="H9" t="n">
-        <v>44.08806610107422</v>
+        <v>50.9815673828125</v>
       </c>
       <c r="I9" t="n">
-        <v>891.1923217773438</v>
+        <v>896.9171752929688</v>
       </c>
       <c r="J9" t="n">
-        <v>68.44514465332031</v>
+        <v>74.19818878173828</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>20.10500298210745</v>
       </c>
       <c r="G10" t="n">
-        <v>170.0724945068359</v>
+        <v>174.7290191650391</v>
       </c>
       <c r="H10" t="n">
-        <v>62.2004508972168</v>
+        <v>67.67024993896484</v>
       </c>
       <c r="I10" t="n">
-        <v>871.3523559570312</v>
+        <v>866.01904296875</v>
       </c>
       <c r="J10" t="n">
-        <v>72.48417663574219</v>
+        <v>76.1275634765625</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>20.82282672295324</v>
       </c>
       <c r="G11" t="n">
-        <v>222.5913238525391</v>
+        <v>246.0079650878906</v>
       </c>
       <c r="H11" t="n">
-        <v>111.4014205932617</v>
+        <v>118.4544448852539</v>
       </c>
       <c r="I11" t="n">
-        <v>857.2838745117188</v>
+        <v>840.3037719726562</v>
       </c>
       <c r="J11" t="n">
-        <v>76.53772735595703</v>
+        <v>80.82902526855469</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>21.05931589769223</v>
       </c>
       <c r="G12" t="n">
-        <v>331.0445251464844</v>
+        <v>368.0164184570312</v>
       </c>
       <c r="H12" t="n">
-        <v>172.8124542236328</v>
+        <v>171.5966949462891</v>
       </c>
       <c r="I12" t="n">
-        <v>851.9188232421875</v>
+        <v>837.7222900390625</v>
       </c>
       <c r="J12" t="n">
-        <v>80.51786041259766</v>
+        <v>82.73551177978516</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>21.38449445236935</v>
       </c>
       <c r="G13" t="n">
-        <v>496.4963073730469</v>
+        <v>529.8782958984375</v>
       </c>
       <c r="H13" t="n">
-        <v>202.8359985351562</v>
+        <v>193.1595458984375</v>
       </c>
       <c r="I13" t="n">
-        <v>844.5579833984375</v>
+        <v>830.3479614257812</v>
       </c>
       <c r="J13" t="n">
-        <v>93.48576354980469</v>
+        <v>85.67128753662109</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>19.79697020692051</v>
       </c>
       <c r="G14" t="n">
-        <v>136.0694427490234</v>
+        <v>137.2180023193359</v>
       </c>
       <c r="H14" t="n">
-        <v>45.13218688964844</v>
+        <v>46.08690643310547</v>
       </c>
       <c r="I14" t="n">
-        <v>691.7765502929688</v>
+        <v>678.1243286132812</v>
       </c>
       <c r="J14" t="n">
-        <v>115.5261459350586</v>
+        <v>111.9259490966797</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>21.48203443327129</v>
       </c>
       <c r="G15" t="n">
-        <v>141.8453063964844</v>
+        <v>140.3166046142578</v>
       </c>
       <c r="H15" t="n">
-        <v>43.0170783996582</v>
+        <v>45.03542327880859</v>
       </c>
       <c r="I15" t="n">
-        <v>957.72216796875</v>
+        <v>956.703125</v>
       </c>
       <c r="J15" t="n">
-        <v>75.73393249511719</v>
+        <v>77.50835418701172</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>22.47631622738632</v>
       </c>
       <c r="G16" t="n">
-        <v>144.0997161865234</v>
+        <v>145.2695465087891</v>
       </c>
       <c r="H16" t="n">
-        <v>40.52370452880859</v>
+        <v>43.34598159790039</v>
       </c>
       <c r="I16" t="n">
-        <v>956.3129272460938</v>
+        <v>979.1463623046875</v>
       </c>
       <c r="J16" t="n">
-        <v>79.17270660400391</v>
+        <v>77.28846740722656</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>24.35763244318183</v>
       </c>
       <c r="G17" t="n">
-        <v>147.0063018798828</v>
+        <v>152.5384521484375</v>
       </c>
       <c r="H17" t="n">
-        <v>39.72169494628906</v>
+        <v>44.59222793579102</v>
       </c>
       <c r="I17" t="n">
-        <v>969.4708251953125</v>
+        <v>1004.542602539062</v>
       </c>
       <c r="J17" t="n">
-        <v>80.48421478271484</v>
+        <v>82.37187194824219</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>25.62064236797445</v>
       </c>
       <c r="G18" t="n">
-        <v>161.1901550292969</v>
+        <v>164.0350799560547</v>
       </c>
       <c r="H18" t="n">
-        <v>45.80680084228516</v>
+        <v>50.6006965637207</v>
       </c>
       <c r="I18" t="n">
-        <v>935.3638305664062</v>
+        <v>959.2859497070312</v>
       </c>
       <c r="J18" t="n">
-        <v>81.81899261474609</v>
+        <v>83.89913177490234</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>25.92967709475499</v>
       </c>
       <c r="G19" t="n">
-        <v>196.4524230957031</v>
+        <v>210.4133911132812</v>
       </c>
       <c r="H19" t="n">
-        <v>61.58781433105469</v>
+        <v>72.12112426757812</v>
       </c>
       <c r="I19" t="n">
-        <v>909.8294677734375</v>
+        <v>918.4187622070312</v>
       </c>
       <c r="J19" t="n">
-        <v>82.15946197509766</v>
+        <v>85.07447052001953</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>26.19588155013293</v>
       </c>
       <c r="G20" t="n">
-        <v>280.7164611816406</v>
+        <v>300.9067077636719</v>
       </c>
       <c r="H20" t="n">
-        <v>128.5687103271484</v>
+        <v>123.1409378051758</v>
       </c>
       <c r="I20" t="n">
-        <v>891.992919921875</v>
+        <v>884.9584350585938</v>
       </c>
       <c r="J20" t="n">
-        <v>84.64911651611328</v>
+        <v>87.15737152099609</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>25.87267490890685</v>
       </c>
       <c r="G21" t="n">
-        <v>472.4528198242188</v>
+        <v>492.9677124023438</v>
       </c>
       <c r="H21" t="n">
-        <v>195.0982055664062</v>
+        <v>175.5816802978516</v>
       </c>
       <c r="I21" t="n">
-        <v>872.7318725585938</v>
+        <v>880.501220703125</v>
       </c>
       <c r="J21" t="n">
-        <v>87.7364501953125</v>
+        <v>90.65618133544922</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>24.64055238634836</v>
       </c>
       <c r="G22" t="n">
-        <v>692.2981567382812</v>
+        <v>719.0442504882812</v>
       </c>
       <c r="H22" t="n">
-        <v>150.0234375</v>
+        <v>124.8156127929688</v>
       </c>
       <c r="I22" t="n">
-        <v>841.7146606445312</v>
+        <v>867.155029296875</v>
       </c>
       <c r="J22" t="n">
-        <v>104.2079391479492</v>
+        <v>88.48210906982422</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>24.69862396067251</v>
       </c>
       <c r="G23" t="n">
-        <v>127.5964736938477</v>
+        <v>128.2640533447266</v>
       </c>
       <c r="H23" t="n">
-        <v>43.34627532958984</v>
+        <v>48.42810821533203</v>
       </c>
       <c r="I23" t="n">
-        <v>294.8854064941406</v>
+        <v>288.8916015625</v>
       </c>
       <c r="J23" t="n">
-        <v>115.4799652099609</v>
+        <v>105.8629760742188</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>27.11629087610016</v>
       </c>
       <c r="G24" t="n">
-        <v>133.84130859375</v>
+        <v>130.4945220947266</v>
       </c>
       <c r="H24" t="n">
-        <v>41.34669494628906</v>
+        <v>47.0039176940918</v>
       </c>
       <c r="I24" t="n">
-        <v>514.4278564453125</v>
+        <v>514.9951171875</v>
       </c>
       <c r="J24" t="n">
-        <v>134.6304931640625</v>
+        <v>126.2389297485352</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>28.97995691733995</v>
       </c>
       <c r="G25" t="n">
-        <v>135.6402282714844</v>
+        <v>133.9769744873047</v>
       </c>
       <c r="H25" t="n">
-        <v>42.93122863769531</v>
+        <v>44.50820922851562</v>
       </c>
       <c r="I25" t="n">
-        <v>882.255615234375</v>
+        <v>865.5550537109375</v>
       </c>
       <c r="J25" t="n">
-        <v>101.3525924682617</v>
+        <v>97.47311401367188</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>30.34265377319738</v>
       </c>
       <c r="G26" t="n">
-        <v>142.19677734375</v>
+        <v>144.7712097167969</v>
       </c>
       <c r="H26" t="n">
-        <v>41.4493408203125</v>
+        <v>42.76467514038086</v>
       </c>
       <c r="I26" t="n">
-        <v>992.4754028320312</v>
+        <v>994.7939453125</v>
       </c>
       <c r="J26" t="n">
-        <v>81.04598999023438</v>
+        <v>87.19029235839844</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>31.86528713449996</v>
       </c>
       <c r="G27" t="n">
-        <v>152.8760223388672</v>
+        <v>154.9172821044922</v>
       </c>
       <c r="H27" t="n">
-        <v>40.74967193603516</v>
+        <v>45.37823486328125</v>
       </c>
       <c r="I27" t="n">
-        <v>984.6132202148438</v>
+        <v>988.4002075195312</v>
       </c>
       <c r="J27" t="n">
-        <v>71.86890411376953</v>
+        <v>81.24342346191406</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>31.70139237157215</v>
       </c>
       <c r="G28" t="n">
-        <v>189.4626159667969</v>
+        <v>189.0771026611328</v>
       </c>
       <c r="H28" t="n">
-        <v>45.8731689453125</v>
+        <v>52.76124572753906</v>
       </c>
       <c r="I28" t="n">
-        <v>940.7079467773438</v>
+        <v>956.3710327148438</v>
       </c>
       <c r="J28" t="n">
-        <v>81.97933959960938</v>
+        <v>88.43708038330078</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>31.7420363140709</v>
       </c>
       <c r="G29" t="n">
-        <v>253.3281707763672</v>
+        <v>247.2638092041016</v>
       </c>
       <c r="H29" t="n">
-        <v>69.76166534423828</v>
+        <v>70.31779479980469</v>
       </c>
       <c r="I29" t="n">
-        <v>910.897216796875</v>
+        <v>925.87158203125</v>
       </c>
       <c r="J29" t="n">
-        <v>83.00984954833984</v>
+        <v>95.30222320556641</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>30.76237588603813</v>
       </c>
       <c r="G30" t="n">
-        <v>417.0925903320312</v>
+        <v>416.2287292480469</v>
       </c>
       <c r="H30" t="n">
-        <v>167.1170806884766</v>
+        <v>132.0111541748047</v>
       </c>
       <c r="I30" t="n">
-        <v>885.075927734375</v>
+        <v>903.7730102539062</v>
       </c>
       <c r="J30" t="n">
-        <v>85.67630767822266</v>
+        <v>97.57067108154297</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>29.73442789455431</v>
       </c>
       <c r="G31" t="n">
-        <v>682.1337890625</v>
+        <v>713.1907348632812</v>
       </c>
       <c r="H31" t="n">
-        <v>134.1263122558594</v>
+        <v>98.75059509277344</v>
       </c>
       <c r="I31" t="n">
-        <v>861.2587280273438</v>
+        <v>893.2992553710938</v>
       </c>
       <c r="J31" t="n">
-        <v>96.36048126220703</v>
+        <v>93.15264129638672</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>30.37782838567884</v>
       </c>
       <c r="G32" t="n">
-        <v>122.6096496582031</v>
+        <v>126.4876327514648</v>
       </c>
       <c r="H32" t="n">
-        <v>43.07453155517578</v>
+        <v>48.28274536132812</v>
       </c>
       <c r="I32" t="n">
-        <v>126.7284240722656</v>
+        <v>115.2781677246094</v>
       </c>
       <c r="J32" t="n">
-        <v>63.77021026611328</v>
+        <v>59.91042327880859</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>33.11659379389907</v>
       </c>
       <c r="G33" t="n">
-        <v>126.6862335205078</v>
+        <v>127.3716278076172</v>
       </c>
       <c r="H33" t="n">
-        <v>42.52042388916016</v>
+        <v>46.87796783447266</v>
       </c>
       <c r="I33" t="n">
-        <v>208.3720092773438</v>
+        <v>204.7904663085938</v>
       </c>
       <c r="J33" t="n">
-        <v>84.15712738037109</v>
+        <v>91.37222290039062</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>35.40504769440309</v>
       </c>
       <c r="G34" t="n">
-        <v>130.4527282714844</v>
+        <v>132.9215393066406</v>
       </c>
       <c r="H34" t="n">
-        <v>42.39874649047852</v>
+        <v>47.30910873413086</v>
       </c>
       <c r="I34" t="n">
-        <v>369.8421020507812</v>
+        <v>379.2449340820312</v>
       </c>
       <c r="J34" t="n">
-        <v>125.0204772949219</v>
+        <v>134.3170928955078</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>37.57764389518124</v>
       </c>
       <c r="G35" t="n">
-        <v>137.9445495605469</v>
+        <v>140.2923126220703</v>
       </c>
       <c r="H35" t="n">
-        <v>41.01408767700195</v>
+        <v>44.88105773925781</v>
       </c>
       <c r="I35" t="n">
-        <v>543.8513793945312</v>
+        <v>545.6422119140625</v>
       </c>
       <c r="J35" t="n">
-        <v>137.6838836669922</v>
+        <v>131.9600982666016</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>38.09115608907656</v>
       </c>
       <c r="G36" t="n">
-        <v>150.5005493164062</v>
+        <v>153.2094879150391</v>
       </c>
       <c r="H36" t="n">
-        <v>45.02827072143555</v>
+        <v>44.06613540649414</v>
       </c>
       <c r="I36" t="n">
-        <v>810.8200073242188</v>
+        <v>788.9035034179688</v>
       </c>
       <c r="J36" t="n">
-        <v>117.5586318969727</v>
+        <v>111.6303863525391</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>38.33579750611559</v>
       </c>
       <c r="G37" t="n">
-        <v>174.4922637939453</v>
+        <v>176.1017761230469</v>
       </c>
       <c r="H37" t="n">
-        <v>42.94939804077148</v>
+        <v>48.45371246337891</v>
       </c>
       <c r="I37" t="n">
-        <v>840.5673217773438</v>
+        <v>816.8412475585938</v>
       </c>
       <c r="J37" t="n">
-        <v>106.6945190429688</v>
+        <v>99.30535125732422</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>37.89528654115976</v>
       </c>
       <c r="G38" t="n">
-        <v>254.0594787597656</v>
+        <v>240.9118194580078</v>
       </c>
       <c r="H38" t="n">
-        <v>53.68472290039062</v>
+        <v>61.51450729370117</v>
       </c>
       <c r="I38" t="n">
-        <v>856.7330932617188</v>
+        <v>845.4280395507812</v>
       </c>
       <c r="J38" t="n">
-        <v>101.50732421875</v>
+        <v>83.90161895751953</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>37.04916938976096</v>
       </c>
       <c r="G39" t="n">
-        <v>385.125244140625</v>
+        <v>357.9283752441406</v>
       </c>
       <c r="H39" t="n">
-        <v>115.0356063842773</v>
+        <v>75.39970397949219</v>
       </c>
       <c r="I39" t="n">
-        <v>863.7417602539062</v>
+        <v>845.4818115234375</v>
       </c>
       <c r="J39" t="n">
-        <v>99.33565521240234</v>
+        <v>95.37149047851562</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>35.00856026880581</v>
       </c>
       <c r="G40" t="n">
-        <v>651.1542358398438</v>
+        <v>645.9308471679688</v>
       </c>
       <c r="H40" t="n">
-        <v>117.4506530761719</v>
+        <v>89.05467987060547</v>
       </c>
       <c r="I40" t="n">
-        <v>834.8343505859375</v>
+        <v>861.3916625976562</v>
       </c>
       <c r="J40" t="n">
-        <v>118.6020278930664</v>
+        <v>106.9923706054688</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>37.58863922492247</v>
       </c>
       <c r="G41" t="n">
-        <v>118.704833984375</v>
+        <v>122.9799118041992</v>
       </c>
       <c r="H41" t="n">
-        <v>41.87212753295898</v>
+        <v>48.84039688110352</v>
       </c>
       <c r="I41" t="n">
-        <v>90.14450836181641</v>
+        <v>88.92882537841797</v>
       </c>
       <c r="J41" t="n">
-        <v>47.81303024291992</v>
+        <v>48.82400131225586</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>40.4685427958547</v>
       </c>
       <c r="G42" t="n">
-        <v>122.0380325317383</v>
+        <v>124.2605743408203</v>
       </c>
       <c r="H42" t="n">
-        <v>42.22575759887695</v>
+        <v>46.67475509643555</v>
       </c>
       <c r="I42" t="n">
-        <v>118.6486968994141</v>
+        <v>112.8031539916992</v>
       </c>
       <c r="J42" t="n">
-        <v>52.03339004516602</v>
+        <v>56.45903015136719</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>42.41365999634309</v>
       </c>
       <c r="G43" t="n">
-        <v>127.5992584228516</v>
+        <v>128.4355773925781</v>
       </c>
       <c r="H43" t="n">
-        <v>42.08295822143555</v>
+        <v>45.83042526245117</v>
       </c>
       <c r="I43" t="n">
-        <v>148.8814849853516</v>
+        <v>143.6402435302734</v>
       </c>
       <c r="J43" t="n">
-        <v>63.24309921264648</v>
+        <v>67.33505249023438</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>44.05056700894834</v>
       </c>
       <c r="G44" t="n">
-        <v>132.3735198974609</v>
+        <v>136.5813140869141</v>
       </c>
       <c r="H44" t="n">
-        <v>42.52240371704102</v>
+        <v>46.56356430053711</v>
       </c>
       <c r="I44" t="n">
-        <v>241.1004486083984</v>
+        <v>250.1990051269531</v>
       </c>
       <c r="J44" t="n">
-        <v>88.8206787109375</v>
+        <v>99.41529083251953</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>45.28527361475503</v>
       </c>
       <c r="G45" t="n">
-        <v>140.5900726318359</v>
+        <v>145.0755615234375</v>
       </c>
       <c r="H45" t="n">
-        <v>42.54275512695312</v>
+        <v>46.91273498535156</v>
       </c>
       <c r="I45" t="n">
-        <v>317.1603088378906</v>
+        <v>325.6467590332031</v>
       </c>
       <c r="J45" t="n">
-        <v>100.2096328735352</v>
+        <v>102.4728775024414</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>45.11415223222625</v>
       </c>
       <c r="G46" t="n">
-        <v>161.013671875</v>
+        <v>168.4065246582031</v>
       </c>
       <c r="H46" t="n">
-        <v>46.58514022827148</v>
+        <v>48.52220153808594</v>
       </c>
       <c r="I46" t="n">
-        <v>460.4764709472656</v>
+        <v>443.4329223632812</v>
       </c>
       <c r="J46" t="n">
-        <v>124.3080291748047</v>
+        <v>105.4048080444336</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>44.97584185956661</v>
       </c>
       <c r="G47" t="n">
-        <v>235.6342468261719</v>
+        <v>234.4092712402344</v>
       </c>
       <c r="H47" t="n">
-        <v>55.09334945678711</v>
+        <v>57.32511138916016</v>
       </c>
       <c r="I47" t="n">
-        <v>623.0406494140625</v>
+        <v>560.8301391601562</v>
       </c>
       <c r="J47" t="n">
-        <v>141.1039581298828</v>
+        <v>112.6457214355469</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>42.0865253634753</v>
       </c>
       <c r="G48" t="n">
-        <v>397.5009765625</v>
+        <v>367.7967834472656</v>
       </c>
       <c r="H48" t="n">
-        <v>93.812255859375</v>
+        <v>66.50312042236328</v>
       </c>
       <c r="I48" t="n">
-        <v>750.7655639648438</v>
+        <v>694.4225463867188</v>
       </c>
       <c r="J48" t="n">
-        <v>155.3658294677734</v>
+        <v>119.3267974853516</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>40.81585186348995</v>
       </c>
       <c r="G49" t="n">
-        <v>604.0592041015625</v>
+        <v>581.5136108398438</v>
       </c>
       <c r="H49" t="n">
-        <v>102.689323425293</v>
+        <v>85.03093719482422</v>
       </c>
       <c r="I49" t="n">
-        <v>769.3588256835938</v>
+        <v>762.7754516601562</v>
       </c>
       <c r="J49" t="n">
-        <v>177.7659606933594</v>
+        <v>129.8067321777344</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>45.37200448015243</v>
       </c>
       <c r="G50" t="n">
-        <v>119.8964462280273</v>
+        <v>125.5109786987305</v>
       </c>
       <c r="H50" t="n">
-        <v>42.23719787597656</v>
+        <v>45.8613166809082</v>
       </c>
       <c r="I50" t="n">
-        <v>64.24758148193359</v>
+        <v>65.44828796386719</v>
       </c>
       <c r="J50" t="n">
-        <v>48.84241485595703</v>
+        <v>48.17567443847656</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>48.78786662406539</v>
       </c>
       <c r="G51" t="n">
-        <v>124.0627059936523</v>
+        <v>129.4133605957031</v>
       </c>
       <c r="H51" t="n">
-        <v>43.25187683105469</v>
+        <v>47.09209442138672</v>
       </c>
       <c r="I51" t="n">
-        <v>72.25334930419922</v>
+        <v>71.96527099609375</v>
       </c>
       <c r="J51" t="n">
-        <v>49.15372085571289</v>
+        <v>53.32472610473633</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>50.73675625671652</v>
       </c>
       <c r="G52" t="n">
-        <v>128.3204650878906</v>
+        <v>132.0719757080078</v>
       </c>
       <c r="H52" t="n">
-        <v>42.99404144287109</v>
+        <v>47.08910369873047</v>
       </c>
       <c r="I52" t="n">
-        <v>74.44168853759766</v>
+        <v>79.93547058105469</v>
       </c>
       <c r="J52" t="n">
-        <v>53.08675384521484</v>
+        <v>58.94411468505859</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>51.96609868449762</v>
       </c>
       <c r="G53" t="n">
-        <v>133.0397033691406</v>
+        <v>137.3498229980469</v>
       </c>
       <c r="H53" t="n">
-        <v>40.98529434204102</v>
+        <v>46.19064712524414</v>
       </c>
       <c r="I53" t="n">
-        <v>95.59740447998047</v>
+        <v>104.1187362670898</v>
       </c>
       <c r="J53" t="n">
-        <v>58.55212783813477</v>
+        <v>63.4249267578125</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>52.45736467440484</v>
       </c>
       <c r="G54" t="n">
-        <v>144.6273651123047</v>
+        <v>148.4214782714844</v>
       </c>
       <c r="H54" t="n">
-        <v>45.04403686523438</v>
+        <v>46.35231399536133</v>
       </c>
       <c r="I54" t="n">
-        <v>128.7677612304688</v>
+        <v>140.5579376220703</v>
       </c>
       <c r="J54" t="n">
-        <v>62.15475463867188</v>
+        <v>66.93186950683594</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>51.85220057025387</v>
       </c>
       <c r="G55" t="n">
-        <v>162.7377014160156</v>
+        <v>168.3838500976562</v>
       </c>
       <c r="H55" t="n">
-        <v>46.47867202758789</v>
+        <v>49.96591186523438</v>
       </c>
       <c r="I55" t="n">
-        <v>191.2337951660156</v>
+        <v>190.2906799316406</v>
       </c>
       <c r="J55" t="n">
-        <v>75.14169311523438</v>
+        <v>71.29535675048828</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>51.37276147532685</v>
       </c>
       <c r="G56" t="n">
-        <v>220.3497161865234</v>
+        <v>215.9739532470703</v>
       </c>
       <c r="H56" t="n">
-        <v>57.54563903808594</v>
+        <v>53.29225921630859</v>
       </c>
       <c r="I56" t="n">
-        <v>251.9340667724609</v>
+        <v>227.6396026611328</v>
       </c>
       <c r="J56" t="n">
-        <v>95.08740234375</v>
+        <v>90.52890777587891</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>49.881475732815</v>
       </c>
       <c r="G57" t="n">
-        <v>364.9620666503906</v>
+        <v>333.3231506347656</v>
       </c>
       <c r="H57" t="n">
-        <v>81.56732940673828</v>
+        <v>71.39571380615234</v>
       </c>
       <c r="I57" t="n">
-        <v>446.7222900390625</v>
+        <v>361.0154418945312</v>
       </c>
       <c r="J57" t="n">
-        <v>172.7254791259766</v>
+        <v>132.0053253173828</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>46.147295090649</v>
       </c>
       <c r="G58" t="n">
-        <v>595.333740234375</v>
+        <v>570.29736328125</v>
       </c>
       <c r="H58" t="n">
-        <v>92.23464202880859</v>
+        <v>79.72398376464844</v>
       </c>
       <c r="I58" t="n">
-        <v>600.2254638671875</v>
+        <v>511.3144226074219</v>
       </c>
       <c r="J58" t="n">
-        <v>225.7740936279297</v>
+        <v>193.4808959960938</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>56.70921047332411</v>
       </c>
       <c r="G59" t="n">
-        <v>126.5781631469727</v>
+        <v>131.86474609375</v>
       </c>
       <c r="H59" t="n">
-        <v>44.17761611938477</v>
+        <v>47.52119064331055</v>
       </c>
       <c r="I59" t="n">
-        <v>12.98061752319336</v>
+        <v>16.44809913635254</v>
       </c>
       <c r="J59" t="n">
-        <v>67.54948425292969</v>
+        <v>64.6629638671875</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>58.23723423416003</v>
       </c>
       <c r="G60" t="n">
-        <v>130.2606048583984</v>
+        <v>135.1572723388672</v>
       </c>
       <c r="H60" t="n">
-        <v>43.56915283203125</v>
+        <v>47.77816772460938</v>
       </c>
       <c r="I60" t="n">
-        <v>8.278282165527344</v>
+        <v>12.22252082824707</v>
       </c>
       <c r="J60" t="n">
-        <v>72.84242248535156</v>
+        <v>68.49691009521484</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>59.34611390594659</v>
       </c>
       <c r="G61" t="n">
-        <v>133.9217376708984</v>
+        <v>142.3881225585938</v>
       </c>
       <c r="H61" t="n">
-        <v>44.74214553833008</v>
+        <v>48.73509979248047</v>
       </c>
       <c r="I61" t="n">
-        <v>12.04985427856445</v>
+        <v>20.94815826416016</v>
       </c>
       <c r="J61" t="n">
-        <v>72.98344421386719</v>
+        <v>69.03221893310547</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>59.33493295870724</v>
       </c>
       <c r="G62" t="n">
-        <v>147.5439758300781</v>
+        <v>148.8115997314453</v>
       </c>
       <c r="H62" t="n">
-        <v>48.50856399536133</v>
+        <v>48.56045913696289</v>
       </c>
       <c r="I62" t="n">
-        <v>25.61062431335449</v>
+        <v>33.7932014465332</v>
       </c>
       <c r="J62" t="n">
-        <v>73.06233215332031</v>
+        <v>75.65750885009766</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>58.39353789451046</v>
       </c>
       <c r="G63" t="n">
-        <v>162.7243804931641</v>
+        <v>164.2004852294922</v>
       </c>
       <c r="H63" t="n">
-        <v>48.3487663269043</v>
+        <v>49.93153762817383</v>
       </c>
       <c r="I63" t="n">
-        <v>60.53898620605469</v>
+        <v>72.85247802734375</v>
       </c>
       <c r="J63" t="n">
-        <v>69.89661407470703</v>
+        <v>75.02554321289062</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>57.3323684814925</v>
       </c>
       <c r="G64" t="n">
-        <v>214.6970520019531</v>
+        <v>213.9578247070312</v>
       </c>
       <c r="H64" t="n">
-        <v>61.85392379760742</v>
+        <v>53.20011138916016</v>
       </c>
       <c r="I64" t="n">
-        <v>86.473876953125</v>
+        <v>93.43208312988281</v>
       </c>
       <c r="J64" t="n">
-        <v>70.13346862792969</v>
+        <v>79.3004150390625</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>54.83283250514894</v>
       </c>
       <c r="G65" t="n">
-        <v>368.4985046386719</v>
+        <v>331.5963439941406</v>
       </c>
       <c r="H65" t="n">
-        <v>89.38214874267578</v>
+        <v>73.81941986083984</v>
       </c>
       <c r="I65" t="n">
-        <v>198.7316131591797</v>
+        <v>150.5421142578125</v>
       </c>
       <c r="J65" t="n">
-        <v>118.2054748535156</v>
+        <v>96.73868560791016</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>66.18771861830042</v>
       </c>
       <c r="G66" t="n">
-        <v>143.4063415527344</v>
+        <v>145.9401550292969</v>
       </c>
       <c r="H66" t="n">
-        <v>52.12337112426758</v>
+        <v>50.41950988769531</v>
       </c>
       <c r="I66" t="n">
-        <v>-78.58720397949219</v>
+        <v>-87.68460845947266</v>
       </c>
       <c r="J66" t="n">
-        <v>96.08399200439453</v>
+        <v>85.46437835693359</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>66.85471859160208</v>
       </c>
       <c r="G67" t="n">
-        <v>148.0455017089844</v>
+        <v>153.2752685546875</v>
       </c>
       <c r="H67" t="n">
-        <v>53.4160041809082</v>
+        <v>51.81072616577148</v>
       </c>
       <c r="I67" t="n">
-        <v>-82.21925354003906</v>
+        <v>-90.02127075195312</v>
       </c>
       <c r="J67" t="n">
-        <v>97.96135711669922</v>
+        <v>85.28736877441406</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>66.29608309198557</v>
       </c>
       <c r="G68" t="n">
-        <v>162.4930267333984</v>
+        <v>166.1808013916016</v>
       </c>
       <c r="H68" t="n">
-        <v>58.49009704589844</v>
+        <v>52.54871368408203</v>
       </c>
       <c r="I68" t="n">
-        <v>-67.55498504638672</v>
+        <v>-69.44273376464844</v>
       </c>
       <c r="J68" t="n">
-        <v>98.17704772949219</v>
+        <v>84.14638519287109</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>65.32452373485688</v>
       </c>
       <c r="G69" t="n">
-        <v>174.1641540527344</v>
+        <v>175.2221374511719</v>
       </c>
       <c r="H69" t="n">
-        <v>57.73551559448242</v>
+        <v>53.61499404907227</v>
       </c>
       <c r="I69" t="n">
-        <v>-47.32904815673828</v>
+        <v>-45.04795837402344</v>
       </c>
       <c r="J69" t="n">
-        <v>95.22385406494141</v>
+        <v>82.25240325927734</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>63.37031159981304</v>
       </c>
       <c r="G70" t="n">
-        <v>220.8656005859375</v>
+        <v>215.9044342041016</v>
       </c>
       <c r="H70" t="n">
-        <v>69.17617034912109</v>
+        <v>61.19146728515625</v>
       </c>
       <c r="I70" t="n">
-        <v>-4.726147651672363</v>
+        <v>1.218762636184692</v>
       </c>
       <c r="J70" t="n">
-        <v>88.48066711425781</v>
+        <v>84.86772155761719</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_XAI_NoEng_gelu.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_XAI_NoEng_gelu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J70"/>
+  <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,20 +466,25 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>microstructure</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>H1_new_pred_KFold_mean</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>H1_new_pred_KFold_std</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>C2_new_pred_KFold_mean</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>C2_new_pred_KFold_std</t>
         </is>
@@ -504,17 +509,22 @@
       <c r="F2" t="n">
         <v>14.31699359657089</v>
       </c>
-      <c r="G2" t="n">
-        <v>150.7562561035156</v>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H2" t="n">
-        <v>58.95837020874023</v>
+        <v>132.7516632080078</v>
       </c>
       <c r="I2" t="n">
-        <v>851.498779296875</v>
+        <v>30.09280014038086</v>
       </c>
       <c r="J2" t="n">
-        <v>75.68781280517578</v>
+        <v>899.8428344726562</v>
+      </c>
+      <c r="K2" t="n">
+        <v>64.01188659667969</v>
       </c>
     </row>
     <row r="3">
@@ -536,17 +546,22 @@
       <c r="F3" t="n">
         <v>15.27891067420843</v>
       </c>
-      <c r="G3" t="n">
-        <v>181.6512298583984</v>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H3" t="n">
-        <v>84.97158050537109</v>
+        <v>138.0072479248047</v>
       </c>
       <c r="I3" t="n">
-        <v>826.6787109375</v>
+        <v>36.41318511962891</v>
       </c>
       <c r="J3" t="n">
-        <v>81.00357818603516</v>
+        <v>896.3847045898438</v>
+      </c>
+      <c r="K3" t="n">
+        <v>65.25138854980469</v>
       </c>
     </row>
     <row r="4">
@@ -568,17 +583,22 @@
       <c r="F4" t="n">
         <v>15.85974020072816</v>
       </c>
-      <c r="G4" t="n">
-        <v>231.2272186279297</v>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H4" t="n">
-        <v>123.6174087524414</v>
+        <v>146.1006164550781</v>
       </c>
       <c r="I4" t="n">
-        <v>815.532470703125</v>
+        <v>43.47254943847656</v>
       </c>
       <c r="J4" t="n">
-        <v>82.32550048828125</v>
+        <v>884.9121704101562</v>
+      </c>
+      <c r="K4" t="n">
+        <v>67.18325042724609</v>
       </c>
     </row>
     <row r="5">
@@ -600,17 +620,22 @@
       <c r="F5" t="n">
         <v>16.6254486072678</v>
       </c>
-      <c r="G5" t="n">
-        <v>313.9715576171875</v>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H5" t="n">
-        <v>169.5841217041016</v>
+        <v>176.1267395019531</v>
       </c>
       <c r="I5" t="n">
-        <v>801.6494140625</v>
+        <v>81.61910247802734</v>
       </c>
       <c r="J5" t="n">
-        <v>91.48741912841797</v>
+        <v>872.5809326171875</v>
+      </c>
+      <c r="K5" t="n">
+        <v>78.52456665039062</v>
       </c>
     </row>
     <row r="6">
@@ -632,17 +657,22 @@
       <c r="F6" t="n">
         <v>16.72168606967666</v>
       </c>
-      <c r="G6" t="n">
-        <v>419.0986022949219</v>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H6" t="n">
-        <v>204.5778503417969</v>
+        <v>223.6603851318359</v>
       </c>
       <c r="I6" t="n">
-        <v>796.5389404296875</v>
+        <v>112.0640869140625</v>
       </c>
       <c r="J6" t="n">
-        <v>87.35361480712891</v>
+        <v>856.9312744140625</v>
+      </c>
+      <c r="K6" t="n">
+        <v>88.63768768310547</v>
       </c>
     </row>
     <row r="7">
@@ -664,17 +694,22 @@
       <c r="F7" t="n">
         <v>17.58023045110392</v>
       </c>
-      <c r="G7" t="n">
-        <v>147.7870178222656</v>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H7" t="n">
-        <v>43.19954299926758</v>
+        <v>123.6276016235352</v>
       </c>
       <c r="I7" t="n">
-        <v>956.7232055664062</v>
+        <v>27.98010444641113</v>
       </c>
       <c r="J7" t="n">
-        <v>79.17250061035156</v>
+        <v>919.4453125</v>
+      </c>
+      <c r="K7" t="n">
+        <v>78.12130737304688</v>
       </c>
     </row>
     <row r="8">
@@ -696,17 +731,22 @@
       <c r="F8" t="n">
         <v>18.57818076528054</v>
       </c>
-      <c r="G8" t="n">
-        <v>144.3178405761719</v>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H8" t="n">
-        <v>43.89316177368164</v>
+        <v>129.4764251708984</v>
       </c>
       <c r="I8" t="n">
-        <v>942.8837280273438</v>
+        <v>26.67643356323242</v>
       </c>
       <c r="J8" t="n">
-        <v>71.85812377929688</v>
+        <v>921.266357421875</v>
+      </c>
+      <c r="K8" t="n">
+        <v>64.58298492431641</v>
       </c>
     </row>
     <row r="9">
@@ -728,17 +768,22 @@
       <c r="F9" t="n">
         <v>19.60838259075554</v>
       </c>
-      <c r="G9" t="n">
-        <v>153.0315856933594</v>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H9" t="n">
-        <v>50.9815673828125</v>
+        <v>133.2617645263672</v>
       </c>
       <c r="I9" t="n">
-        <v>896.9171752929688</v>
+        <v>28.04089736938477</v>
       </c>
       <c r="J9" t="n">
-        <v>74.19818878173828</v>
+        <v>918.4172973632812</v>
+      </c>
+      <c r="K9" t="n">
+        <v>63.05910110473633</v>
       </c>
     </row>
     <row r="10">
@@ -760,17 +805,22 @@
       <c r="F10" t="n">
         <v>20.10500298210745</v>
       </c>
-      <c r="G10" t="n">
-        <v>174.7290191650391</v>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H10" t="n">
-        <v>67.67024993896484</v>
+        <v>139.1052093505859</v>
       </c>
       <c r="I10" t="n">
-        <v>866.01904296875</v>
+        <v>30.57964515686035</v>
       </c>
       <c r="J10" t="n">
-        <v>76.1275634765625</v>
+        <v>910.3598022460938</v>
+      </c>
+      <c r="K10" t="n">
+        <v>66.90056610107422</v>
       </c>
     </row>
     <row r="11">
@@ -792,17 +842,22 @@
       <c r="F11" t="n">
         <v>20.82282672295324</v>
       </c>
-      <c r="G11" t="n">
-        <v>246.0079650878906</v>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H11" t="n">
-        <v>118.4544448852539</v>
+        <v>153.4749755859375</v>
       </c>
       <c r="I11" t="n">
-        <v>840.3037719726562</v>
+        <v>41.16610336303711</v>
       </c>
       <c r="J11" t="n">
-        <v>80.82902526855469</v>
+        <v>894.2271118164062</v>
+      </c>
+      <c r="K11" t="n">
+        <v>75.89907836914062</v>
       </c>
     </row>
     <row r="12">
@@ -824,17 +879,22 @@
       <c r="F12" t="n">
         <v>21.05931589769223</v>
       </c>
-      <c r="G12" t="n">
-        <v>368.0164184570312</v>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H12" t="n">
-        <v>171.5966949462891</v>
+        <v>194.6514739990234</v>
       </c>
       <c r="I12" t="n">
-        <v>837.7222900390625</v>
+        <v>76.74190521240234</v>
       </c>
       <c r="J12" t="n">
-        <v>82.73551177978516</v>
+        <v>883.4666748046875</v>
+      </c>
+      <c r="K12" t="n">
+        <v>86.39205169677734</v>
       </c>
     </row>
     <row r="13">
@@ -856,17 +916,22 @@
       <c r="F13" t="n">
         <v>21.38449445236935</v>
       </c>
-      <c r="G13" t="n">
-        <v>529.8782958984375</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H13" t="n">
-        <v>193.1595458984375</v>
+        <v>363.788818359375</v>
       </c>
       <c r="I13" t="n">
-        <v>830.3479614257812</v>
+        <v>170.6830596923828</v>
       </c>
       <c r="J13" t="n">
-        <v>85.67128753662109</v>
+        <v>856.7730712890625</v>
+      </c>
+      <c r="K13" t="n">
+        <v>105.9126663208008</v>
       </c>
     </row>
     <row r="14">
@@ -888,17 +953,22 @@
       <c r="F14" t="n">
         <v>19.79697020692051</v>
       </c>
-      <c r="G14" t="n">
-        <v>137.2180023193359</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H14" t="n">
-        <v>46.08690643310547</v>
+        <v>108.5980758666992</v>
       </c>
       <c r="I14" t="n">
-        <v>678.1243286132812</v>
+        <v>29.07526397705078</v>
       </c>
       <c r="J14" t="n">
-        <v>111.9259490966797</v>
+        <v>678.8839721679688</v>
+      </c>
+      <c r="K14" t="n">
+        <v>105.5758285522461</v>
       </c>
     </row>
     <row r="15">
@@ -920,17 +990,22 @@
       <c r="F15" t="n">
         <v>21.48203443327129</v>
       </c>
-      <c r="G15" t="n">
-        <v>140.3166046142578</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H15" t="n">
-        <v>45.03542327880859</v>
+        <v>116.6733703613281</v>
       </c>
       <c r="I15" t="n">
-        <v>956.703125</v>
+        <v>27.71849250793457</v>
       </c>
       <c r="J15" t="n">
-        <v>77.50835418701172</v>
+        <v>948.6486206054688</v>
+      </c>
+      <c r="K15" t="n">
+        <v>81.70309448242188</v>
       </c>
     </row>
     <row r="16">
@@ -952,17 +1027,22 @@
       <c r="F16" t="n">
         <v>22.47631622738632</v>
       </c>
-      <c r="G16" t="n">
-        <v>145.2695465087891</v>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H16" t="n">
-        <v>43.34598159790039</v>
+        <v>129.7086944580078</v>
       </c>
       <c r="I16" t="n">
-        <v>979.1463623046875</v>
+        <v>28.56482887268066</v>
       </c>
       <c r="J16" t="n">
-        <v>77.28846740722656</v>
+        <v>948.9513549804688</v>
+      </c>
+      <c r="K16" t="n">
+        <v>80.10918426513672</v>
       </c>
     </row>
     <row r="17">
@@ -984,17 +1064,22 @@
       <c r="F17" t="n">
         <v>24.35763244318183</v>
       </c>
-      <c r="G17" t="n">
-        <v>152.5384521484375</v>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H17" t="n">
-        <v>44.59222793579102</v>
+        <v>132.5489196777344</v>
       </c>
       <c r="I17" t="n">
-        <v>1004.542602539062</v>
+        <v>27.55052375793457</v>
       </c>
       <c r="J17" t="n">
-        <v>82.37187194824219</v>
+        <v>963.1298828125</v>
+      </c>
+      <c r="K17" t="n">
+        <v>79.22113800048828</v>
       </c>
     </row>
     <row r="18">
@@ -1016,17 +1101,22 @@
       <c r="F18" t="n">
         <v>25.62064236797445</v>
       </c>
-      <c r="G18" t="n">
-        <v>164.0350799560547</v>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H18" t="n">
-        <v>50.6006965637207</v>
+        <v>140.3816223144531</v>
       </c>
       <c r="I18" t="n">
-        <v>959.2859497070312</v>
+        <v>28.90084648132324</v>
       </c>
       <c r="J18" t="n">
-        <v>83.89913177490234</v>
+        <v>931.0286254882812</v>
+      </c>
+      <c r="K18" t="n">
+        <v>73.573974609375</v>
       </c>
     </row>
     <row r="19">
@@ -1048,17 +1138,22 @@
       <c r="F19" t="n">
         <v>25.92967709475499</v>
       </c>
-      <c r="G19" t="n">
-        <v>210.4133911132812</v>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H19" t="n">
-        <v>72.12112426757812</v>
+        <v>156.9765014648438</v>
       </c>
       <c r="I19" t="n">
-        <v>918.4187622070312</v>
+        <v>31.44463539123535</v>
       </c>
       <c r="J19" t="n">
-        <v>85.07447052001953</v>
+        <v>912.4363403320312</v>
+      </c>
+      <c r="K19" t="n">
+        <v>76.823486328125</v>
       </c>
     </row>
     <row r="20">
@@ -1080,17 +1175,22 @@
       <c r="F20" t="n">
         <v>26.19588155013293</v>
       </c>
-      <c r="G20" t="n">
-        <v>300.9067077636719</v>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H20" t="n">
-        <v>123.1409378051758</v>
+        <v>189.7733306884766</v>
       </c>
       <c r="I20" t="n">
-        <v>884.9584350585938</v>
+        <v>52.24503707885742</v>
       </c>
       <c r="J20" t="n">
-        <v>87.15737152099609</v>
+        <v>890.0787353515625</v>
+      </c>
+      <c r="K20" t="n">
+        <v>83.58729553222656</v>
       </c>
     </row>
     <row r="21">
@@ -1112,17 +1212,22 @@
       <c r="F21" t="n">
         <v>25.87267490890685</v>
       </c>
-      <c r="G21" t="n">
-        <v>492.9677124023438</v>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H21" t="n">
-        <v>175.5816802978516</v>
+        <v>360.8326110839844</v>
       </c>
       <c r="I21" t="n">
-        <v>880.501220703125</v>
+        <v>166.1663360595703</v>
       </c>
       <c r="J21" t="n">
-        <v>90.65618133544922</v>
+        <v>875.0208129882812</v>
+      </c>
+      <c r="K21" t="n">
+        <v>94.64749908447266</v>
       </c>
     </row>
     <row r="22">
@@ -1144,17 +1249,22 @@
       <c r="F22" t="n">
         <v>24.64055238634836</v>
       </c>
-      <c r="G22" t="n">
-        <v>719.0442504882812</v>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H22" t="n">
-        <v>124.8156127929688</v>
+        <v>664.8116455078125</v>
       </c>
       <c r="I22" t="n">
-        <v>867.155029296875</v>
+        <v>162.5532684326172</v>
       </c>
       <c r="J22" t="n">
-        <v>88.48210906982422</v>
+        <v>851.3209228515625</v>
+      </c>
+      <c r="K22" t="n">
+        <v>119.8458404541016</v>
       </c>
     </row>
     <row r="23">
@@ -1176,17 +1286,22 @@
       <c r="F23" t="n">
         <v>24.69862396067251</v>
       </c>
-      <c r="G23" t="n">
-        <v>128.2640533447266</v>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H23" t="n">
-        <v>48.42810821533203</v>
+        <v>105.4941940307617</v>
       </c>
       <c r="I23" t="n">
-        <v>288.8916015625</v>
+        <v>29.44518280029297</v>
       </c>
       <c r="J23" t="n">
-        <v>105.8629760742188</v>
+        <v>301.7247314453125</v>
+      </c>
+      <c r="K23" t="n">
+        <v>130.4696655273438</v>
       </c>
     </row>
     <row r="24">
@@ -1208,17 +1323,22 @@
       <c r="F24" t="n">
         <v>27.11629087610016</v>
       </c>
-      <c r="G24" t="n">
-        <v>130.4945220947266</v>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H24" t="n">
-        <v>47.0039176940918</v>
+        <v>108.3030624389648</v>
       </c>
       <c r="I24" t="n">
-        <v>514.9951171875</v>
+        <v>30.36781692504883</v>
       </c>
       <c r="J24" t="n">
-        <v>126.2389297485352</v>
+        <v>520.927490234375</v>
+      </c>
+      <c r="K24" t="n">
+        <v>150.4464721679688</v>
       </c>
     </row>
     <row r="25">
@@ -1240,17 +1360,22 @@
       <c r="F25" t="n">
         <v>28.97995691733995</v>
       </c>
-      <c r="G25" t="n">
-        <v>133.9769744873047</v>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H25" t="n">
-        <v>44.50820922851562</v>
+        <v>116.0568771362305</v>
       </c>
       <c r="I25" t="n">
-        <v>865.5550537109375</v>
+        <v>29.38672637939453</v>
       </c>
       <c r="J25" t="n">
-        <v>97.47311401367188</v>
+        <v>886.7137451171875</v>
+      </c>
+      <c r="K25" t="n">
+        <v>106.3876647949219</v>
       </c>
     </row>
     <row r="26">
@@ -1272,17 +1397,22 @@
       <c r="F26" t="n">
         <v>30.34265377319738</v>
       </c>
-      <c r="G26" t="n">
-        <v>144.7712097167969</v>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H26" t="n">
-        <v>42.76467514038086</v>
+        <v>126.1066436767578</v>
       </c>
       <c r="I26" t="n">
-        <v>994.7939453125</v>
+        <v>27.4973316192627</v>
       </c>
       <c r="J26" t="n">
-        <v>87.19029235839844</v>
+        <v>994.42822265625</v>
+      </c>
+      <c r="K26" t="n">
+        <v>81.99148559570312</v>
       </c>
     </row>
     <row r="27">
@@ -1304,17 +1434,22 @@
       <c r="F27" t="n">
         <v>31.86528713449996</v>
       </c>
-      <c r="G27" t="n">
-        <v>154.9172821044922</v>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H27" t="n">
-        <v>45.37823486328125</v>
+        <v>140.1078033447266</v>
       </c>
       <c r="I27" t="n">
-        <v>988.4002075195312</v>
+        <v>27.59749984741211</v>
       </c>
       <c r="J27" t="n">
-        <v>81.24342346191406</v>
+        <v>977.1171875</v>
+      </c>
+      <c r="K27" t="n">
+        <v>79.35917663574219</v>
       </c>
     </row>
     <row r="28">
@@ -1336,17 +1471,22 @@
       <c r="F28" t="n">
         <v>31.70139237157215</v>
       </c>
-      <c r="G28" t="n">
-        <v>189.0771026611328</v>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H28" t="n">
-        <v>52.76124572753906</v>
+        <v>161.8509368896484</v>
       </c>
       <c r="I28" t="n">
-        <v>956.3710327148438</v>
+        <v>29.18559265136719</v>
       </c>
       <c r="J28" t="n">
-        <v>88.43708038330078</v>
+        <v>924.8093872070312</v>
+      </c>
+      <c r="K28" t="n">
+        <v>81.67784118652344</v>
       </c>
     </row>
     <row r="29">
@@ -1368,17 +1508,22 @@
       <c r="F29" t="n">
         <v>31.7420363140709</v>
       </c>
-      <c r="G29" t="n">
-        <v>247.2638092041016</v>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H29" t="n">
-        <v>70.31779479980469</v>
+        <v>196.4479217529297</v>
       </c>
       <c r="I29" t="n">
-        <v>925.87158203125</v>
+        <v>39.63937377929688</v>
       </c>
       <c r="J29" t="n">
-        <v>95.30222320556641</v>
+        <v>900.2416381835938</v>
+      </c>
+      <c r="K29" t="n">
+        <v>90.79045104980469</v>
       </c>
     </row>
     <row r="30">
@@ -1400,17 +1545,22 @@
       <c r="F30" t="n">
         <v>30.76237588603813</v>
       </c>
-      <c r="G30" t="n">
-        <v>416.2287292480469</v>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H30" t="n">
-        <v>132.0111541748047</v>
+        <v>345.0030212402344</v>
       </c>
       <c r="I30" t="n">
-        <v>903.7730102539062</v>
+        <v>131.5926666259766</v>
       </c>
       <c r="J30" t="n">
-        <v>97.57067108154297</v>
+        <v>878.0314331054688</v>
+      </c>
+      <c r="K30" t="n">
+        <v>103.861701965332</v>
       </c>
     </row>
     <row r="31">
@@ -1432,17 +1582,22 @@
       <c r="F31" t="n">
         <v>29.73442789455431</v>
       </c>
-      <c r="G31" t="n">
-        <v>713.1907348632812</v>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H31" t="n">
-        <v>98.75059509277344</v>
+        <v>673.375</v>
       </c>
       <c r="I31" t="n">
-        <v>893.2992553710938</v>
+        <v>152.2634887695312</v>
       </c>
       <c r="J31" t="n">
-        <v>93.15264129638672</v>
+        <v>863.0712890625</v>
+      </c>
+      <c r="K31" t="n">
+        <v>126.085334777832</v>
       </c>
     </row>
     <row r="32">
@@ -1464,17 +1619,22 @@
       <c r="F32" t="n">
         <v>30.37782838567884</v>
       </c>
-      <c r="G32" t="n">
-        <v>126.4876327514648</v>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H32" t="n">
-        <v>48.28274536132812</v>
+        <v>103.0726013183594</v>
       </c>
       <c r="I32" t="n">
-        <v>115.2781677246094</v>
+        <v>29.95111656188965</v>
       </c>
       <c r="J32" t="n">
-        <v>59.91042327880859</v>
+        <v>126.9015350341797</v>
+      </c>
+      <c r="K32" t="n">
+        <v>71.09116363525391</v>
       </c>
     </row>
     <row r="33">
@@ -1496,17 +1656,22 @@
       <c r="F33" t="n">
         <v>33.11659379389907</v>
       </c>
-      <c r="G33" t="n">
-        <v>127.3716278076172</v>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H33" t="n">
-        <v>46.87796783447266</v>
+        <v>105.6884994506836</v>
       </c>
       <c r="I33" t="n">
-        <v>204.7904663085938</v>
+        <v>30.06499862670898</v>
       </c>
       <c r="J33" t="n">
-        <v>91.37222290039062</v>
+        <v>216.3145751953125</v>
+      </c>
+      <c r="K33" t="n">
+        <v>102.7000350952148</v>
       </c>
     </row>
     <row r="34">
@@ -1528,17 +1693,22 @@
       <c r="F34" t="n">
         <v>35.40504769440309</v>
       </c>
-      <c r="G34" t="n">
-        <v>132.9215393066406</v>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H34" t="n">
-        <v>47.30910873413086</v>
+        <v>111.5176849365234</v>
       </c>
       <c r="I34" t="n">
-        <v>379.2449340820312</v>
+        <v>29.31244850158691</v>
       </c>
       <c r="J34" t="n">
-        <v>134.3170928955078</v>
+        <v>393.0624084472656</v>
+      </c>
+      <c r="K34" t="n">
+        <v>152.1198120117188</v>
       </c>
     </row>
     <row r="35">
@@ -1560,17 +1730,22 @@
       <c r="F35" t="n">
         <v>37.57764389518124</v>
       </c>
-      <c r="G35" t="n">
-        <v>140.2923126220703</v>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H35" t="n">
-        <v>44.88105773925781</v>
+        <v>120.19921875</v>
       </c>
       <c r="I35" t="n">
-        <v>545.6422119140625</v>
+        <v>28.75679016113281</v>
       </c>
       <c r="J35" t="n">
-        <v>131.9600982666016</v>
+        <v>537.9586181640625</v>
+      </c>
+      <c r="K35" t="n">
+        <v>150.7614135742188</v>
       </c>
     </row>
     <row r="36">
@@ -1592,17 +1767,22 @@
       <c r="F36" t="n">
         <v>38.09115608907656</v>
       </c>
-      <c r="G36" t="n">
-        <v>153.2094879150391</v>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H36" t="n">
-        <v>44.06613540649414</v>
+        <v>137.4815216064453</v>
       </c>
       <c r="I36" t="n">
-        <v>788.9035034179688</v>
+        <v>28.71689224243164</v>
       </c>
       <c r="J36" t="n">
-        <v>111.6303863525391</v>
+        <v>786.61474609375</v>
+      </c>
+      <c r="K36" t="n">
+        <v>131.8921051025391</v>
       </c>
     </row>
     <row r="37">
@@ -1624,17 +1804,22 @@
       <c r="F37" t="n">
         <v>38.33579750611559</v>
       </c>
-      <c r="G37" t="n">
-        <v>176.1017761230469</v>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H37" t="n">
-        <v>48.45371246337891</v>
+        <v>156.3718566894531</v>
       </c>
       <c r="I37" t="n">
-        <v>816.8412475585938</v>
+        <v>30.11879730224609</v>
       </c>
       <c r="J37" t="n">
-        <v>99.30535125732422</v>
+        <v>809.501953125</v>
+      </c>
+      <c r="K37" t="n">
+        <v>127.38720703125</v>
       </c>
     </row>
     <row r="38">
@@ -1656,17 +1841,22 @@
       <c r="F38" t="n">
         <v>37.89528654115976</v>
       </c>
-      <c r="G38" t="n">
-        <v>240.9118194580078</v>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H38" t="n">
-        <v>61.51450729370117</v>
+        <v>203.2673187255859</v>
       </c>
       <c r="I38" t="n">
-        <v>845.4280395507812</v>
+        <v>37.68796539306641</v>
       </c>
       <c r="J38" t="n">
-        <v>83.90161895751953</v>
+        <v>832.8383178710938</v>
+      </c>
+      <c r="K38" t="n">
+        <v>126.8470687866211</v>
       </c>
     </row>
     <row r="39">
@@ -1688,17 +1878,22 @@
       <c r="F39" t="n">
         <v>37.04916938976096</v>
       </c>
-      <c r="G39" t="n">
-        <v>357.9283752441406</v>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H39" t="n">
-        <v>75.39970397949219</v>
+        <v>322.3850708007812</v>
       </c>
       <c r="I39" t="n">
-        <v>845.4818115234375</v>
+        <v>85.70372772216797</v>
       </c>
       <c r="J39" t="n">
-        <v>95.37149047851562</v>
+        <v>835.6294555664062</v>
+      </c>
+      <c r="K39" t="n">
+        <v>139.7924041748047</v>
       </c>
     </row>
     <row r="40">
@@ -1720,17 +1915,22 @@
       <c r="F40" t="n">
         <v>35.00856026880581</v>
       </c>
-      <c r="G40" t="n">
-        <v>645.9308471679688</v>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H40" t="n">
-        <v>89.05467987060547</v>
+        <v>644.0044555664062</v>
       </c>
       <c r="I40" t="n">
-        <v>861.3916625976562</v>
+        <v>146.4580078125</v>
       </c>
       <c r="J40" t="n">
-        <v>106.9923706054688</v>
+        <v>839.2011108398438</v>
+      </c>
+      <c r="K40" t="n">
+        <v>156.7636108398438</v>
       </c>
     </row>
     <row r="41">
@@ -1752,17 +1952,22 @@
       <c r="F41" t="n">
         <v>37.58863922492247</v>
       </c>
-      <c r="G41" t="n">
-        <v>122.9799118041992</v>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H41" t="n">
-        <v>48.84039688110352</v>
+        <v>104.8979339599609</v>
       </c>
       <c r="I41" t="n">
-        <v>88.92882537841797</v>
+        <v>30.08039283752441</v>
       </c>
       <c r="J41" t="n">
-        <v>48.82400131225586</v>
+        <v>91.37703704833984</v>
+      </c>
+      <c r="K41" t="n">
+        <v>48.44962310791016</v>
       </c>
     </row>
     <row r="42">
@@ -1784,17 +1989,22 @@
       <c r="F42" t="n">
         <v>40.4685427958547</v>
       </c>
-      <c r="G42" t="n">
-        <v>124.2605743408203</v>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H42" t="n">
-        <v>46.67475509643555</v>
+        <v>106.1420745849609</v>
       </c>
       <c r="I42" t="n">
-        <v>112.8031539916992</v>
+        <v>28.86479949951172</v>
       </c>
       <c r="J42" t="n">
-        <v>56.45903015136719</v>
+        <v>116.0534515380859</v>
+      </c>
+      <c r="K42" t="n">
+        <v>54.39841079711914</v>
       </c>
     </row>
     <row r="43">
@@ -1816,17 +2026,22 @@
       <c r="F43" t="n">
         <v>42.41365999634309</v>
       </c>
-      <c r="G43" t="n">
-        <v>128.4355773925781</v>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H43" t="n">
-        <v>45.83042526245117</v>
+        <v>108.2906341552734</v>
       </c>
       <c r="I43" t="n">
-        <v>143.6402435302734</v>
+        <v>28.82157325744629</v>
       </c>
       <c r="J43" t="n">
-        <v>67.33505249023438</v>
+        <v>145.5316467285156</v>
+      </c>
+      <c r="K43" t="n">
+        <v>64.02462005615234</v>
       </c>
     </row>
     <row r="44">
@@ -1848,17 +2063,22 @@
       <c r="F44" t="n">
         <v>44.05056700894834</v>
       </c>
-      <c r="G44" t="n">
-        <v>136.5813140869141</v>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H44" t="n">
-        <v>46.56356430053711</v>
+        <v>118.9777069091797</v>
       </c>
       <c r="I44" t="n">
-        <v>250.1990051269531</v>
+        <v>28.59119033813477</v>
       </c>
       <c r="J44" t="n">
-        <v>99.41529083251953</v>
+        <v>250.1577911376953</v>
+      </c>
+      <c r="K44" t="n">
+        <v>102.5186080932617</v>
       </c>
     </row>
     <row r="45">
@@ -1880,17 +2100,22 @@
       <c r="F45" t="n">
         <v>45.28527361475503</v>
       </c>
-      <c r="G45" t="n">
-        <v>145.0755615234375</v>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H45" t="n">
-        <v>46.91273498535156</v>
+        <v>129.5500030517578</v>
       </c>
       <c r="I45" t="n">
-        <v>325.6467590332031</v>
+        <v>30.36458396911621</v>
       </c>
       <c r="J45" t="n">
-        <v>102.4728775024414</v>
+        <v>310.4930725097656</v>
+      </c>
+      <c r="K45" t="n">
+        <v>113.3947143554688</v>
       </c>
     </row>
     <row r="46">
@@ -1912,17 +2137,22 @@
       <c r="F46" t="n">
         <v>45.11415223222625</v>
       </c>
-      <c r="G46" t="n">
-        <v>168.4065246582031</v>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H46" t="n">
-        <v>48.52220153808594</v>
+        <v>149.9640655517578</v>
       </c>
       <c r="I46" t="n">
-        <v>443.4329223632812</v>
+        <v>30.83417510986328</v>
       </c>
       <c r="J46" t="n">
-        <v>105.4048080444336</v>
+        <v>428.5660400390625</v>
+      </c>
+      <c r="K46" t="n">
+        <v>132.1841430664062</v>
       </c>
     </row>
     <row r="47">
@@ -1944,17 +2174,22 @@
       <c r="F47" t="n">
         <v>44.97584185956661</v>
       </c>
-      <c r="G47" t="n">
-        <v>234.4092712402344</v>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H47" t="n">
-        <v>57.32511138916016</v>
+        <v>193.4425048828125</v>
       </c>
       <c r="I47" t="n">
-        <v>560.8301391601562</v>
+        <v>36.92324829101562</v>
       </c>
       <c r="J47" t="n">
-        <v>112.6457214355469</v>
+        <v>558.5647583007812</v>
+      </c>
+      <c r="K47" t="n">
+        <v>156.5456390380859</v>
       </c>
     </row>
     <row r="48">
@@ -1976,17 +2211,22 @@
       <c r="F48" t="n">
         <v>42.0865253634753</v>
       </c>
-      <c r="G48" t="n">
-        <v>367.7967834472656</v>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H48" t="n">
-        <v>66.50312042236328</v>
+        <v>323.7908020019531</v>
       </c>
       <c r="I48" t="n">
-        <v>694.4225463867188</v>
+        <v>80.07075500488281</v>
       </c>
       <c r="J48" t="n">
-        <v>119.3267974853516</v>
+        <v>711.4838256835938</v>
+      </c>
+      <c r="K48" t="n">
+        <v>164.3793640136719</v>
       </c>
     </row>
     <row r="49">
@@ -2008,17 +2248,22 @@
       <c r="F49" t="n">
         <v>40.81585186348995</v>
       </c>
-      <c r="G49" t="n">
-        <v>581.5136108398438</v>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H49" t="n">
-        <v>85.03093719482422</v>
+        <v>591.6934204101562</v>
       </c>
       <c r="I49" t="n">
-        <v>762.7754516601562</v>
+        <v>132.115966796875</v>
       </c>
       <c r="J49" t="n">
-        <v>129.8067321777344</v>
+        <v>760.6249389648438</v>
+      </c>
+      <c r="K49" t="n">
+        <v>181.8099365234375</v>
       </c>
     </row>
     <row r="50">
@@ -2040,17 +2285,22 @@
       <c r="F50" t="n">
         <v>45.37200448015243</v>
       </c>
-      <c r="G50" t="n">
-        <v>125.5109786987305</v>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H50" t="n">
-        <v>45.8613166809082</v>
+        <v>104.3350219726562</v>
       </c>
       <c r="I50" t="n">
-        <v>65.44828796386719</v>
+        <v>28.15256690979004</v>
       </c>
       <c r="J50" t="n">
-        <v>48.17567443847656</v>
+        <v>63.41995620727539</v>
+      </c>
+      <c r="K50" t="n">
+        <v>42.82213592529297</v>
       </c>
     </row>
     <row r="51">
@@ -2072,17 +2322,22 @@
       <c r="F51" t="n">
         <v>48.78786662406539</v>
       </c>
-      <c r="G51" t="n">
-        <v>129.4133605957031</v>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H51" t="n">
-        <v>47.09209442138672</v>
+        <v>109.4122619628906</v>
       </c>
       <c r="I51" t="n">
-        <v>71.96527099609375</v>
+        <v>29.4576244354248</v>
       </c>
       <c r="J51" t="n">
-        <v>53.32472610473633</v>
+        <v>70.90947723388672</v>
+      </c>
+      <c r="K51" t="n">
+        <v>48.72262191772461</v>
       </c>
     </row>
     <row r="52">
@@ -2104,17 +2359,22 @@
       <c r="F52" t="n">
         <v>50.73675625671652</v>
       </c>
-      <c r="G52" t="n">
-        <v>132.0719757080078</v>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H52" t="n">
-        <v>47.08910369873047</v>
+        <v>110.3135299682617</v>
       </c>
       <c r="I52" t="n">
-        <v>79.93547058105469</v>
+        <v>29.64988327026367</v>
       </c>
       <c r="J52" t="n">
-        <v>58.94411468505859</v>
+        <v>76.6322021484375</v>
+      </c>
+      <c r="K52" t="n">
+        <v>48.63680648803711</v>
       </c>
     </row>
     <row r="53">
@@ -2136,17 +2396,22 @@
       <c r="F53" t="n">
         <v>51.96609868449762</v>
       </c>
-      <c r="G53" t="n">
-        <v>137.3498229980469</v>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H53" t="n">
-        <v>46.19064712524414</v>
+        <v>118.6725540161133</v>
       </c>
       <c r="I53" t="n">
-        <v>104.1187362670898</v>
+        <v>31.09557723999023</v>
       </c>
       <c r="J53" t="n">
-        <v>63.4249267578125</v>
+        <v>102.9081344604492</v>
+      </c>
+      <c r="K53" t="n">
+        <v>57.16233062744141</v>
       </c>
     </row>
     <row r="54">
@@ -2168,17 +2433,22 @@
       <c r="F54" t="n">
         <v>52.45736467440484</v>
       </c>
-      <c r="G54" t="n">
-        <v>148.4214782714844</v>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H54" t="n">
-        <v>46.35231399536133</v>
+        <v>129.1624145507812</v>
       </c>
       <c r="I54" t="n">
-        <v>140.5579376220703</v>
+        <v>30.10563850402832</v>
       </c>
       <c r="J54" t="n">
-        <v>66.93186950683594</v>
+        <v>129.6229705810547</v>
+      </c>
+      <c r="K54" t="n">
+        <v>63.79744720458984</v>
       </c>
     </row>
     <row r="55">
@@ -2200,17 +2470,22 @@
       <c r="F55" t="n">
         <v>51.85220057025387</v>
       </c>
-      <c r="G55" t="n">
-        <v>168.3838500976562</v>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H55" t="n">
-        <v>49.96591186523438</v>
+        <v>147.7865142822266</v>
       </c>
       <c r="I55" t="n">
-        <v>190.2906799316406</v>
+        <v>31.81873321533203</v>
       </c>
       <c r="J55" t="n">
-        <v>71.29535675048828</v>
+        <v>187.1720886230469</v>
+      </c>
+      <c r="K55" t="n">
+        <v>70.568603515625</v>
       </c>
     </row>
     <row r="56">
@@ -2232,17 +2507,22 @@
       <c r="F56" t="n">
         <v>51.37276147532685</v>
       </c>
-      <c r="G56" t="n">
-        <v>215.9739532470703</v>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H56" t="n">
-        <v>53.29225921630859</v>
+        <v>184.8893432617188</v>
       </c>
       <c r="I56" t="n">
-        <v>227.6396026611328</v>
+        <v>37.49652099609375</v>
       </c>
       <c r="J56" t="n">
-        <v>90.52890777587891</v>
+        <v>236.97607421875</v>
+      </c>
+      <c r="K56" t="n">
+        <v>85.87973022460938</v>
       </c>
     </row>
     <row r="57">
@@ -2264,17 +2544,22 @@
       <c r="F57" t="n">
         <v>49.881475732815</v>
       </c>
-      <c r="G57" t="n">
-        <v>333.3231506347656</v>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H57" t="n">
-        <v>71.39571380615234</v>
+        <v>281.1007995605469</v>
       </c>
       <c r="I57" t="n">
-        <v>361.0154418945312</v>
+        <v>75.82206726074219</v>
       </c>
       <c r="J57" t="n">
-        <v>132.0053253173828</v>
+        <v>399.8330993652344</v>
+      </c>
+      <c r="K57" t="n">
+        <v>158.8925323486328</v>
       </c>
     </row>
     <row r="58">
@@ -2296,17 +2581,22 @@
       <c r="F58" t="n">
         <v>46.147295090649</v>
       </c>
-      <c r="G58" t="n">
-        <v>570.29736328125</v>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H58" t="n">
-        <v>79.72398376464844</v>
+        <v>583.767578125</v>
       </c>
       <c r="I58" t="n">
-        <v>511.3144226074219</v>
+        <v>125.8415145874023</v>
       </c>
       <c r="J58" t="n">
-        <v>193.4808959960938</v>
+        <v>561.4761962890625</v>
+      </c>
+      <c r="K58" t="n">
+        <v>224.6077270507812</v>
       </c>
     </row>
     <row r="59">
@@ -2328,17 +2618,22 @@
       <c r="F59" t="n">
         <v>56.70921047332411</v>
       </c>
-      <c r="G59" t="n">
-        <v>131.86474609375</v>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H59" t="n">
-        <v>47.52119064331055</v>
+        <v>110.4662780761719</v>
       </c>
       <c r="I59" t="n">
-        <v>16.44809913635254</v>
+        <v>30.81768608093262</v>
       </c>
       <c r="J59" t="n">
-        <v>64.6629638671875</v>
+        <v>16.39940643310547</v>
+      </c>
+      <c r="K59" t="n">
+        <v>63.03499221801758</v>
       </c>
     </row>
     <row r="60">
@@ -2360,17 +2655,22 @@
       <c r="F60" t="n">
         <v>58.23723423416003</v>
       </c>
-      <c r="G60" t="n">
-        <v>135.1572723388672</v>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H60" t="n">
-        <v>47.77816772460938</v>
+        <v>113.8581008911133</v>
       </c>
       <c r="I60" t="n">
-        <v>12.22252082824707</v>
+        <v>30.32932662963867</v>
       </c>
       <c r="J60" t="n">
-        <v>68.49691009521484</v>
+        <v>6.764046669006348</v>
+      </c>
+      <c r="K60" t="n">
+        <v>69.16429138183594</v>
       </c>
     </row>
     <row r="61">
@@ -2392,17 +2692,22 @@
       <c r="F61" t="n">
         <v>59.34611390594659</v>
       </c>
-      <c r="G61" t="n">
-        <v>142.3881225585938</v>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H61" t="n">
-        <v>48.73509979248047</v>
+        <v>119.3832550048828</v>
       </c>
       <c r="I61" t="n">
-        <v>20.94815826416016</v>
+        <v>31.68256187438965</v>
       </c>
       <c r="J61" t="n">
-        <v>69.03221893310547</v>
+        <v>8.701749801635742</v>
+      </c>
+      <c r="K61" t="n">
+        <v>67.27072906494141</v>
       </c>
     </row>
     <row r="62">
@@ -2424,17 +2729,22 @@
       <c r="F62" t="n">
         <v>59.33493295870724</v>
       </c>
-      <c r="G62" t="n">
-        <v>148.8115997314453</v>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H62" t="n">
-        <v>48.56045913696289</v>
+        <v>129.5691375732422</v>
       </c>
       <c r="I62" t="n">
-        <v>33.7932014465332</v>
+        <v>31.11750030517578</v>
       </c>
       <c r="J62" t="n">
-        <v>75.65750885009766</v>
+        <v>22.99368286132812</v>
+      </c>
+      <c r="K62" t="n">
+        <v>67.69381713867188</v>
       </c>
     </row>
     <row r="63">
@@ -2456,17 +2766,22 @@
       <c r="F63" t="n">
         <v>58.39353789451046</v>
       </c>
-      <c r="G63" t="n">
-        <v>164.2004852294922</v>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H63" t="n">
-        <v>49.93153762817383</v>
+        <v>144.3251495361328</v>
       </c>
       <c r="I63" t="n">
-        <v>72.85247802734375</v>
+        <v>32.97597503662109</v>
       </c>
       <c r="J63" t="n">
-        <v>75.02554321289062</v>
+        <v>55.40947341918945</v>
+      </c>
+      <c r="K63" t="n">
+        <v>72.51701354980469</v>
       </c>
     </row>
     <row r="64">
@@ -2488,17 +2803,22 @@
       <c r="F64" t="n">
         <v>57.3323684814925</v>
       </c>
-      <c r="G64" t="n">
-        <v>213.9578247070312</v>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H64" t="n">
-        <v>53.20011138916016</v>
+        <v>181.1025543212891</v>
       </c>
       <c r="I64" t="n">
-        <v>93.43208312988281</v>
+        <v>40.20402908325195</v>
       </c>
       <c r="J64" t="n">
-        <v>79.3004150390625</v>
+        <v>79.8804931640625</v>
+      </c>
+      <c r="K64" t="n">
+        <v>71.02034759521484</v>
       </c>
     </row>
     <row r="65">
@@ -2520,17 +2840,22 @@
       <c r="F65" t="n">
         <v>54.83283250514894</v>
       </c>
-      <c r="G65" t="n">
-        <v>331.5963439941406</v>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H65" t="n">
-        <v>73.81941986083984</v>
+        <v>286.5245361328125</v>
       </c>
       <c r="I65" t="n">
-        <v>150.5421142578125</v>
+        <v>85.50678253173828</v>
       </c>
       <c r="J65" t="n">
-        <v>96.73868560791016</v>
+        <v>188.9655456542969</v>
+      </c>
+      <c r="K65" t="n">
+        <v>111.621452331543</v>
       </c>
     </row>
     <row r="66">
@@ -2552,17 +2877,22 @@
       <c r="F66" t="n">
         <v>66.18771861830042</v>
       </c>
-      <c r="G66" t="n">
-        <v>145.9401550292969</v>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H66" t="n">
-        <v>50.41950988769531</v>
+        <v>123.7178802490234</v>
       </c>
       <c r="I66" t="n">
-        <v>-87.68460845947266</v>
+        <v>37.70561981201172</v>
       </c>
       <c r="J66" t="n">
-        <v>85.46437835693359</v>
+        <v>-88.91426086425781</v>
+      </c>
+      <c r="K66" t="n">
+        <v>93.67539215087891</v>
       </c>
     </row>
     <row r="67">
@@ -2584,17 +2914,22 @@
       <c r="F67" t="n">
         <v>66.85471859160208</v>
       </c>
-      <c r="G67" t="n">
-        <v>153.2752685546875</v>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H67" t="n">
-        <v>51.81072616577148</v>
+        <v>129.1122894287109</v>
       </c>
       <c r="I67" t="n">
-        <v>-90.02127075195312</v>
+        <v>36.65732574462891</v>
       </c>
       <c r="J67" t="n">
-        <v>85.28736877441406</v>
+        <v>-99.18747711181641</v>
+      </c>
+      <c r="K67" t="n">
+        <v>94.72219085693359</v>
       </c>
     </row>
     <row r="68">
@@ -2616,17 +2951,22 @@
       <c r="F68" t="n">
         <v>66.29608309198557</v>
       </c>
-      <c r="G68" t="n">
-        <v>166.1808013916016</v>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H68" t="n">
-        <v>52.54871368408203</v>
+        <v>142.4722595214844</v>
       </c>
       <c r="I68" t="n">
-        <v>-69.44273376464844</v>
+        <v>38.51214599609375</v>
       </c>
       <c r="J68" t="n">
-        <v>84.14638519287109</v>
+        <v>-89.68955230712891</v>
+      </c>
+      <c r="K68" t="n">
+        <v>93.88838195800781</v>
       </c>
     </row>
     <row r="69">
@@ -2648,17 +2988,22 @@
       <c r="F69" t="n">
         <v>65.32452373485688</v>
       </c>
-      <c r="G69" t="n">
-        <v>175.2221374511719</v>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H69" t="n">
-        <v>53.61499404907227</v>
+        <v>151.9605712890625</v>
       </c>
       <c r="I69" t="n">
-        <v>-45.04795837402344</v>
+        <v>39.16981506347656</v>
       </c>
       <c r="J69" t="n">
-        <v>82.25240325927734</v>
+        <v>-69.12423706054688</v>
+      </c>
+      <c r="K69" t="n">
+        <v>93.66404724121094</v>
       </c>
     </row>
     <row r="70">
@@ -2680,17 +3025,22 @@
       <c r="F70" t="n">
         <v>63.37031159981304</v>
       </c>
-      <c r="G70" t="n">
-        <v>215.9044342041016</v>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H70" t="n">
-        <v>61.19146728515625</v>
+        <v>182.6332702636719</v>
       </c>
       <c r="I70" t="n">
-        <v>1.218762636184692</v>
+        <v>45.24738311767578</v>
       </c>
       <c r="J70" t="n">
-        <v>84.86772155761719</v>
+        <v>-25.82101821899414</v>
+      </c>
+      <c r="K70" t="n">
+        <v>96.91233825683594</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_XAI_NoEng_gelu.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_XAI_NoEng_gelu.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -515,16 +515,16 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>132.7516632080078</v>
+        <v>132.8312377929688</v>
       </c>
       <c r="I2" t="n">
-        <v>30.09280014038086</v>
+        <v>30.97981452941895</v>
       </c>
       <c r="J2" t="n">
-        <v>899.8428344726562</v>
+        <v>899.7118530273438</v>
       </c>
       <c r="K2" t="n">
-        <v>64.01188659667969</v>
+        <v>61.73832321166992</v>
       </c>
     </row>
     <row r="3">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>138.0072479248047</v>
+        <v>138.8372955322266</v>
       </c>
       <c r="I3" t="n">
-        <v>36.41318511962891</v>
+        <v>36.43888092041016</v>
       </c>
       <c r="J3" t="n">
-        <v>896.3847045898438</v>
+        <v>896.4435424804688</v>
       </c>
       <c r="K3" t="n">
-        <v>65.25138854980469</v>
+        <v>65.33773040771484</v>
       </c>
     </row>
     <row r="4">
@@ -589,16 +589,16 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>146.1006164550781</v>
+        <v>146.7374877929688</v>
       </c>
       <c r="I4" t="n">
-        <v>43.47254943847656</v>
+        <v>45.04422378540039</v>
       </c>
       <c r="J4" t="n">
-        <v>884.9121704101562</v>
+        <v>887.9050903320312</v>
       </c>
       <c r="K4" t="n">
-        <v>67.18325042724609</v>
+        <v>67.30918884277344</v>
       </c>
     </row>
     <row r="5">
@@ -626,16 +626,16 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>176.1267395019531</v>
+        <v>169.3552551269531</v>
       </c>
       <c r="I5" t="n">
-        <v>81.61910247802734</v>
+        <v>71.56442260742188</v>
       </c>
       <c r="J5" t="n">
-        <v>872.5809326171875</v>
+        <v>874.94091796875</v>
       </c>
       <c r="K5" t="n">
-        <v>78.52456665039062</v>
+        <v>77.29609680175781</v>
       </c>
     </row>
     <row r="6">
@@ -663,16 +663,16 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>223.6603851318359</v>
+        <v>224.9162750244141</v>
       </c>
       <c r="I6" t="n">
-        <v>112.0640869140625</v>
+        <v>117.5860137939453</v>
       </c>
       <c r="J6" t="n">
-        <v>856.9312744140625</v>
+        <v>854.1257934570312</v>
       </c>
       <c r="K6" t="n">
-        <v>88.63768768310547</v>
+        <v>88.40801239013672</v>
       </c>
     </row>
     <row r="7">
@@ -700,16 +700,16 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>123.6276016235352</v>
+        <v>123.8232955932617</v>
       </c>
       <c r="I7" t="n">
-        <v>27.98010444641113</v>
+        <v>27.54319000244141</v>
       </c>
       <c r="J7" t="n">
-        <v>919.4453125</v>
+        <v>922.3565673828125</v>
       </c>
       <c r="K7" t="n">
-        <v>78.12130737304688</v>
+        <v>79.85247039794922</v>
       </c>
     </row>
     <row r="8">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>129.4764251708984</v>
+        <v>127.7058181762695</v>
       </c>
       <c r="I8" t="n">
-        <v>26.67643356323242</v>
+        <v>27.66205406188965</v>
       </c>
       <c r="J8" t="n">
-        <v>921.266357421875</v>
+        <v>923.037841796875</v>
       </c>
       <c r="K8" t="n">
-        <v>64.58298492431641</v>
+        <v>68.75083160400391</v>
       </c>
     </row>
     <row r="9">
@@ -774,16 +774,16 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>133.2617645263672</v>
+        <v>133.3597869873047</v>
       </c>
       <c r="I9" t="n">
-        <v>28.04089736938477</v>
+        <v>26.32681465148926</v>
       </c>
       <c r="J9" t="n">
-        <v>918.4172973632812</v>
+        <v>917.2619018554688</v>
       </c>
       <c r="K9" t="n">
-        <v>63.05910110473633</v>
+        <v>63.65871429443359</v>
       </c>
     </row>
     <row r="10">
@@ -811,16 +811,16 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>139.1052093505859</v>
+        <v>140.3151397705078</v>
       </c>
       <c r="I10" t="n">
-        <v>30.57964515686035</v>
+        <v>30.64908027648926</v>
       </c>
       <c r="J10" t="n">
-        <v>910.3598022460938</v>
+        <v>905.7025756835938</v>
       </c>
       <c r="K10" t="n">
-        <v>66.90056610107422</v>
+        <v>66.91011810302734</v>
       </c>
     </row>
     <row r="11">
@@ -848,16 +848,16 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>153.4749755859375</v>
+        <v>152.8399963378906</v>
       </c>
       <c r="I11" t="n">
-        <v>41.16610336303711</v>
+        <v>41.87918853759766</v>
       </c>
       <c r="J11" t="n">
-        <v>894.2271118164062</v>
+        <v>894.3453979492188</v>
       </c>
       <c r="K11" t="n">
-        <v>75.89907836914062</v>
+        <v>76.40126800537109</v>
       </c>
     </row>
     <row r="12">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>194.6514739990234</v>
+        <v>195.6869812011719</v>
       </c>
       <c r="I12" t="n">
-        <v>76.74190521240234</v>
+        <v>75.20177459716797</v>
       </c>
       <c r="J12" t="n">
-        <v>883.4666748046875</v>
+        <v>881.123779296875</v>
       </c>
       <c r="K12" t="n">
-        <v>86.39205169677734</v>
+        <v>84.66973876953125</v>
       </c>
     </row>
     <row r="13">
@@ -922,16 +922,16 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>363.788818359375</v>
+        <v>360.3662414550781</v>
       </c>
       <c r="I13" t="n">
-        <v>170.6830596923828</v>
+        <v>173.9801177978516</v>
       </c>
       <c r="J13" t="n">
-        <v>856.7730712890625</v>
+        <v>857.8031005859375</v>
       </c>
       <c r="K13" t="n">
-        <v>105.9126663208008</v>
+        <v>103.2169036865234</v>
       </c>
     </row>
     <row r="14">
@@ -959,16 +959,16 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>108.5980758666992</v>
+        <v>107.0794677734375</v>
       </c>
       <c r="I14" t="n">
-        <v>29.07526397705078</v>
+        <v>30.07098770141602</v>
       </c>
       <c r="J14" t="n">
-        <v>678.8839721679688</v>
+        <v>683.4058837890625</v>
       </c>
       <c r="K14" t="n">
-        <v>105.5758285522461</v>
+        <v>109.5417022705078</v>
       </c>
     </row>
     <row r="15">
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>116.6733703613281</v>
+        <v>116.3276977539062</v>
       </c>
       <c r="I15" t="n">
-        <v>27.71849250793457</v>
+        <v>29.06256675720215</v>
       </c>
       <c r="J15" t="n">
-        <v>948.6486206054688</v>
+        <v>945.4826049804688</v>
       </c>
       <c r="K15" t="n">
-        <v>81.70309448242188</v>
+        <v>83.98390197753906</v>
       </c>
     </row>
     <row r="16">
@@ -1033,16 +1033,16 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>129.7086944580078</v>
+        <v>129.7629699707031</v>
       </c>
       <c r="I16" t="n">
-        <v>28.56482887268066</v>
+        <v>28.13809204101562</v>
       </c>
       <c r="J16" t="n">
-        <v>948.9513549804688</v>
+        <v>946.4762573242188</v>
       </c>
       <c r="K16" t="n">
-        <v>80.10918426513672</v>
+        <v>81.54667663574219</v>
       </c>
     </row>
     <row r="17">
@@ -1070,16 +1070,16 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>132.5489196777344</v>
+        <v>131.7850494384766</v>
       </c>
       <c r="I17" t="n">
-        <v>27.55052375793457</v>
+        <v>26.72719192504883</v>
       </c>
       <c r="J17" t="n">
-        <v>963.1298828125</v>
+        <v>961.2261352539062</v>
       </c>
       <c r="K17" t="n">
-        <v>79.22113800048828</v>
+        <v>79.85319519042969</v>
       </c>
     </row>
     <row r="18">
@@ -1107,16 +1107,16 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>140.3816223144531</v>
+        <v>140.4685516357422</v>
       </c>
       <c r="I18" t="n">
-        <v>28.90084648132324</v>
+        <v>27.59675979614258</v>
       </c>
       <c r="J18" t="n">
-        <v>931.0286254882812</v>
+        <v>931.0426025390625</v>
       </c>
       <c r="K18" t="n">
-        <v>73.573974609375</v>
+        <v>75.64747619628906</v>
       </c>
     </row>
     <row r="19">
@@ -1144,16 +1144,16 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>156.9765014648438</v>
+        <v>155.3023376464844</v>
       </c>
       <c r="I19" t="n">
-        <v>31.44463539123535</v>
+        <v>32.78567123413086</v>
       </c>
       <c r="J19" t="n">
-        <v>912.4363403320312</v>
+        <v>909.8989868164062</v>
       </c>
       <c r="K19" t="n">
-        <v>76.823486328125</v>
+        <v>74.94541931152344</v>
       </c>
     </row>
     <row r="20">
@@ -1181,16 +1181,16 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>189.7733306884766</v>
+        <v>188.1853790283203</v>
       </c>
       <c r="I20" t="n">
-        <v>52.24503707885742</v>
+        <v>50.59090805053711</v>
       </c>
       <c r="J20" t="n">
-        <v>890.0787353515625</v>
+        <v>895.3300170898438</v>
       </c>
       <c r="K20" t="n">
-        <v>83.58729553222656</v>
+        <v>82.04186248779297</v>
       </c>
     </row>
     <row r="21">
@@ -1218,16 +1218,16 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>360.8326110839844</v>
+        <v>362.359375</v>
       </c>
       <c r="I21" t="n">
-        <v>166.1663360595703</v>
+        <v>165.9148101806641</v>
       </c>
       <c r="J21" t="n">
-        <v>875.0208129882812</v>
+        <v>877.1322021484375</v>
       </c>
       <c r="K21" t="n">
-        <v>94.64749908447266</v>
+        <v>96.86831665039062</v>
       </c>
     </row>
     <row r="22">
@@ -1255,16 +1255,16 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>664.8116455078125</v>
+        <v>666.555908203125</v>
       </c>
       <c r="I22" t="n">
-        <v>162.5532684326172</v>
+        <v>166.9530487060547</v>
       </c>
       <c r="J22" t="n">
-        <v>851.3209228515625</v>
+        <v>850.1709594726562</v>
       </c>
       <c r="K22" t="n">
-        <v>119.8458404541016</v>
+        <v>121.5570449829102</v>
       </c>
     </row>
     <row r="23">
@@ -1292,16 +1292,16 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>105.4941940307617</v>
+        <v>103.8560409545898</v>
       </c>
       <c r="I23" t="n">
-        <v>29.44518280029297</v>
+        <v>29.42661285400391</v>
       </c>
       <c r="J23" t="n">
-        <v>301.7247314453125</v>
+        <v>301.3025512695312</v>
       </c>
       <c r="K23" t="n">
-        <v>130.4696655273438</v>
+        <v>126.8327713012695</v>
       </c>
     </row>
     <row r="24">
@@ -1329,16 +1329,16 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>108.3030624389648</v>
+        <v>108.9306182861328</v>
       </c>
       <c r="I24" t="n">
-        <v>30.36781692504883</v>
+        <v>29.43556213378906</v>
       </c>
       <c r="J24" t="n">
-        <v>520.927490234375</v>
+        <v>526.1591186523438</v>
       </c>
       <c r="K24" t="n">
-        <v>150.4464721679688</v>
+        <v>149.5289916992188</v>
       </c>
     </row>
     <row r="25">
@@ -1366,16 +1366,16 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>116.0568771362305</v>
+        <v>117.1772155761719</v>
       </c>
       <c r="I25" t="n">
-        <v>29.38672637939453</v>
+        <v>29.14448165893555</v>
       </c>
       <c r="J25" t="n">
-        <v>886.7137451171875</v>
+        <v>880.751220703125</v>
       </c>
       <c r="K25" t="n">
-        <v>106.3876647949219</v>
+        <v>105.2570648193359</v>
       </c>
     </row>
     <row r="26">
@@ -1403,16 +1403,16 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>126.1066436767578</v>
+        <v>126.2043075561523</v>
       </c>
       <c r="I26" t="n">
-        <v>27.4973316192627</v>
+        <v>27.97174644470215</v>
       </c>
       <c r="J26" t="n">
-        <v>994.42822265625</v>
+        <v>995.489501953125</v>
       </c>
       <c r="K26" t="n">
-        <v>81.99148559570312</v>
+        <v>81.65633392333984</v>
       </c>
     </row>
     <row r="27">
@@ -1440,16 +1440,16 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>140.1078033447266</v>
+        <v>138.9671020507812</v>
       </c>
       <c r="I27" t="n">
-        <v>27.59749984741211</v>
+        <v>26.88806533813477</v>
       </c>
       <c r="J27" t="n">
-        <v>977.1171875</v>
+        <v>971.6290893554688</v>
       </c>
       <c r="K27" t="n">
-        <v>79.35917663574219</v>
+        <v>78.33030700683594</v>
       </c>
     </row>
     <row r="28">
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>161.8509368896484</v>
+        <v>162.8764343261719</v>
       </c>
       <c r="I28" t="n">
-        <v>29.18559265136719</v>
+        <v>29.64828491210938</v>
       </c>
       <c r="J28" t="n">
-        <v>924.8093872070312</v>
+        <v>924.3309326171875</v>
       </c>
       <c r="K28" t="n">
-        <v>81.67784118652344</v>
+        <v>82.47492980957031</v>
       </c>
     </row>
     <row r="29">
@@ -1514,16 +1514,16 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>196.4479217529297</v>
+        <v>196.4314117431641</v>
       </c>
       <c r="I29" t="n">
-        <v>39.63937377929688</v>
+        <v>41.18300247192383</v>
       </c>
       <c r="J29" t="n">
-        <v>900.2416381835938</v>
+        <v>896.403564453125</v>
       </c>
       <c r="K29" t="n">
-        <v>90.79045104980469</v>
+        <v>91.99414825439453</v>
       </c>
     </row>
     <row r="30">
@@ -1551,16 +1551,16 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>345.0030212402344</v>
+        <v>349.4603271484375</v>
       </c>
       <c r="I30" t="n">
-        <v>131.5926666259766</v>
+        <v>139.7584991455078</v>
       </c>
       <c r="J30" t="n">
-        <v>878.0314331054688</v>
+        <v>874.8518676757812</v>
       </c>
       <c r="K30" t="n">
-        <v>103.861701965332</v>
+        <v>106.3145446777344</v>
       </c>
     </row>
     <row r="31">
@@ -1588,16 +1588,16 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>673.375</v>
+        <v>672.1287841796875</v>
       </c>
       <c r="I31" t="n">
-        <v>152.2634887695312</v>
+        <v>154.8922576904297</v>
       </c>
       <c r="J31" t="n">
-        <v>863.0712890625</v>
+        <v>861.2730102539062</v>
       </c>
       <c r="K31" t="n">
-        <v>126.085334777832</v>
+        <v>123.0590515136719</v>
       </c>
     </row>
     <row r="32">
@@ -1625,16 +1625,16 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>103.0726013183594</v>
+        <v>102.8205032348633</v>
       </c>
       <c r="I32" t="n">
-        <v>29.95111656188965</v>
+        <v>30.20117950439453</v>
       </c>
       <c r="J32" t="n">
-        <v>126.9015350341797</v>
+        <v>128.7584686279297</v>
       </c>
       <c r="K32" t="n">
-        <v>71.09116363525391</v>
+        <v>70.80872344970703</v>
       </c>
     </row>
     <row r="33">
@@ -1662,16 +1662,16 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>105.6884994506836</v>
+        <v>104.9076080322266</v>
       </c>
       <c r="I33" t="n">
-        <v>30.06499862670898</v>
+        <v>28.93757438659668</v>
       </c>
       <c r="J33" t="n">
-        <v>216.3145751953125</v>
+        <v>217.6835174560547</v>
       </c>
       <c r="K33" t="n">
-        <v>102.7000350952148</v>
+        <v>105.3595657348633</v>
       </c>
     </row>
     <row r="34">
@@ -1699,16 +1699,16 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>111.5176849365234</v>
+        <v>112.0196075439453</v>
       </c>
       <c r="I34" t="n">
-        <v>29.31244850158691</v>
+        <v>28.6329288482666</v>
       </c>
       <c r="J34" t="n">
-        <v>393.0624084472656</v>
+        <v>387.3149108886719</v>
       </c>
       <c r="K34" t="n">
-        <v>152.1198120117188</v>
+        <v>149.2555236816406</v>
       </c>
     </row>
     <row r="35">
@@ -1736,16 +1736,16 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>120.19921875</v>
+        <v>119.3537368774414</v>
       </c>
       <c r="I35" t="n">
-        <v>28.75679016113281</v>
+        <v>28.90316581726074</v>
       </c>
       <c r="J35" t="n">
-        <v>537.9586181640625</v>
+        <v>541.6851806640625</v>
       </c>
       <c r="K35" t="n">
-        <v>150.7614135742188</v>
+        <v>152.4221801757812</v>
       </c>
     </row>
     <row r="36">
@@ -1773,16 +1773,16 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>137.4815216064453</v>
+        <v>138.6567077636719</v>
       </c>
       <c r="I36" t="n">
-        <v>28.71689224243164</v>
+        <v>28.93419075012207</v>
       </c>
       <c r="J36" t="n">
-        <v>786.61474609375</v>
+        <v>792.8539428710938</v>
       </c>
       <c r="K36" t="n">
-        <v>131.8921051025391</v>
+        <v>128.3846435546875</v>
       </c>
     </row>
     <row r="37">
@@ -1810,16 +1810,16 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>156.3718566894531</v>
+        <v>156.8920745849609</v>
       </c>
       <c r="I37" t="n">
-        <v>30.11879730224609</v>
+        <v>30.24594497680664</v>
       </c>
       <c r="J37" t="n">
-        <v>809.501953125</v>
+        <v>815.2984008789062</v>
       </c>
       <c r="K37" t="n">
-        <v>127.38720703125</v>
+        <v>121.3147048950195</v>
       </c>
     </row>
     <row r="38">
@@ -1847,16 +1847,16 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>203.2673187255859</v>
+        <v>200.9017791748047</v>
       </c>
       <c r="I38" t="n">
-        <v>37.68796539306641</v>
+        <v>37.05259323120117</v>
       </c>
       <c r="J38" t="n">
-        <v>832.8383178710938</v>
+        <v>838.449951171875</v>
       </c>
       <c r="K38" t="n">
-        <v>126.8470687866211</v>
+        <v>127.2813262939453</v>
       </c>
     </row>
     <row r="39">
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>322.3850708007812</v>
+        <v>321.1141357421875</v>
       </c>
       <c r="I39" t="n">
-        <v>85.70372772216797</v>
+        <v>86.60411071777344</v>
       </c>
       <c r="J39" t="n">
-        <v>835.6294555664062</v>
+        <v>837.4842529296875</v>
       </c>
       <c r="K39" t="n">
-        <v>139.7924041748047</v>
+        <v>138.3813018798828</v>
       </c>
     </row>
     <row r="40">
@@ -1921,16 +1921,16 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>644.0044555664062</v>
+        <v>646.3560180664062</v>
       </c>
       <c r="I40" t="n">
-        <v>146.4580078125</v>
+        <v>145.6036529541016</v>
       </c>
       <c r="J40" t="n">
-        <v>839.2011108398438</v>
+        <v>841.295654296875</v>
       </c>
       <c r="K40" t="n">
-        <v>156.7636108398438</v>
+        <v>149.5394439697266</v>
       </c>
     </row>
     <row r="41">
@@ -1958,16 +1958,16 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>104.8979339599609</v>
+        <v>102.6219329833984</v>
       </c>
       <c r="I41" t="n">
-        <v>30.08039283752441</v>
+        <v>29.85413360595703</v>
       </c>
       <c r="J41" t="n">
-        <v>91.37703704833984</v>
+        <v>88.87236785888672</v>
       </c>
       <c r="K41" t="n">
-        <v>48.44962310791016</v>
+        <v>48.32106781005859</v>
       </c>
     </row>
     <row r="42">
@@ -1995,16 +1995,16 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>106.1420745849609</v>
+        <v>106.1443862915039</v>
       </c>
       <c r="I42" t="n">
-        <v>28.86479949951172</v>
+        <v>29.86990737915039</v>
       </c>
       <c r="J42" t="n">
-        <v>116.0534515380859</v>
+        <v>116.6637268066406</v>
       </c>
       <c r="K42" t="n">
-        <v>54.39841079711914</v>
+        <v>53.54011154174805</v>
       </c>
     </row>
     <row r="43">
@@ -2032,16 +2032,16 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>108.2906341552734</v>
+        <v>109.1845474243164</v>
       </c>
       <c r="I43" t="n">
-        <v>28.82157325744629</v>
+        <v>29.41332244873047</v>
       </c>
       <c r="J43" t="n">
-        <v>145.5316467285156</v>
+        <v>142.9061431884766</v>
       </c>
       <c r="K43" t="n">
-        <v>64.02462005615234</v>
+        <v>63.39826583862305</v>
       </c>
     </row>
     <row r="44">
@@ -2069,16 +2069,16 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>118.9777069091797</v>
+        <v>119.3481140136719</v>
       </c>
       <c r="I44" t="n">
-        <v>28.59119033813477</v>
+        <v>29.00695037841797</v>
       </c>
       <c r="J44" t="n">
-        <v>250.1577911376953</v>
+        <v>246.1017913818359</v>
       </c>
       <c r="K44" t="n">
-        <v>102.5186080932617</v>
+        <v>100.640266418457</v>
       </c>
     </row>
     <row r="45">
@@ -2106,16 +2106,16 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>129.5500030517578</v>
+        <v>127.1852722167969</v>
       </c>
       <c r="I45" t="n">
-        <v>30.36458396911621</v>
+        <v>29.80763053894043</v>
       </c>
       <c r="J45" t="n">
-        <v>310.4930725097656</v>
+        <v>308.2968139648438</v>
       </c>
       <c r="K45" t="n">
-        <v>113.3947143554688</v>
+        <v>109.9987106323242</v>
       </c>
     </row>
     <row r="46">
@@ -2143,16 +2143,16 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>149.9640655517578</v>
+        <v>149.1611938476562</v>
       </c>
       <c r="I46" t="n">
-        <v>30.83417510986328</v>
+        <v>29.8532772064209</v>
       </c>
       <c r="J46" t="n">
-        <v>428.5660400390625</v>
+        <v>429.0783996582031</v>
       </c>
       <c r="K46" t="n">
-        <v>132.1841430664062</v>
+        <v>140.1935424804688</v>
       </c>
     </row>
     <row r="47">
@@ -2180,16 +2180,16 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>193.4425048828125</v>
+        <v>195.7917938232422</v>
       </c>
       <c r="I47" t="n">
-        <v>36.92324829101562</v>
+        <v>39.23159790039062</v>
       </c>
       <c r="J47" t="n">
-        <v>558.5647583007812</v>
+        <v>566.4488525390625</v>
       </c>
       <c r="K47" t="n">
-        <v>156.5456390380859</v>
+        <v>161.9177093505859</v>
       </c>
     </row>
     <row r="48">
@@ -2217,16 +2217,16 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>323.7908020019531</v>
+        <v>325.3287353515625</v>
       </c>
       <c r="I48" t="n">
-        <v>80.07075500488281</v>
+        <v>79.94573974609375</v>
       </c>
       <c r="J48" t="n">
-        <v>711.4838256835938</v>
+        <v>710.3786010742188</v>
       </c>
       <c r="K48" t="n">
-        <v>164.3793640136719</v>
+        <v>168.0117950439453</v>
       </c>
     </row>
     <row r="49">
@@ -2254,16 +2254,16 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>591.6934204101562</v>
+        <v>594.0640869140625</v>
       </c>
       <c r="I49" t="n">
-        <v>132.115966796875</v>
+        <v>133.1912689208984</v>
       </c>
       <c r="J49" t="n">
-        <v>760.6249389648438</v>
+        <v>763.5820922851562</v>
       </c>
       <c r="K49" t="n">
-        <v>181.8099365234375</v>
+        <v>174.2421112060547</v>
       </c>
     </row>
     <row r="50">
@@ -2291,16 +2291,16 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>104.3350219726562</v>
+        <v>102.4693450927734</v>
       </c>
       <c r="I50" t="n">
-        <v>28.15256690979004</v>
+        <v>28.28123664855957</v>
       </c>
       <c r="J50" t="n">
-        <v>63.41995620727539</v>
+        <v>60.88560485839844</v>
       </c>
       <c r="K50" t="n">
-        <v>42.82213592529297</v>
+        <v>44.9563102722168</v>
       </c>
     </row>
     <row r="51">
@@ -2328,16 +2328,16 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>109.4122619628906</v>
+        <v>107.826171875</v>
       </c>
       <c r="I51" t="n">
-        <v>29.4576244354248</v>
+        <v>29.77534294128418</v>
       </c>
       <c r="J51" t="n">
-        <v>70.90947723388672</v>
+        <v>73.25349426269531</v>
       </c>
       <c r="K51" t="n">
-        <v>48.72262191772461</v>
+        <v>48.40398025512695</v>
       </c>
     </row>
     <row r="52">
@@ -2365,16 +2365,16 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>110.3135299682617</v>
+        <v>110.4840087890625</v>
       </c>
       <c r="I52" t="n">
-        <v>29.64988327026367</v>
+        <v>30.72986793518066</v>
       </c>
       <c r="J52" t="n">
-        <v>76.6322021484375</v>
+        <v>78.18711090087891</v>
       </c>
       <c r="K52" t="n">
-        <v>48.63680648803711</v>
+        <v>52.65363311767578</v>
       </c>
     </row>
     <row r="53">
@@ -2402,16 +2402,16 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>118.6725540161133</v>
+        <v>118.3221588134766</v>
       </c>
       <c r="I53" t="n">
-        <v>31.09557723999023</v>
+        <v>29.64403915405273</v>
       </c>
       <c r="J53" t="n">
-        <v>102.9081344604492</v>
+        <v>97.76461791992188</v>
       </c>
       <c r="K53" t="n">
-        <v>57.16233062744141</v>
+        <v>58.62989044189453</v>
       </c>
     </row>
     <row r="54">
@@ -2439,16 +2439,16 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>129.1624145507812</v>
+        <v>129.9951934814453</v>
       </c>
       <c r="I54" t="n">
-        <v>30.10563850402832</v>
+        <v>29.73663330078125</v>
       </c>
       <c r="J54" t="n">
-        <v>129.6229705810547</v>
+        <v>130.74365234375</v>
       </c>
       <c r="K54" t="n">
-        <v>63.79744720458984</v>
+        <v>64.56766510009766</v>
       </c>
     </row>
     <row r="55">
@@ -2476,16 +2476,16 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>147.7865142822266</v>
+        <v>146.91015625</v>
       </c>
       <c r="I55" t="n">
-        <v>31.81873321533203</v>
+        <v>31.55989265441895</v>
       </c>
       <c r="J55" t="n">
-        <v>187.1720886230469</v>
+        <v>188.0850067138672</v>
       </c>
       <c r="K55" t="n">
-        <v>70.568603515625</v>
+        <v>73.20115661621094</v>
       </c>
     </row>
     <row r="56">
@@ -2513,16 +2513,16 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>184.8893432617188</v>
+        <v>182.7888793945312</v>
       </c>
       <c r="I56" t="n">
-        <v>37.49652099609375</v>
+        <v>36.94910430908203</v>
       </c>
       <c r="J56" t="n">
-        <v>236.97607421875</v>
+        <v>241.0235137939453</v>
       </c>
       <c r="K56" t="n">
-        <v>85.87973022460938</v>
+        <v>88.67786407470703</v>
       </c>
     </row>
     <row r="57">
@@ -2550,16 +2550,16 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>281.1007995605469</v>
+        <v>276.1425170898438</v>
       </c>
       <c r="I57" t="n">
-        <v>75.82206726074219</v>
+        <v>75.90997314453125</v>
       </c>
       <c r="J57" t="n">
-        <v>399.8330993652344</v>
+        <v>395.5231628417969</v>
       </c>
       <c r="K57" t="n">
-        <v>158.8925323486328</v>
+        <v>162.9765777587891</v>
       </c>
     </row>
     <row r="58">
@@ -2587,16 +2587,16 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>583.767578125</v>
+        <v>586.805908203125</v>
       </c>
       <c r="I58" t="n">
-        <v>125.8415145874023</v>
+        <v>125.913200378418</v>
       </c>
       <c r="J58" t="n">
-        <v>561.4761962890625</v>
+        <v>564.0200805664062</v>
       </c>
       <c r="K58" t="n">
-        <v>224.6077270507812</v>
+        <v>222.1221466064453</v>
       </c>
     </row>
     <row r="59">
@@ -2624,16 +2624,16 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>110.4662780761719</v>
+        <v>109.8001327514648</v>
       </c>
       <c r="I59" t="n">
-        <v>30.81768608093262</v>
+        <v>30.75861358642578</v>
       </c>
       <c r="J59" t="n">
-        <v>16.39940643310547</v>
+        <v>16.87737083435059</v>
       </c>
       <c r="K59" t="n">
-        <v>63.03499221801758</v>
+        <v>60.54317474365234</v>
       </c>
     </row>
     <row r="60">
@@ -2661,16 +2661,16 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>113.8581008911133</v>
+        <v>113.3070602416992</v>
       </c>
       <c r="I60" t="n">
-        <v>30.32932662963867</v>
+        <v>30.44159126281738</v>
       </c>
       <c r="J60" t="n">
-        <v>6.764046669006348</v>
+        <v>9.099033355712891</v>
       </c>
       <c r="K60" t="n">
-        <v>69.16429138183594</v>
+        <v>65.94135284423828</v>
       </c>
     </row>
     <row r="61">
@@ -2698,16 +2698,16 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>119.3832550048828</v>
+        <v>120.5351028442383</v>
       </c>
       <c r="I61" t="n">
-        <v>31.68256187438965</v>
+        <v>32.03358840942383</v>
       </c>
       <c r="J61" t="n">
-        <v>8.701749801635742</v>
+        <v>11.38070106506348</v>
       </c>
       <c r="K61" t="n">
-        <v>67.27072906494141</v>
+        <v>65.29219055175781</v>
       </c>
     </row>
     <row r="62">
@@ -2735,16 +2735,16 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>129.5691375732422</v>
+        <v>130.802490234375</v>
       </c>
       <c r="I62" t="n">
-        <v>31.11750030517578</v>
+        <v>31.39224243164062</v>
       </c>
       <c r="J62" t="n">
-        <v>22.99368286132812</v>
+        <v>22.58588218688965</v>
       </c>
       <c r="K62" t="n">
-        <v>67.69381713867188</v>
+        <v>67.89181518554688</v>
       </c>
     </row>
     <row r="63">
@@ -2772,16 +2772,16 @@
         </is>
       </c>
       <c r="H63" t="n">
-        <v>144.3251495361328</v>
+        <v>142.8099365234375</v>
       </c>
       <c r="I63" t="n">
-        <v>32.97597503662109</v>
+        <v>32.36318588256836</v>
       </c>
       <c r="J63" t="n">
-        <v>55.40947341918945</v>
+        <v>52.96395492553711</v>
       </c>
       <c r="K63" t="n">
-        <v>72.51701354980469</v>
+        <v>70.94397735595703</v>
       </c>
     </row>
     <row r="64">
@@ -2809,16 +2809,16 @@
         </is>
       </c>
       <c r="H64" t="n">
-        <v>181.1025543212891</v>
+        <v>179.9947967529297</v>
       </c>
       <c r="I64" t="n">
-        <v>40.20402908325195</v>
+        <v>38.75957489013672</v>
       </c>
       <c r="J64" t="n">
-        <v>79.8804931640625</v>
+        <v>85.48715209960938</v>
       </c>
       <c r="K64" t="n">
-        <v>71.02034759521484</v>
+        <v>75.64145660400391</v>
       </c>
     </row>
     <row r="65">
@@ -2846,16 +2846,16 @@
         </is>
       </c>
       <c r="H65" t="n">
-        <v>286.5245361328125</v>
+        <v>284.2371826171875</v>
       </c>
       <c r="I65" t="n">
-        <v>85.50678253173828</v>
+        <v>89.28263092041016</v>
       </c>
       <c r="J65" t="n">
-        <v>188.9655456542969</v>
+        <v>185.4719848632812</v>
       </c>
       <c r="K65" t="n">
-        <v>111.621452331543</v>
+        <v>111.3105545043945</v>
       </c>
     </row>
     <row r="66">
@@ -2883,16 +2883,16 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>123.7178802490234</v>
+        <v>123.6132278442383</v>
       </c>
       <c r="I66" t="n">
-        <v>37.70561981201172</v>
+        <v>35.13708877563477</v>
       </c>
       <c r="J66" t="n">
-        <v>-88.91426086425781</v>
+        <v>-88.26633453369141</v>
       </c>
       <c r="K66" t="n">
-        <v>93.67539215087891</v>
+        <v>94.24073791503906</v>
       </c>
     </row>
     <row r="67">
@@ -2920,16 +2920,16 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>129.1122894287109</v>
+        <v>128.2853851318359</v>
       </c>
       <c r="I67" t="n">
-        <v>36.65732574462891</v>
+        <v>37.35093688964844</v>
       </c>
       <c r="J67" t="n">
-        <v>-99.18747711181641</v>
+        <v>-94.89104461669922</v>
       </c>
       <c r="K67" t="n">
-        <v>94.72219085693359</v>
+        <v>94.95378875732422</v>
       </c>
     </row>
     <row r="68">
@@ -2957,16 +2957,16 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>142.4722595214844</v>
+        <v>142.2630920410156</v>
       </c>
       <c r="I68" t="n">
-        <v>38.51214599609375</v>
+        <v>38.86968994140625</v>
       </c>
       <c r="J68" t="n">
-        <v>-89.68955230712891</v>
+        <v>-89.03530120849609</v>
       </c>
       <c r="K68" t="n">
-        <v>93.88838195800781</v>
+        <v>94.26011657714844</v>
       </c>
     </row>
     <row r="69">
@@ -2994,16 +2994,16 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>151.9605712890625</v>
+        <v>150.1664581298828</v>
       </c>
       <c r="I69" t="n">
-        <v>39.16981506347656</v>
+        <v>38.63702011108398</v>
       </c>
       <c r="J69" t="n">
-        <v>-69.12423706054688</v>
+        <v>-68.38483428955078</v>
       </c>
       <c r="K69" t="n">
-        <v>93.66404724121094</v>
+        <v>94.66260528564453</v>
       </c>
     </row>
     <row r="70">
@@ -3031,16 +3031,16 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>182.6332702636719</v>
+        <v>182.0282592773438</v>
       </c>
       <c r="I70" t="n">
-        <v>45.24738311767578</v>
+        <v>47.06216430664062</v>
       </c>
       <c r="J70" t="n">
-        <v>-25.82101821899414</v>
+        <v>-26.9155330657959</v>
       </c>
       <c r="K70" t="n">
-        <v>96.91233825683594</v>
+        <v>94.82669830322266</v>
       </c>
     </row>
   </sheetData>
